--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline_15min" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Baseline_100pkt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Baseline_200pkt" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="24">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -90,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve">(3 boards, ~100pkt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3 boards, ~200pkt)</t>
   </si>
 </sst>
 </file>
@@ -346,7 +350,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1368,17 +1372,17 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
   </cols>
   <sheetData>
@@ -1995,6 +1999,1147 @@
       <c r="C29" s="3"/>
       <c r="D29" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="9" t="e">
+        <f aca="false">AVERAGE(B32,B37,B47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52" s="9" t="e">
+        <f aca="false">AVERAGE(C32,C37,C47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D52" s="9" t="e">
+        <f aca="false">AVERAGE(D32,D37,D47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" s="9" t="e">
+        <f aca="false">AVERAGE(E32,E37,E47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="9" t="e">
+        <f aca="false">AVERAGE(F32,F37,F47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="9" t="e">
+        <f aca="false">AVERAGE(G32,G37,G47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="9" t="e">
+        <f aca="false">AVERAGE(B33,B38,B48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53" s="9" t="e">
+        <f aca="false">AVERAGE(C33,C38,C48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="9" t="e">
+        <f aca="false">AVERAGE(D33,D38,D48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="9" t="e">
+        <f aca="false">AVERAGE(E33,E38,E48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="9" t="e">
+        <f aca="false">AVERAGE(F33,F38,F48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="9" t="e">
+        <f aca="false">AVERAGE(G33,G38,G48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="9" t="e">
+        <f aca="false">AVERAGE(B34,B39,B49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" s="9" t="e">
+        <f aca="false">AVERAGE(C34,C39,C49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D54" s="9" t="e">
+        <f aca="false">AVERAGE(D34,D39,D49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" s="9" t="e">
+        <f aca="false">AVERAGE(E34,E39,E49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="9" t="e">
+        <f aca="false">AVERAGE(F34,F39,F49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="9" t="e">
+        <f aca="false">AVERAGE(G34,G39,G49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H8:J11"/>
+    <mergeCell ref="H13:J16"/>
+    <mergeCell ref="H18:J21"/>
+    <mergeCell ref="H23:J26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H36:J39"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="H46:J49"/>
+    <mergeCell ref="H51:J54"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <f aca="false">1-C9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>-93.8</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <f aca="false">1-C10/B10</f>
+        <v>0.995169082125604</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>-95.8</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>207</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <f aca="false">1-C11/B11</f>
+        <v>0.990338164251208</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>-94.54</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="n">
+        <f aca="false">1-C14/B14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="n">
+        <v>-95.99</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10" t="n">
+        <f aca="false">1-C15/B15</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9" t="n">
+        <v>-94.84</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="n">
+        <f aca="false">1-C16/B16</f>
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9" t="n">
+        <v>-95.13</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10" t="n">
+        <f aca="false">1-C19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>-90.93</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="n">
+        <f aca="false">1-C20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9" t="n">
+        <v>-92.26</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10" t="n">
+        <f aca="false">1-C21/B21</f>
+        <v>0.995</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>-92.1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="n">
+        <f aca="false">AVERAGE(B9,B14,B19)</f>
+        <v>202.333333333333</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <f aca="false">AVERAGE(C9,C14,C19)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <f aca="false">AVERAGE(D9,D14,D19)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <f aca="false">AVERAGE(E9,E14,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <f aca="false">AVERAGE(F9,F14,F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
+        <f aca="false">AVERAGE(G9,G14,G19)</f>
+        <v>-93.5733333333333</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9" t="n">
+        <f aca="false">AVERAGE(B10,B15,B20)</f>
+        <v>202.333333333333</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">AVERAGE(C10,C15,C20)</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <f aca="false">AVERAGE(D10,D15,D20)</f>
+        <v>0.998389694041868</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <f aca="false">AVERAGE(E10,E15,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <f aca="false">AVERAGE(F10,F15,F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
+        <f aca="false">AVERAGE(G10,G15,G20)</f>
+        <v>-94.3</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9" t="n">
+        <f aca="false">AVERAGE(B11,B16,B21)</f>
+        <v>202.333333333333</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <f aca="false">AVERAGE(C11,C16,C21)</f>
+        <v>1.66666666666667</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <f aca="false">AVERAGE(D11,D16,D21)</f>
+        <v>0.991779388083736</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <f aca="false">AVERAGE(E11,E16,E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <f aca="false">AVERAGE(F11,F16,F21)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="9" t="n">
+        <f aca="false">AVERAGE(G11,G16,G21)</f>
+        <v>-93.9233333333333</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="24">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -1376,12 +1376,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
   </cols>
@@ -2512,13 +2512,13 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.99"/>
@@ -3258,16 +3258,25 @@
       <c r="A37" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="9"/>
+      <c r="B37" s="9" t="n">
+        <v>199</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <f aca="false">1-C37/B37</f>
+        <v>0.798994974874372</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>-89.51</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3276,16 +3285,25 @@
       <c r="A38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="9"/>
+      <c r="B38" s="9" t="n">
+        <v>199</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>46</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <f aca="false">1-C38/B38</f>
+        <v>0.768844221105528</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>-91.59</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -3294,16 +3312,25 @@
       <c r="A39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="9"/>
+      <c r="B39" s="9" t="n">
+        <v>199</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <f aca="false">1-C39/B39</f>
+        <v>0.889447236180904</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>-90.81</v>
+      </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3354,12 +3381,15 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>14</v>
+      <c r="D42" s="10" t="e">
+        <f aca="false">1-C42/B42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="7"/>
@@ -3372,12 +3402,15 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>14</v>
+      <c r="D43" s="10" t="e">
+        <f aca="false">1-C43/B43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="7"/>
@@ -3390,12 +3423,15 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>14</v>
+      <c r="D44" s="10" t="e">
+        <f aca="false">1-C44/B44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="7"/>
@@ -3437,12 +3473,15 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>14</v>
+      <c r="D47" s="10" t="e">
+        <f aca="false">1-C47/B47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="7"/>
@@ -3455,12 +3494,15 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>14</v>
+      <c r="D48" s="10" t="e">
+        <f aca="false">1-C48/B48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="7"/>
@@ -3473,12 +3515,15 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>14</v>
+      <c r="D49" s="10" t="e">
+        <f aca="false">1-C49/B49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="7"/>
@@ -3529,29 +3574,29 @@
       <c r="A52" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="9" t="e">
+      <c r="B52" s="9" t="n">
         <f aca="false">AVERAGE(B32,B37,B47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" s="9" t="e">
+        <v>199</v>
+      </c>
+      <c r="C52" s="9" t="n">
         <f aca="false">AVERAGE(C32,C37,C47)</f>
-        <v>#DIV/0!</v>
+        <v>40</v>
       </c>
       <c r="D52" s="9" t="e">
         <f aca="false">AVERAGE(D32,D37,D47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="9" t="e">
+      <c r="E52" s="9" t="n">
         <f aca="false">AVERAGE(E32,E37,E47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9" t="n">
         <f aca="false">AVERAGE(F32,F37,F47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G52" s="9" t="n">
         <f aca="false">AVERAGE(G32,G37,G47)</f>
-        <v>#DIV/0!</v>
+        <v>-89.51</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -3561,29 +3606,29 @@
       <c r="A53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="9" t="e">
+      <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="9" t="e">
+        <v>199</v>
+      </c>
+      <c r="C53" s="9" t="n">
         <f aca="false">AVERAGE(C33,C38,C48)</f>
-        <v>#DIV/0!</v>
+        <v>46</v>
       </c>
       <c r="D53" s="9" t="e">
         <f aca="false">AVERAGE(D33,D38,D48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E53" s="9" t="e">
+      <c r="E53" s="9" t="n">
         <f aca="false">AVERAGE(E33,E38,E48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9" t="n">
         <f aca="false">AVERAGE(F33,F38,F48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9" t="n">
         <f aca="false">AVERAGE(G33,G38,G48)</f>
-        <v>#DIV/0!</v>
+        <v>-91.59</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -3593,29 +3638,29 @@
       <c r="A54" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="9" t="e">
+      <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C54" s="9" t="e">
+        <v>199</v>
+      </c>
+      <c r="C54" s="9" t="n">
         <f aca="false">AVERAGE(C34,C39,C49)</f>
-        <v>#DIV/0!</v>
+        <v>22</v>
       </c>
       <c r="D54" s="9" t="e">
         <f aca="false">AVERAGE(D34,D39,D49)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E54" s="9" t="e">
+      <c r="E54" s="9" t="n">
         <f aca="false">AVERAGE(E34,E39,E49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9" t="n">
         <f aca="false">AVERAGE(F34,F39,F49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9" t="n">
         <f aca="false">AVERAGE(G34,G39,G49)</f>
-        <v>#DIV/0!</v>
+        <v>-90.81</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline_15min" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Baseline_100pkt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Baseline_100pkt" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Baseline_15min" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Baseline_200pkt" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="27">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
   <si>
-    <t xml:space="preserve">(3 boards, 15 min)</t>
+    <t xml:space="preserve">(3 boards, ~100pkt)</t>
   </si>
   <si>
     <t xml:space="preserve">interval = 30s</t>
@@ -90,7 +90,16 @@
     <t xml:space="preserve">noise board, interval = 0.5s</t>
   </si>
   <si>
-    <t xml:space="preserve">(3 boards, ~100pkt)</t>
+    <t xml:space="preserve">Board 1 noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 2 noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 3 noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3 boards, 15 min)</t>
   </si>
   <si>
     <t xml:space="preserve">(3 boards, ~200pkt)</t>
@@ -103,9 +112,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-809]0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-809]General"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -164,6 +173,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,10 +246,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,6 +256,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -296,7 +315,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -330,7 +349,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -343,41 +362,1508 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDR (total)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$A$24:$A$26;Baseline_100pkt!$A$52:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>board 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>board 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>board 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Board 1 noise</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Board 2 noise</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Board 3 noise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$D$24:$D$26;Baseline_100pkt!$D$52:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="3">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="47516670"/>
+        <c:axId val="26874148"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47516670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Board average values</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26874148"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="26874148"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.921"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:custDash>
+                <a:ds d="100000" sp="300000"/>
+                <a:ds d="100000" sp="300000"/>
+              </a:custDash>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>PDR (total) average</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="[$-809]0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47516670"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.02"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>167040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>198360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13155120" y="1714320"/>
+        <a:ext cx="7502400" cy="4219920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="e">
+        <f aca="false">1-C9/B9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="e">
+        <f aca="false">1-C10/B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="e">
+        <f aca="false">1-C11/B11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="e">
+        <f aca="false">1-C14/B14</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10" t="e">
+        <f aca="false">1-C15/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10" t="e">
+        <f aca="false">1-C16/B16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="e">
+        <f aca="false">1-C19/B19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="e">
+        <f aca="false">1-C20/B20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10" t="e">
+        <f aca="false">1-C21/B21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="e">
+        <f aca="false">AVERAGE(B9,B14,B19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="9" t="e">
+        <f aca="false">AVERAGE(C9,C14,C19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="9" t="e">
+        <f aca="false">AVERAGE(D9,D14,D19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="9" t="e">
+        <f aca="false">AVERAGE(E9,E14,E19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="9" t="e">
+        <f aca="false">AVERAGE(F9,F14,F19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="9" t="e">
+        <f aca="false">AVERAGE(G9,G14,G19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9" t="e">
+        <f aca="false">AVERAGE(B10,B15,B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="9" t="e">
+        <f aca="false">AVERAGE(C10,C15,C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="9" t="e">
+        <f aca="false">AVERAGE(D10,D15,D20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="9" t="e">
+        <f aca="false">AVERAGE(E10,E15,E20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="9" t="e">
+        <f aca="false">AVERAGE(F10,F15,F20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="9" t="e">
+        <f aca="false">AVERAGE(G10,G15,G20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9" t="e">
+        <f aca="false">AVERAGE(B11,B16,B21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="9" t="e">
+        <f aca="false">AVERAGE(C11,C16,C21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="9" t="e">
+        <f aca="false">AVERAGE(D11,D16,D21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="9" t="e">
+        <f aca="false">AVERAGE(E11,E16,E21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="9" t="e">
+        <f aca="false">AVERAGE(F11,F16,F21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="9" t="e">
+        <f aca="false">AVERAGE(G11,G16,G21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D37" s="10" t="n">
+        <f aca="false">1-C37/B37</f>
+        <v>0.84</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>-98.51</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D38" s="10" t="n">
+        <f aca="false">1-C38/B38</f>
+        <v>0.82</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="9" t="n">
+        <v>-91.59</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10" t="n">
+        <f aca="false">1-C39/B39</f>
+        <v>0.91</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>-90.81</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10" t="e">
+        <f aca="false">1-C42/B42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10" t="e">
+        <f aca="false">1-C43/B43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10" t="e">
+        <f aca="false">1-C44/B44</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10" t="e">
+        <f aca="false">1-C47/B47</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10" t="e">
+        <f aca="false">1-C48/B48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10" t="e">
+        <f aca="false">1-C49/B49</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="9" t="n">
+        <f aca="false">AVERAGE(B32,B37,B47)</f>
+        <v>100</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <f aca="false">AVERAGE(C32,C37,C47)</f>
+        <v>16</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <f aca="false">1-C52/B52</f>
+        <v>0.84</v>
+      </c>
+      <c r="E52" s="9" t="e">
+        <f aca="false">AVERAGE(E32,E37,E47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F52" s="9" t="e">
+        <f aca="false">AVERAGE(F32,F37,F47)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="9" t="n">
+        <f aca="false">AVERAGE(G32,G37,G47)</f>
+        <v>-98.51</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="9" t="n">
+        <f aca="false">AVERAGE(B33,B38,B48)</f>
+        <v>100</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <f aca="false">AVERAGE(C33,C38,C48)</f>
+        <v>18</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <f aca="false">1-C53/B53</f>
+        <v>0.82</v>
+      </c>
+      <c r="E53" s="9" t="e">
+        <f aca="false">AVERAGE(E33,E38,E48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F53" s="9" t="e">
+        <f aca="false">AVERAGE(F33,F38,F48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="9" t="n">
+        <f aca="false">AVERAGE(G33,G38,G48)</f>
+        <v>-91.59</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="9" t="n">
+        <f aca="false">AVERAGE(B34,B39,B49)</f>
+        <v>100</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <f aca="false">AVERAGE(C34,C39,C49)</f>
+        <v>9</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <f aca="false">1-C54/B54</f>
+        <v>0.91</v>
+      </c>
+      <c r="E54" s="9" t="e">
+        <f aca="false">AVERAGE(E34,E39,E49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F54" s="9" t="e">
+        <f aca="false">AVERAGE(F34,F39,F49)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="9" t="n">
+        <f aca="false">AVERAGE(G34,G39,G49)</f>
+        <v>-90.81</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H8:J11"/>
+    <mergeCell ref="H13:J16"/>
+    <mergeCell ref="H18:J21"/>
+    <mergeCell ref="H23:J26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H36:J39"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="H46:J49"/>
+    <mergeCell ref="H51:J54"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"Seite &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.21"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="1" width="10.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="13.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="22.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="16.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="4" width="10.61"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -848,17 +2334,17 @@
       <c r="J27" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
@@ -1365,1146 +2851,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J54"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10" t="n">
-        <f aca="false">1-C9/B9</f>
-        <v>0.95049504950495</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>-95.85</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" s="10" t="n">
-        <f aca="false">1-C10/B10</f>
-        <v>0.95049504950495</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>-94.59</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="n">
-        <f aca="false">1-C11/B11</f>
-        <v>0.98019801980198</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>-93.95</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="n">
-        <f aca="false">1-C14/B14</f>
-        <v>0.94</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="9" t="n">
-        <v>-95.34</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="10" t="n">
-        <f aca="false">1-C15/B15</f>
-        <v>0.93</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9" t="n">
-        <v>-94.35</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D16" s="10" t="n">
-        <f aca="false">1-C16/B16</f>
-        <v>0.94</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9" t="n">
-        <v>-95.41</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="n">
-        <f aca="false">1-C19/B19</f>
-        <v>0.96</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="9" t="n">
-        <v>-95.03</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" s="10" t="n">
-        <f aca="false">1-C20/B20</f>
-        <v>0.94</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="9" t="n">
-        <v>-93.95</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" s="10" t="n">
-        <f aca="false">1-C21/B21</f>
-        <v>0.93</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>-92.15</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-    </row>
-    <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <f aca="false">AVERAGE(B9,B14,B19)</f>
-        <v>100.333333333333</v>
-      </c>
-      <c r="C24" s="9" t="n">
-        <f aca="false">AVERAGE(C9,C14,C19)</f>
-        <v>5</v>
-      </c>
-      <c r="D24" s="9" t="n">
-        <f aca="false">AVERAGE(D9,D14,D19)</f>
-        <v>0.95016501650165</v>
-      </c>
-      <c r="E24" s="9" t="e">
-        <f aca="false">AVERAGE(E9,E14,E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="9" t="e">
-        <f aca="false">AVERAGE(F9,F14,F19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="9" t="n">
-        <f aca="false">AVERAGE(G9,G14,G19)</f>
-        <v>-95.4066666666667</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-    </row>
-    <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <f aca="false">AVERAGE(B10,B15,B20)</f>
-        <v>100.333333333333</v>
-      </c>
-      <c r="C25" s="9" t="n">
-        <f aca="false">AVERAGE(C10,C15,C20)</f>
-        <v>6</v>
-      </c>
-      <c r="D25" s="9" t="n">
-        <f aca="false">AVERAGE(D10,D15,D20)</f>
-        <v>0.94016501650165</v>
-      </c>
-      <c r="E25" s="9" t="e">
-        <f aca="false">AVERAGE(E10,E15,E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="9" t="e">
-        <f aca="false">AVERAGE(F10,F15,F20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">AVERAGE(G10,G15,G20)</f>
-        <v>-94.2966666666667</v>
-      </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="9" t="n">
-        <f aca="false">AVERAGE(B11,B16,B21)</f>
-        <v>100.333333333333</v>
-      </c>
-      <c r="C26" s="9" t="n">
-        <f aca="false">AVERAGE(C11,C16,C21)</f>
-        <v>5</v>
-      </c>
-      <c r="D26" s="9" t="n">
-        <f aca="false">AVERAGE(D11,D16,D21)</f>
-        <v>0.95006600660066</v>
-      </c>
-      <c r="E26" s="9" t="e">
-        <f aca="false">AVERAGE(E11,E16,E21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="9" t="e">
-        <f aca="false">AVERAGE(F11,F16,F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="9" t="n">
-        <f aca="false">AVERAGE(G11,G16,G21)</f>
-        <v>-93.8366666666667</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-    </row>
-    <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="9" t="e">
-        <f aca="false">AVERAGE(B32,B37,B47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C52" s="9" t="e">
-        <f aca="false">AVERAGE(C32,C37,C47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D52" s="9" t="e">
-        <f aca="false">AVERAGE(D32,D37,D47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="9" t="e">
-        <f aca="false">AVERAGE(E32,E37,E47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="9" t="e">
-        <f aca="false">AVERAGE(F32,F37,F47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="9" t="e">
-        <f aca="false">AVERAGE(G32,G37,G47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="9" t="e">
-        <f aca="false">AVERAGE(B33,B38,B48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C53" s="9" t="e">
-        <f aca="false">AVERAGE(C33,C38,C48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="9" t="e">
-        <f aca="false">AVERAGE(D33,D38,D48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="9" t="e">
-        <f aca="false">AVERAGE(E33,E38,E48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="9" t="e">
-        <f aca="false">AVERAGE(F33,F38,F48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="9" t="e">
-        <f aca="false">AVERAGE(G33,G38,G48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" s="9" t="e">
-        <f aca="false">AVERAGE(B34,B39,B49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C54" s="9" t="e">
-        <f aca="false">AVERAGE(C34,C39,C49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="9" t="e">
-        <f aca="false">AVERAGE(D34,D39,D49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E54" s="9" t="e">
-        <f aca="false">AVERAGE(E34,E39,E49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="9" t="e">
-        <f aca="false">AVERAGE(F34,F39,F49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="9" t="e">
-        <f aca="false">AVERAGE(G34,G39,G49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H8:J11"/>
-    <mergeCell ref="H13:J16"/>
-    <mergeCell ref="H18:J21"/>
-    <mergeCell ref="H23:J26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H36:J39"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="H46:J49"/>
-    <mergeCell ref="H51:J54"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -2512,11 +2858,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -2528,44 +2874,44 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -2573,13 +2919,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -2587,13 +2933,13 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -2601,25 +2947,25 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -2731,16 +3077,16 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
@@ -2852,16 +3198,16 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
@@ -2973,16 +3319,16 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
@@ -3109,68 +3455,68 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
@@ -3178,13 +3524,13 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
@@ -3192,13 +3538,13 @@
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
@@ -3206,25 +3552,25 @@
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
@@ -3336,16 +3682,16 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
@@ -3531,16 +3877,16 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="31">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">board 1</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">board 2</t>
   </si>
   <si>
@@ -99,7 +96,22 @@
     <t xml:space="preserve">Board 3 noise</t>
   </si>
   <si>
+    <t xml:space="preserve">Exp.: Backoff + Retransmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exp.: Raw LoRa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval = 15s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interval = 5s</t>
+  </si>
+  <si>
     <t xml:space="preserve">(3 boards, 15 min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">(3 boards, ~200pkt)</t>
@@ -114,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="[$-809]0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -173,16 +185,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,7 +317,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -349,7 +351,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -362,358 +364,26 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Baseline_100pkt!$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PDR (total)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Baseline_100pkt!$A$24:$A$26;Baseline_100pkt!$A$52:$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>board 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>board 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>board 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Board 1 noise</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Board 2 noise</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Board 3 noise</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Baseline_100pkt!$D$24:$D$26;Baseline_100pkt!$D$52:$D$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="3">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="47516670"/>
-        <c:axId val="26874148"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="47516670"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Board average values</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26874148"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="26874148"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.921"/>
-          <c:min val="0.5"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:custDash>
-                <a:ds d="100000" sp="300000"/>
-                <a:ds d="100000" sp="300000"/>
-              </a:custDash>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>PDR (total) average</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="[$-809]0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="47516670"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="0.02"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>167040</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371520</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>198360</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="13155120" y="1714320"/>
-        <a:ext cx="7502400" cy="4219920"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M34" activeCellId="0" sqref="M34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,7 +415,9 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
@@ -758,7 +430,7 @@
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -772,7 +444,7 @@
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -784,12 +456,10 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -798,63 +468,84 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <f aca="false">1-C8/B8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>-92.84</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="e">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="n">
         <f aca="false">1-C9/B9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>-93.41</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -863,99 +554,109 @@
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10" t="e">
+      <c r="B10" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="n">
         <f aca="false">1-C10/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>-92.94</v>
+      </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="e">
-        <f aca="false">1-C11/B11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="n">
+        <f aca="false">1-C13/B13</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="9" t="n">
+        <v>100</v>
+      </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="10" t="e">
+      <c r="D14" s="10" t="n">
         <f aca="false">1-C14/B14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="7"/>
@@ -966,99 +667,105 @@
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="n">
+        <v>100</v>
+      </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="10" t="e">
+      <c r="D15" s="10" t="n">
         <f aca="false">1-C15/B15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10" t="e">
-        <f aca="false">1-C16/B16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="n">
+        <f aca="false">1-C18/B18</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="9" t="n">
+        <v>100</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="e">
+      <c r="D19" s="10" t="n">
         <f aca="false">1-C19/B19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -1069,111 +776,124 @@
       <c r="A20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="n">
+        <v>100</v>
+      </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="e">
+      <c r="D20" s="10" t="n">
         <f aca="false">1-C20/B20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10" t="e">
-        <f aca="false">1-C21/B21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="9" t="n">
+        <f aca="false">AVERAGE(B8,B13,B18)</f>
+        <v>100</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <f aca="false">AVERAGE(C8,C13,C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <f aca="false">1-C23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <f aca="false">AVERAGE(E8,E13,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <f aca="false">AVERAGE(F8,F13,F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="9" t="n">
+        <f aca="false">AVERAGE(G8,G13,G18)</f>
+        <v>-92.84</v>
+      </c>
+      <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="9" t="e">
+        <v>14</v>
+      </c>
+      <c r="B24" s="9" t="n">
         <f aca="false">AVERAGE(B9,B14,B19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24" s="9" t="e">
+        <v>100</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <f aca="false">AVERAGE(C9,C14,C19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="9" t="e">
-        <f aca="false">AVERAGE(D9,D14,D19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <f aca="false">1-C24/B24</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="n">
         <f aca="false">AVERAGE(E9,E14,E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
         <f aca="false">AVERAGE(F9,F14,F19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9" t="n">
         <f aca="false">AVERAGE(G9,G14,G19)</f>
-        <v>#DIV/0!</v>
+        <v>-93.41</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -1183,74 +903,47 @@
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9" t="e">
+      <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="9" t="e">
+        <v>100</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <f aca="false">AVERAGE(C10,C15,C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="9" t="e">
-        <f aca="false">AVERAGE(D10,D15,D20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <f aca="false">1-C25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="9" t="n">
         <f aca="false">AVERAGE(E10,E15,E20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="n">
         <f aca="false">AVERAGE(F10,F15,F20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9" t="n">
         <f aca="false">AVERAGE(G10,G15,G20)</f>
-        <v>#DIV/0!</v>
+        <v>-92.94</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="9" t="e">
-        <f aca="false">AVERAGE(B11,B16,B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="9" t="e">
-        <f aca="false">AVERAGE(C11,C16,C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="9" t="e">
-        <f aca="false">AVERAGE(D11,D16,D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="9" t="e">
-        <f aca="false">AVERAGE(E11,E16,E21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="9" t="e">
-        <f aca="false">AVERAGE(F11,F16,F21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="9" t="e">
-        <f aca="false">AVERAGE(G11,G16,G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1267,26 +960,26 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1296,7 +989,9 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="4"/>
@@ -1307,12 +1002,10 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1322,501 +1015,2969 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="B34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" s="10" t="n">
+        <f aca="false">1-C34/B34</f>
+        <v>0.84</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9" t="n">
+        <v>-98.51</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="n">
+        <f aca="false">1-C35/B35</f>
+        <v>0.82</v>
+      </c>
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>-91.59</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="A36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="D36" s="10" t="n">
+        <f aca="false">1-C36/B36</f>
+        <v>0.91</v>
+      </c>
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9" t="n">
+        <v>-90.81</v>
+      </c>
+      <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C37" s="9" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="10" t="n">
-        <f aca="false">1-C37/B37</f>
-        <v>0.84</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="9" t="n">
-        <v>-98.51</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C38" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="n">
-        <f aca="false">1-C38/B38</f>
-        <v>0.82</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="9" t="n">
-        <v>-91.59</v>
-      </c>
-      <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>100</v>
       </c>
       <c r="C39" s="9" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D39" s="10" t="n">
         <f aca="false">1-C39/B39</f>
-        <v>0.91</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
+        <v>0.81</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="G39" s="9" t="n">
-        <v>-90.81</v>
+        <v>-91.81</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+    <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D40" s="10" t="n">
+        <f aca="false">1-C40/B40</f>
+        <v>0.84</v>
+      </c>
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="9" t="n">
+        <v>-91.88</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="A41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C41" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D41" s="10" t="n">
+        <f aca="false">1-C41/B41</f>
+        <v>0.91</v>
+      </c>
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>-91.76</v>
+      </c>
+      <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10" t="e">
-        <f aca="false">1-C42/B42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10" t="e">
-        <f aca="false">1-C43/B43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="7"/>
+      <c r="A43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10" t="e">
+        <v>21</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D44" s="10" t="n">
         <f aca="false">1-C44/B44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="9"/>
+        <v>0.83</v>
+      </c>
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9" t="n">
+        <v>-92.59</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="4"/>
+    <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C45" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" s="10" t="n">
+        <f aca="false">1-C45/B45</f>
+        <v>0.8</v>
+      </c>
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>-94.53</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="A46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C46" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D46" s="10" t="n">
+        <f aca="false">1-C46/B46</f>
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9" t="n">
+        <v>-89.75</v>
+      </c>
+      <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10" t="e">
-        <f aca="false">1-C47/B47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10" t="e">
-        <f aca="false">1-C48/B48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" s="9"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
+      <c r="A48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10" t="e">
+        <v>21</v>
+      </c>
+      <c r="B49" s="9" t="n">
+        <f aca="false">AVERAGE(B29,B34,B44)</f>
+        <v>100</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <f aca="false">AVERAGE(C29,C34,C44)</f>
+        <v>16.5</v>
+      </c>
+      <c r="D49" s="9" t="n">
         <f aca="false">1-C49/B49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+        <v>0.835</v>
+      </c>
+      <c r="E49" s="9" t="n">
+        <f aca="false">AVERAGE(E29,E34,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <f aca="false">AVERAGE(F29,F34,F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="9" t="n">
+        <f aca="false">AVERAGE(G29,G34,G44)</f>
+        <v>-95.55</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="9" t="n">
+        <f aca="false">AVERAGE(B30,B35,B45)</f>
+        <v>100</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <f aca="false">AVERAGE(C30,C35,C45)</f>
+        <v>19</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <f aca="false">1-C50/B50</f>
+        <v>0.81</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <f aca="false">AVERAGE(E30,E35,E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <f aca="false">AVERAGE(F30,F35,F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="9" t="n">
+        <f aca="false">AVERAGE(G30,G35,G45)</f>
+        <v>-93.06</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>19</v>
-      </c>
+      <c r="A51" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="9" t="n">
+        <f aca="false">AVERAGE(B31,B36,B46)</f>
+        <v>100</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <f aca="false">AVERAGE(C31,C36,C46)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <f aca="false">1-C51/B51</f>
+        <v>0.905</v>
+      </c>
+      <c r="E51" s="9" t="n">
+        <f aca="false">AVERAGE(E31,E36,E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <f aca="false">AVERAGE(F31,F36,F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="9" t="n">
+        <f aca="false">AVERAGE(G31,G36,G46)</f>
+        <v>-90.28</v>
+      </c>
+      <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="10" t="n">
+        <f aca="false">1-C60/B60</f>
+        <v>1</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+    </row>
+    <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="9" t="n">
-        <f aca="false">AVERAGE(B32,B37,B47)</f>
-        <v>100</v>
-      </c>
-      <c r="C52" s="9" t="n">
-        <f aca="false">AVERAGE(C32,C37,C47)</f>
+      <c r="B61" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10" t="n">
+        <f aca="false">1-C61/B61</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10" t="n">
+        <f aca="false">1-C62/B62</f>
+        <v>1</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="9" t="n">
-        <f aca="false">1-C52/B52</f>
-        <v>0.84</v>
-      </c>
-      <c r="E52" s="9" t="e">
-        <f aca="false">AVERAGE(E32,E37,E47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="9" t="e">
-        <f aca="false">AVERAGE(F32,F37,F47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="9" t="n">
-        <f aca="false">AVERAGE(G32,G37,G47)</f>
-        <v>-98.51</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-    </row>
-    <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+    </row>
+    <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10" t="n">
+        <f aca="false">1-C65/B65</f>
+        <v>1</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+    </row>
+    <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B66" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10" t="n">
+        <f aca="false">1-C66/B66</f>
+        <v>1</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+    </row>
+    <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="9" t="n">
-        <f aca="false">AVERAGE(B33,B38,B48)</f>
-        <v>100</v>
-      </c>
-      <c r="C53" s="9" t="n">
-        <f aca="false">AVERAGE(C33,C38,C48)</f>
+      <c r="B67" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="10" t="n">
+        <f aca="false">1-C67/B67</f>
+        <v>1</v>
+      </c>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+    </row>
+    <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10" t="n">
+        <f aca="false">1-C70/B70</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+    </row>
+    <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="10" t="n">
+        <f aca="false">1-C71/B71</f>
+        <v>1</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+    </row>
+    <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="10" t="n">
+        <f aca="false">1-C72/B72</f>
+        <v>1</v>
+      </c>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="9" t="n">
-        <f aca="false">1-C53/B53</f>
-        <v>0.82</v>
-      </c>
-      <c r="E53" s="9" t="e">
-        <f aca="false">AVERAGE(E33,E38,E48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="9" t="e">
-        <f aca="false">AVERAGE(F33,F38,F48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="9" t="n">
-        <f aca="false">AVERAGE(G33,G38,G48)</f>
-        <v>-91.59</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-    </row>
-    <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="9" t="n">
+        <f aca="false">AVERAGE(B55,B60,B70)</f>
+        <v>100</v>
+      </c>
+      <c r="C75" s="9" t="e">
+        <f aca="false">AVERAGE(C55,C60,C70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D75" s="9" t="e">
+        <f aca="false">1-C75/B75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E75" s="9" t="e">
+        <f aca="false">AVERAGE(E55,E60,E70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F75" s="9" t="e">
+        <f aca="false">AVERAGE(F55,F60,F70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G75" s="9" t="e">
+        <f aca="false">AVERAGE(G55,G60,G70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="9" t="n">
+        <f aca="false">AVERAGE(B56,B61,B71)</f>
+        <v>100</v>
+      </c>
+      <c r="C76" s="9" t="e">
+        <f aca="false">AVERAGE(C56,C61,C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D76" s="9" t="e">
+        <f aca="false">1-C76/B76</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E76" s="9" t="e">
+        <f aca="false">AVERAGE(E56,E61,E71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F76" s="9" t="e">
+        <f aca="false">AVERAGE(F56,F61,F71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G76" s="9" t="e">
+        <f aca="false">AVERAGE(G56,G61,G71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="9" t="n">
+        <f aca="false">AVERAGE(B57,B62,B72)</f>
+        <v>100</v>
+      </c>
+      <c r="C77" s="9" t="e">
+        <f aca="false">AVERAGE(C57,C62,C72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D77" s="9" t="e">
+        <f aca="false">1-C77/B77</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E77" s="9" t="e">
+        <f aca="false">AVERAGE(E57,E62,E72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F77" s="9" t="e">
+        <f aca="false">AVERAGE(F57,F62,F72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G77" s="9" t="e">
+        <f aca="false">AVERAGE(G57,G62,G72)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+    </row>
+    <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+    </row>
+    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B86" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="10" t="n">
+        <f aca="false">1-C86/B86</f>
+        <v>1</v>
+      </c>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+    </row>
+    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="10" t="n">
+        <f aca="false">1-C87/B87</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+    </row>
+    <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10" t="n">
+        <f aca="false">1-C88/B88</f>
+        <v>1</v>
+      </c>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+    </row>
+    <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="10" t="n">
+        <f aca="false">1-C91/B91</f>
+        <v>1</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+    </row>
+    <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="10" t="n">
+        <f aca="false">1-C92/B92</f>
+        <v>1</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+    </row>
+    <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C93" s="9"/>
+      <c r="D93" s="10" t="n">
+        <f aca="false">1-C93/B93</f>
+        <v>1</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+    </row>
+    <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B96" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="10" t="n">
+        <f aca="false">1-C96/B96</f>
+        <v>1</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+    </row>
+    <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="10" t="n">
+        <f aca="false">1-C97/B97</f>
+        <v>1</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+    </row>
+    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10" t="n">
+        <f aca="false">1-C98/B98</f>
+        <v>1</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="9" t="n">
+        <f aca="false">AVERAGE(B81,B86,B96)</f>
+        <v>100</v>
+      </c>
+      <c r="C101" s="9" t="e">
+        <f aca="false">AVERAGE(C81,C86,C96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D101" s="9" t="e">
+        <f aca="false">1-C101/B101</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E101" s="9" t="e">
+        <f aca="false">AVERAGE(E81,E86,E96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F101" s="9" t="e">
+        <f aca="false">AVERAGE(F81,F86,F96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="9" t="e">
+        <f aca="false">AVERAGE(G81,G86,G96)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B102" s="9" t="n">
+        <f aca="false">AVERAGE(B82,B87,B97)</f>
+        <v>100</v>
+      </c>
+      <c r="C102" s="9" t="e">
+        <f aca="false">AVERAGE(C82,C87,C97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D102" s="9" t="e">
+        <f aca="false">1-C102/B102</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E102" s="9" t="e">
+        <f aca="false">AVERAGE(E82,E87,E97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F102" s="9" t="e">
+        <f aca="false">AVERAGE(F82,F87,F97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="9" t="e">
+        <f aca="false">AVERAGE(G82,G87,G97)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="9" t="n">
+        <f aca="false">AVERAGE(B83,B88,B98)</f>
+        <v>100</v>
+      </c>
+      <c r="C103" s="9" t="e">
+        <f aca="false">AVERAGE(C83,C88,C98)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D103" s="9" t="e">
+        <f aca="false">1-C103/B103</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E103" s="9" t="e">
+        <f aca="false">AVERAGE(E83,E88,E98)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F103" s="9" t="e">
+        <f aca="false">AVERAGE(F83,F88,F98)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G103" s="9" t="e">
+        <f aca="false">AVERAGE(G83,G88,G98)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+    </row>
+    <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="9" t="n">
-        <f aca="false">AVERAGE(B34,B39,B49)</f>
-        <v>100</v>
-      </c>
-      <c r="C54" s="9" t="n">
-        <f aca="false">AVERAGE(C34,C39,C49)</f>
+      <c r="B105" s="1"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="9" t="n">
-        <f aca="false">1-C54/B54</f>
-        <v>0.91</v>
-      </c>
-      <c r="E54" s="9" t="e">
-        <f aca="false">AVERAGE(E34,E39,E49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="9" t="e">
-        <f aca="false">AVERAGE(F34,F39,F49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="9" t="n">
-        <f aca="false">AVERAGE(G34,G39,G49)</f>
-        <v>-90.81</v>
-      </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="F111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="7"/>
+      <c r="J111" s="7"/>
+    </row>
+    <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="10" t="n">
+        <f aca="false">1-C112/B112</f>
+        <v>1</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+    </row>
+    <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="10" t="n">
+        <f aca="false">1-C113/B113</f>
+        <v>1</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7"/>
+    </row>
+    <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="10" t="n">
+        <f aca="false">1-C114/B114</f>
+        <v>1</v>
+      </c>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B117" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="10" t="n">
+        <f aca="false">1-C117/B117</f>
+        <v>1</v>
+      </c>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="10" t="n">
+        <f aca="false">1-C118/B118</f>
+        <v>1</v>
+      </c>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="10" t="n">
+        <f aca="false">1-C119/B119</f>
+        <v>1</v>
+      </c>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B122" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10" t="n">
+        <f aca="false">1-C122/B122</f>
+        <v>1</v>
+      </c>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B123" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="10" t="n">
+        <f aca="false">1-C123/B123</f>
+        <v>1</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="10" t="n">
+        <f aca="false">1-C124/B124</f>
+        <v>1</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="9" t="n">
+        <f aca="false">AVERAGE(B107,B112,B122)</f>
+        <v>100</v>
+      </c>
+      <c r="C127" s="9" t="e">
+        <f aca="false">AVERAGE(C107,C112,C122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D127" s="9" t="e">
+        <f aca="false">1-C127/B127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E127" s="9" t="e">
+        <f aca="false">AVERAGE(E107,E112,E122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F127" s="9" t="e">
+        <f aca="false">AVERAGE(F107,F112,F122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G127" s="9" t="e">
+        <f aca="false">AVERAGE(G107,G112,G122)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B128" s="9" t="n">
+        <f aca="false">AVERAGE(B108,B113,B123)</f>
+        <v>100</v>
+      </c>
+      <c r="C128" s="9" t="e">
+        <f aca="false">AVERAGE(C108,C113,C123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D128" s="9" t="e">
+        <f aca="false">1-C128/B128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E128" s="9" t="e">
+        <f aca="false">AVERAGE(E108,E113,E123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F128" s="9" t="e">
+        <f aca="false">AVERAGE(F108,F113,F123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G128" s="9" t="e">
+        <f aca="false">AVERAGE(G108,G113,G123)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="9" t="n">
+        <f aca="false">AVERAGE(B109,B114,B124)</f>
+        <v>100</v>
+      </c>
+      <c r="C129" s="9" t="e">
+        <f aca="false">AVERAGE(C109,C114,C124)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D129" s="9" t="e">
+        <f aca="false">1-C129/B129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E129" s="9" t="e">
+        <f aca="false">AVERAGE(E109,E114,E124)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F129" s="9" t="e">
+        <f aca="false">AVERAGE(F109,F114,F124)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G129" s="9" t="e">
+        <f aca="false">AVERAGE(G109,G114,G124)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="131" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+    </row>
+    <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B138" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="10" t="n">
+        <f aca="false">1-C138/B138</f>
+        <v>1</v>
+      </c>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7"/>
+      <c r="J138" s="7"/>
+    </row>
+    <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="10" t="n">
+        <f aca="false">1-C139/B139</f>
+        <v>1</v>
+      </c>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+    </row>
+    <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="10" t="n">
+        <f aca="false">1-C140/B140</f>
+        <v>1</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7"/>
+      <c r="J140" s="7"/>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+    </row>
+    <row r="143" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10" t="n">
+        <f aca="false">1-C143/B143</f>
+        <v>1</v>
+      </c>
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7"/>
+      <c r="J143" s="7"/>
+    </row>
+    <row r="144" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="10" t="n">
+        <f aca="false">1-C144/B144</f>
+        <v>1</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7"/>
+      <c r="J144" s="7"/>
+    </row>
+    <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10" t="n">
+        <f aca="false">1-C145/B145</f>
+        <v>1</v>
+      </c>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+      <c r="J145" s="7"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+    </row>
+    <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B148" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10" t="n">
+        <f aca="false">1-C148/B148</f>
+        <v>1</v>
+      </c>
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+      <c r="J148" s="7"/>
+    </row>
+    <row r="149" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="10" t="n">
+        <f aca="false">1-C149/B149</f>
+        <v>1</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+    </row>
+    <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="10" t="n">
+        <f aca="false">1-C150/B150</f>
+        <v>1</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+      <c r="J150" s="7"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H152" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+    </row>
+    <row r="153" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B153" s="9" t="n">
+        <f aca="false">AVERAGE(B133,B138,B148)</f>
+        <v>100</v>
+      </c>
+      <c r="C153" s="9" t="e">
+        <f aca="false">AVERAGE(C133,C138,C148)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D153" s="9" t="e">
+        <f aca="false">1-C153/B153</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E153" s="9" t="e">
+        <f aca="false">AVERAGE(E133,E138,E148)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F153" s="9" t="e">
+        <f aca="false">AVERAGE(F133,F138,F148)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G153" s="9" t="e">
+        <f aca="false">AVERAGE(G133,G138,G148)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+    </row>
+    <row r="154" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B154" s="9" t="n">
+        <f aca="false">AVERAGE(B134,B139,B149)</f>
+        <v>100</v>
+      </c>
+      <c r="C154" s="9" t="e">
+        <f aca="false">AVERAGE(C134,C139,C149)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D154" s="9" t="e">
+        <f aca="false">1-C154/B154</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E154" s="9" t="e">
+        <f aca="false">AVERAGE(E134,E139,E149)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F154" s="9" t="e">
+        <f aca="false">AVERAGE(F134,F139,F149)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G154" s="9" t="e">
+        <f aca="false">AVERAGE(G134,G139,G149)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11"/>
+      <c r="J154" s="11"/>
+    </row>
+    <row r="155" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="9" t="n">
+        <f aca="false">AVERAGE(B135,B140,B150)</f>
+        <v>100</v>
+      </c>
+      <c r="C155" s="9" t="e">
+        <f aca="false">AVERAGE(C135,C140,C150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D155" s="9" t="e">
+        <f aca="false">1-C155/B155</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E155" s="9" t="e">
+        <f aca="false">AVERAGE(E135,E140,E150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F155" s="9" t="e">
+        <f aca="false">AVERAGE(F135,F140,F150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G155" s="9" t="e">
+        <f aca="false">AVERAGE(G135,G140,G150)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="4"/>
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="4"/>
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
+      <c r="I162" s="4"/>
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I163" s="7"/>
+      <c r="J163" s="7"/>
+    </row>
+    <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B164" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="10" t="n">
+        <f aca="false">1-C164/B164</f>
+        <v>1</v>
+      </c>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+      <c r="J164" s="7"/>
+    </row>
+    <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B165" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="10" t="n">
+        <f aca="false">1-C165/B165</f>
+        <v>1</v>
+      </c>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7"/>
+      <c r="J165" s="7"/>
+    </row>
+    <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C166" s="9"/>
+      <c r="D166" s="10" t="n">
+        <f aca="false">1-C166/B166</f>
+        <v>1</v>
+      </c>
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7"/>
+      <c r="J166" s="7"/>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="7"/>
+      <c r="J168" s="7"/>
+    </row>
+    <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C169" s="9"/>
+      <c r="D169" s="10" t="n">
+        <f aca="false">1-C169/B169</f>
+        <v>1</v>
+      </c>
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7"/>
+      <c r="J169" s="7"/>
+    </row>
+    <row r="170" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B170" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C170" s="9"/>
+      <c r="D170" s="10" t="n">
+        <f aca="false">1-C170/B170</f>
+        <v>1</v>
+      </c>
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+    </row>
+    <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C171" s="9"/>
+      <c r="D171" s="10" t="n">
+        <f aca="false">1-C171/B171</f>
+        <v>1</v>
+      </c>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7"/>
+      <c r="J171" s="7"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I173" s="7"/>
+      <c r="J173" s="7"/>
+    </row>
+    <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="10" t="n">
+        <f aca="false">1-C174/B174</f>
+        <v>1</v>
+      </c>
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="9"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="7"/>
+      <c r="J174" s="7"/>
+    </row>
+    <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B175" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="10" t="n">
+        <f aca="false">1-C175/B175</f>
+        <v>1</v>
+      </c>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="9"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+    </row>
+    <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="10" t="n">
+        <f aca="false">1-C176/B176</f>
+        <v>1</v>
+      </c>
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="9"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="7"/>
+      <c r="J176" s="7"/>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+    </row>
+    <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" s="9" t="n">
+        <f aca="false">AVERAGE(B159,B164,B174)</f>
+        <v>100</v>
+      </c>
+      <c r="C179" s="9" t="e">
+        <f aca="false">AVERAGE(C159,C164,C174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D179" s="9" t="e">
+        <f aca="false">1-C179/B179</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E179" s="9" t="e">
+        <f aca="false">AVERAGE(E159,E164,E174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F179" s="9" t="e">
+        <f aca="false">AVERAGE(F159,F164,F174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G179" s="9" t="e">
+        <f aca="false">AVERAGE(G159,G164,G174)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+    </row>
+    <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B180" s="9" t="n">
+        <f aca="false">AVERAGE(B160,B165,B175)</f>
+        <v>100</v>
+      </c>
+      <c r="C180" s="9" t="e">
+        <f aca="false">AVERAGE(C160,C165,C175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D180" s="9" t="e">
+        <f aca="false">1-C180/B180</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E180" s="9" t="e">
+        <f aca="false">AVERAGE(E160,E165,E175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F180" s="9" t="e">
+        <f aca="false">AVERAGE(F160,F165,F175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G180" s="9" t="e">
+        <f aca="false">AVERAGE(G160,G165,G175)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="9" t="n">
+        <f aca="false">AVERAGE(B161,B166,B176)</f>
+        <v>100</v>
+      </c>
+      <c r="C181" s="9" t="e">
+        <f aca="false">AVERAGE(C161,C166,C176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D181" s="9" t="e">
+        <f aca="false">1-C181/B181</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E181" s="9" t="e">
+        <f aca="false">AVERAGE(E161,E166,E176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F181" s="9" t="e">
+        <f aca="false">AVERAGE(F161,F166,F176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G181" s="9" t="e">
+        <f aca="false">AVERAGE(G161,G166,G176)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="42">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H8:J11"/>
-    <mergeCell ref="H13:J16"/>
-    <mergeCell ref="H18:J21"/>
-    <mergeCell ref="H23:J26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H36:J39"/>
-    <mergeCell ref="H41:J44"/>
-    <mergeCell ref="H46:J49"/>
-    <mergeCell ref="H51:J54"/>
+    <mergeCell ref="H7:J10"/>
+    <mergeCell ref="H12:J15"/>
+    <mergeCell ref="H17:J20"/>
+    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H33:J36"/>
+    <mergeCell ref="H38:J41"/>
+    <mergeCell ref="H43:J46"/>
+    <mergeCell ref="H48:J51"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H59:J62"/>
+    <mergeCell ref="H64:J67"/>
+    <mergeCell ref="H69:J72"/>
+    <mergeCell ref="H74:J77"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H85:J88"/>
+    <mergeCell ref="H90:J93"/>
+    <mergeCell ref="H95:J98"/>
+    <mergeCell ref="H100:J103"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H111:J114"/>
+    <mergeCell ref="H116:J119"/>
+    <mergeCell ref="H121:J124"/>
+    <mergeCell ref="H126:J129"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="H137:J140"/>
+    <mergeCell ref="H142:J145"/>
+    <mergeCell ref="H147:J150"/>
+    <mergeCell ref="H152:J155"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="D157:G157"/>
+    <mergeCell ref="H163:J166"/>
+    <mergeCell ref="H168:J171"/>
+    <mergeCell ref="H173:J176"/>
+    <mergeCell ref="H178:J181"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1825,7 +3986,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"Seite &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1836,7 +3996,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1859,7 +4019,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1933,10 +4093,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -1947,7 +4107,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>27</v>
@@ -1959,10 +4119,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -1973,7 +4133,7 @@
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>27</v>
@@ -1985,10 +4145,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -2020,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -2039,10 +4199,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -2053,7 +4213,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>26</v>
@@ -2065,10 +4225,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -2079,7 +4239,7 @@
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>26</v>
@@ -2091,10 +4251,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -2126,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -2145,10 +4305,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -2159,7 +4319,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>26</v>
@@ -2171,10 +4331,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -2185,7 +4345,7 @@
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>26</v>
@@ -2197,10 +4357,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -2232,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -2271,7 +4431,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -2303,7 +4463,7 @@
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="9" t="n">
         <f aca="false">AVERAGE(B12,B17,B22)</f>
@@ -2335,12 +4495,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2360,7 +4520,7 @@
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2414,10 +4574,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -2428,7 +4588,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>26</v>
@@ -2440,10 +4600,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -2454,7 +4614,7 @@
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>25</v>
@@ -2466,10 +4626,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -2501,7 +4661,7 @@
         <v>11</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -2520,10 +4680,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -2534,7 +4694,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>26</v>
@@ -2546,10 +4706,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -2560,7 +4720,7 @@
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>26</v>
@@ -2572,10 +4732,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -2619,7 +4779,7 @@
         <v>11</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -2638,10 +4798,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -2652,7 +4812,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="9" t="n">
         <v>17</v>
@@ -2664,10 +4824,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -2678,7 +4838,7 @@
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="9" t="n">
         <v>26</v>
@@ -2690,10 +4850,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -2725,7 +4885,7 @@
         <v>11</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -2764,7 +4924,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>
@@ -2796,7 +4956,7 @@
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55" s="9" t="n">
         <f aca="false">AVERAGE(B35,B40,B50)</f>
@@ -2858,11 +5018,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -2880,7 +5040,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -3024,7 +5184,7 @@
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>207</v>
@@ -3051,7 +5211,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>207</v>
@@ -3111,7 +5271,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -3145,7 +5305,7 @@
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>200</v>
@@ -3172,7 +5332,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>200</v>
@@ -3232,7 +5392,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -3266,7 +5426,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>200</v>
@@ -3293,7 +5453,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>200</v>
@@ -3353,7 +5513,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3392,7 +5552,7 @@
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -3424,7 +5584,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -3480,12 +5640,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3534,7 +5694,7 @@
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -3629,7 +5789,7 @@
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>199</v>
@@ -3656,7 +5816,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>199</v>
@@ -3716,7 +5876,7 @@
         <v>11</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3744,7 +5904,7 @@
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3765,7 +5925,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3808,7 +5968,7 @@
         <v>11</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -3836,7 +5996,7 @@
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3857,7 +6017,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -3911,7 +6071,7 @@
         <v>11</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -3950,7 +6110,7 @@
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
@@ -3982,7 +6142,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -372,17 +372,17 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
   </cols>
   <sheetData>
@@ -624,7 +624,9 @@
       <c r="B13" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="10" t="n">
         <f aca="false">1-C13/B13</f>
         <v>1</v>
@@ -635,7 +637,9 @@
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="n">
+        <v>-92.86</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -647,7 +651,9 @@
       <c r="B14" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" s="10" t="n">
         <f aca="false">1-C14/B14</f>
         <v>1</v>
@@ -658,7 +664,9 @@
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="n">
+        <v>-93.64</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -670,7 +678,9 @@
       <c r="B15" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="10" t="n">
         <f aca="false">1-C15/B15</f>
         <v>1</v>
@@ -681,7 +691,9 @@
       <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="9" t="n">
+        <v>-94.18</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -861,7 +873,7 @@
       </c>
       <c r="G23" s="9" t="n">
         <f aca="false">AVERAGE(G8,G13,G18)</f>
-        <v>-92.84</v>
+        <v>-92.85</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -893,7 +905,7 @@
       </c>
       <c r="G24" s="9" t="n">
         <f aca="false">AVERAGE(G9,G14,G19)</f>
-        <v>-93.41</v>
+        <v>-93.525</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -925,7 +937,7 @@
       </c>
       <c r="G25" s="9" t="n">
         <f aca="false">AVERAGE(G10,G15,G20)</f>
-        <v>-92.94</v>
+        <v>-93.56</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5022,7 +5034,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -371,11 +371,11 @@
   </sheetPr>
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
@@ -745,7 +745,9 @@
       <c r="B18" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" s="10" t="n">
         <f aca="false">1-C18/B18</f>
         <v>1</v>
@@ -756,7 +758,9 @@
       <c r="F18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="n">
+        <v>-93.59</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -768,7 +772,9 @@
       <c r="B19" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" s="10" t="n">
         <f aca="false">1-C19/B19</f>
         <v>1</v>
@@ -779,7 +785,9 @@
       <c r="F19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="n">
+        <v>-93.87</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -791,7 +799,9 @@
       <c r="B20" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" s="10" t="n">
         <f aca="false">1-C20/B20</f>
         <v>1</v>
@@ -802,7 +812,9 @@
       <c r="F20" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="n">
+        <v>-93.78</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -873,7 +885,7 @@
       </c>
       <c r="G23" s="9" t="n">
         <f aca="false">AVERAGE(G8,G13,G18)</f>
-        <v>-92.85</v>
+        <v>-93.0966666666667</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -905,7 +917,7 @@
       </c>
       <c r="G24" s="9" t="n">
         <f aca="false">AVERAGE(G9,G14,G19)</f>
-        <v>-93.525</v>
+        <v>-93.64</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -937,7 +949,7 @@
       </c>
       <c r="G25" s="9" t="n">
         <f aca="false">AVERAGE(G10,G15,G20)</f>
-        <v>-93.56</v>
+        <v>-93.6333333333333</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -5034,7 +5046,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="33">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -87,6 +87,9 @@
     <t xml:space="preserve">noise board, interval = 0.5s</t>
   </si>
   <si>
+    <t xml:space="preserve">noise board, interval = 1s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Board 1 noise</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">Exp.: Backoff + Retransmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with MAC</t>
   </si>
   <si>
     <t xml:space="preserve">Exp.: Raw LoRa</t>
@@ -369,13 +375,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:U181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
@@ -384,6 +390,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,6 +984,20 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
+      <c r="L27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
@@ -983,6 +1010,16 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -997,6 +1034,18 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
+      <c r="L29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -1011,6 +1060,18 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
+      <c r="L30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1025,6 +1086,18 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
+      <c r="L31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
@@ -1037,6 +1110,16 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
@@ -1065,20 +1148,44 @@
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
+      <c r="L33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C34" s="9" t="n">
-        <v>16</v>
-      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="10" t="n">
         <f aca="false">1-C34/B34</f>
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>0</v>
@@ -1086,26 +1193,47 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <v>-98.51</v>
-      </c>
+      <c r="G34" s="9"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
+      <c r="L34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O34" s="10" t="n">
+        <f aca="false">1-N34/M34</f>
+        <v>0.84</v>
+      </c>
+      <c r="P34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9" t="n">
+        <v>-98.51</v>
+      </c>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C35" s="9" t="n">
-        <v>18</v>
-      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="10" t="n">
         <f aca="false">1-C35/B35</f>
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>0</v>
@@ -1113,26 +1241,47 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="9" t="n">
-        <v>-91.59</v>
-      </c>
+      <c r="G35" s="9"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
+      <c r="L35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="O35" s="10" t="n">
+        <f aca="false">1-N35/M35</f>
+        <v>0.82</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" s="9" t="n">
+        <v>-91.59</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C36" s="9" t="n">
-        <v>9</v>
-      </c>
+      <c r="C36" s="9"/>
       <c r="D36" s="10" t="n">
         <f aca="false">1-C36/B36</f>
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>0</v>
@@ -1140,12 +1289,35 @@
       <c r="F36" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="9" t="n">
-        <v>-90.81</v>
-      </c>
+      <c r="G36" s="9"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
+      <c r="L36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O36" s="10" t="n">
+        <f aca="false">1-N36/M36</f>
+        <v>0.91</v>
+      </c>
+      <c r="P36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9" t="n">
+        <v>-90.81</v>
+      </c>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
@@ -1158,6 +1330,16 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
@@ -1186,20 +1368,44 @@
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
+      <c r="L38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C39" s="9" t="n">
-        <v>19</v>
-      </c>
+      <c r="C39" s="9"/>
       <c r="D39" s="10" t="n">
         <f aca="false">1-C39/B39</f>
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>0</v>
@@ -1207,26 +1413,47 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <v>-91.81</v>
-      </c>
+      <c r="G39" s="9"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
+      <c r="L39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N39" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="O39" s="10" t="n">
+        <f aca="false">1-N39/M39</f>
+        <v>0.81</v>
+      </c>
+      <c r="P39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9" t="n">
+        <v>-91.81</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C40" s="9" t="n">
-        <v>16</v>
-      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="10" t="n">
         <f aca="false">1-C40/B40</f>
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>0</v>
@@ -1234,26 +1461,47 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="9" t="n">
-        <v>-91.88</v>
-      </c>
+      <c r="G40" s="9"/>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
+      <c r="L40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N40" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="O40" s="10" t="n">
+        <f aca="false">1-N40/M40</f>
+        <v>0.84</v>
+      </c>
+      <c r="P40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" s="9" t="n">
+        <v>-91.88</v>
+      </c>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C41" s="9" t="n">
-        <v>9</v>
-      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="10" t="n">
         <f aca="false">1-C41/B41</f>
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>0</v>
@@ -1261,15 +1509,39 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="9" t="n">
-        <v>-91.76</v>
-      </c>
+      <c r="G41" s="9"/>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
+      <c r="L41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N41" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O41" s="10" t="n">
+        <f aca="false">1-N41/M41</f>
+        <v>0.91</v>
+      </c>
+      <c r="P41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="9" t="n">
+        <v>-91.76</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="4"/>
+      <c r="O42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
@@ -1298,20 +1570,44 @@
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
+      <c r="L43" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C44" s="9" t="n">
-        <v>17</v>
-      </c>
+      <c r="C44" s="9"/>
       <c r="D44" s="10" t="n">
         <f aca="false">1-C44/B44</f>
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>0</v>
@@ -1319,26 +1615,47 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="9" t="n">
-        <v>-92.59</v>
-      </c>
+      <c r="G44" s="9"/>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
+      <c r="L44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O44" s="10" t="n">
+        <f aca="false">1-N44/M44</f>
+        <v>0.83</v>
+      </c>
+      <c r="P44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="9" t="n">
+        <v>-92.59</v>
+      </c>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C45" s="9" t="n">
-        <v>20</v>
-      </c>
+      <c r="C45" s="9"/>
       <c r="D45" s="10" t="n">
         <f aca="false">1-C45/B45</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>0</v>
@@ -1346,26 +1663,47 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="9" t="n">
-        <v>-94.53</v>
-      </c>
+      <c r="G45" s="9"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
+      <c r="L45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N45" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="O45" s="10" t="n">
+        <f aca="false">1-N45/M45</f>
+        <v>0.8</v>
+      </c>
+      <c r="P45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="9" t="n">
+        <v>-94.53</v>
+      </c>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C46" s="9" t="n">
-        <v>10</v>
-      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="10" t="n">
         <f aca="false">1-C46/B46</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>0</v>
@@ -1373,12 +1711,35 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="9" t="n">
-        <v>-89.75</v>
-      </c>
+      <c r="G46" s="9"/>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
+      <c r="L46" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="N46" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" s="10" t="n">
+        <f aca="false">1-N46/M46</f>
+        <v>0.9</v>
+      </c>
+      <c r="P46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="9" t="n">
+        <v>-89.75</v>
+      </c>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
@@ -1391,6 +1752,16 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
@@ -1419,22 +1790,48 @@
       </c>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
+      <c r="L48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S48" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B49" s="9" t="n">
         <f aca="false">AVERAGE(B29,B34,B44)</f>
         <v>100</v>
       </c>
-      <c r="C49" s="9" t="n">
+      <c r="C49" s="9" t="e">
         <f aca="false">AVERAGE(C29,C34,C44)</f>
-        <v>16.5</v>
-      </c>
-      <c r="D49" s="9" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D49" s="9" t="e">
         <f aca="false">1-C49/B49</f>
-        <v>0.835</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E49" s="9" t="n">
         <f aca="false">AVERAGE(E29,E34,E44)</f>
@@ -1444,29 +1841,59 @@
         <f aca="false">AVERAGE(F29,F34,F44)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="9" t="n">
+      <c r="G49" s="9" t="e">
         <f aca="false">AVERAGE(G29,G34,G44)</f>
-        <v>-95.55</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
+      <c r="L49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M49" s="9" t="n">
+        <f aca="false">AVERAGE(M29,M34,M44)</f>
+        <v>100</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <f aca="false">AVERAGE(N29,N34,N44)</f>
+        <v>16.5</v>
+      </c>
+      <c r="O49" s="9" t="n">
+        <f aca="false">1-N49/M49</f>
+        <v>0.835</v>
+      </c>
+      <c r="P49" s="9" t="n">
+        <f aca="false">AVERAGE(P29,P34,P44)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="n">
+        <f aca="false">AVERAGE(Q29,Q34,Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="9" t="n">
+        <f aca="false">AVERAGE(R29,R34,R44)</f>
+        <v>-95.55</v>
+      </c>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50" s="9" t="n">
         <f aca="false">AVERAGE(B30,B35,B45)</f>
         <v>100</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="9" t="e">
         <f aca="false">AVERAGE(C30,C35,C45)</f>
-        <v>19</v>
-      </c>
-      <c r="D50" s="9" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="9" t="e">
         <f aca="false">1-C50/B50</f>
-        <v>0.81</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E50" s="9" t="n">
         <f aca="false">AVERAGE(E30,E35,E45)</f>
@@ -1476,29 +1903,59 @@
         <f aca="false">AVERAGE(F30,F35,F45)</f>
         <v>0</v>
       </c>
-      <c r="G50" s="9" t="n">
+      <c r="G50" s="9" t="e">
         <f aca="false">AVERAGE(G30,G35,G45)</f>
-        <v>-93.06</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
+      <c r="L50" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="9" t="n">
+        <f aca="false">AVERAGE(M30,M35,M45)</f>
+        <v>100</v>
+      </c>
+      <c r="N50" s="9" t="n">
+        <f aca="false">AVERAGE(N30,N35,N45)</f>
+        <v>19</v>
+      </c>
+      <c r="O50" s="9" t="n">
+        <f aca="false">1-N50/M50</f>
+        <v>0.81</v>
+      </c>
+      <c r="P50" s="9" t="n">
+        <f aca="false">AVERAGE(P30,P35,P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9" t="n">
+        <f aca="false">AVERAGE(Q30,Q35,Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="9" t="n">
+        <f aca="false">AVERAGE(R30,R35,R45)</f>
+        <v>-93.06</v>
+      </c>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B51" s="9" t="n">
         <f aca="false">AVERAGE(B31,B36,B46)</f>
         <v>100</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="9" t="e">
         <f aca="false">AVERAGE(C31,C36,C46)</f>
-        <v>9.5</v>
-      </c>
-      <c r="D51" s="9" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="9" t="e">
         <f aca="false">1-C51/B51</f>
-        <v>0.905</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E51" s="9" t="n">
         <f aca="false">AVERAGE(E31,E36,E46)</f>
@@ -1508,18 +1965,48 @@
         <f aca="false">AVERAGE(F31,F36,F46)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="9" t="n">
+      <c r="G51" s="9" t="e">
         <f aca="false">AVERAGE(G31,G36,G46)</f>
-        <v>-90.28</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
+      <c r="L51" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="9" t="n">
+        <f aca="false">AVERAGE(M31,M36,M46)</f>
+        <v>100</v>
+      </c>
+      <c r="N51" s="9" t="n">
+        <f aca="false">AVERAGE(N31,N36,N46)</f>
+        <v>9.5</v>
+      </c>
+      <c r="O51" s="9" t="n">
+        <f aca="false">1-N51/M51</f>
+        <v>0.905</v>
+      </c>
+      <c r="P51" s="9" t="n">
+        <f aca="false">AVERAGE(P31,P36,P46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="n">
+        <f aca="false">AVERAGE(Q31,Q36,Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="9" t="n">
+        <f aca="false">AVERAGE(R31,R36,R46)</f>
+        <v>-90.28</v>
+      </c>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -1575,7 +2062,7 @@
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1629,7 +2116,7 @@
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" s="9" t="n">
         <v>100</v>
@@ -1648,7 +2135,7 @@
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B61" s="9" t="n">
         <v>100</v>
@@ -1667,7 +2154,7 @@
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" s="9" t="n">
         <v>100</v>
@@ -1726,7 +2213,7 @@
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B65" s="9" t="n">
         <v>100</v>
@@ -1745,7 +2232,7 @@
     </row>
     <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" s="9" t="n">
         <v>100</v>
@@ -1764,7 +2251,7 @@
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>100</v>
@@ -1814,7 +2301,7 @@
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>100</v>
@@ -1833,7 +2320,7 @@
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>100</v>
@@ -1852,7 +2339,7 @@
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>100</v>
@@ -1911,7 +2398,7 @@
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" s="9" t="n">
         <f aca="false">AVERAGE(B55,B60,B70)</f>
@@ -1943,7 +2430,7 @@
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B76" s="9" t="n">
         <f aca="false">AVERAGE(B56,B61,B71)</f>
@@ -1975,7 +2462,7 @@
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B77" s="9" t="n">
         <f aca="false">AVERAGE(B57,B62,B72)</f>
@@ -2007,7 +2494,7 @@
     </row>
     <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2035,7 +2522,7 @@
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -2117,57 +2604,81 @@
     </row>
     <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="D86" s="10" t="n">
         <f aca="false">1-C86/B86</f>
-        <v>1</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="E86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" s="9" t="n">
+        <v>-98.64</v>
+      </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B87" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="9" t="n">
+        <v>41</v>
+      </c>
       <c r="D87" s="10" t="n">
         <f aca="false">1-C87/B87</f>
-        <v>1</v>
-      </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+        <v>0.59</v>
+      </c>
+      <c r="E87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>-105.5</v>
+      </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B88" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C88" s="9"/>
+      <c r="C88" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="D88" s="10" t="n">
         <f aca="false">1-C88/B88</f>
-        <v>1</v>
-      </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="E88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9" t="n">
+        <v>-104.93</v>
+      </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -2214,57 +2725,81 @@
     </row>
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="9" t="n">
+        <v>12</v>
+      </c>
       <c r="D91" s="10" t="n">
         <f aca="false">1-C91/B91</f>
-        <v>1</v>
-      </c>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+        <v>0.88</v>
+      </c>
+      <c r="E91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>-94.22</v>
+      </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B92" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="9" t="n">
+        <v>53</v>
+      </c>
       <c r="D92" s="10" t="n">
         <f aca="false">1-C92/B92</f>
-        <v>1</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+        <v>0.47</v>
+      </c>
+      <c r="E92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="9" t="n">
+        <v>-97.59</v>
+      </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="9" t="n">
+        <v>36</v>
+      </c>
       <c r="D93" s="10" t="n">
         <f aca="false">1-C93/B93</f>
-        <v>1</v>
-      </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+        <v>0.64</v>
+      </c>
+      <c r="E93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>-100.26</v>
+      </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -2302,57 +2837,81 @@
     </row>
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="9" t="n">
+        <v>26</v>
+      </c>
       <c r="D96" s="10" t="n">
         <f aca="false">1-C96/B96</f>
-        <v>1</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+        <v>0.74</v>
+      </c>
+      <c r="E96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="9" t="n">
+        <v>-95.77</v>
+      </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B97" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="9" t="n">
+        <v>34</v>
+      </c>
       <c r="D97" s="10" t="n">
         <f aca="false">1-C97/B97</f>
-        <v>1</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+        <v>0.66</v>
+      </c>
+      <c r="E97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>-99.02</v>
+      </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B98" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="9" t="n">
+        <v>18</v>
+      </c>
       <c r="D98" s="10" t="n">
         <f aca="false">1-C98/B98</f>
-        <v>1</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+        <v>0.82</v>
+      </c>
+      <c r="E98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9" t="n">
+        <v>-90.81</v>
+      </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -2399,31 +2958,31 @@
     </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" s="9" t="n">
         <f aca="false">AVERAGE(B81,B86,B96)</f>
         <v>100</v>
       </c>
-      <c r="C101" s="9" t="e">
+      <c r="C101" s="9" t="n">
         <f aca="false">AVERAGE(C81,C86,C96)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D101" s="9" t="e">
+        <v>20.5</v>
+      </c>
+      <c r="D101" s="9" t="n">
         <f aca="false">1-C101/B101</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E101" s="9" t="e">
+        <v>0.795</v>
+      </c>
+      <c r="E101" s="9" t="n">
         <f aca="false">AVERAGE(E81,E86,E96)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F101" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F101" s="9" t="n">
         <f aca="false">AVERAGE(F81,F86,F96)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G101" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G101" s="9" t="n">
         <f aca="false">AVERAGE(G81,G86,G96)</f>
-        <v>#DIV/0!</v>
+        <v>-97.205</v>
       </c>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -2431,31 +2990,31 @@
     </row>
     <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B102" s="9" t="n">
         <f aca="false">AVERAGE(B82,B87,B97)</f>
         <v>100</v>
       </c>
-      <c r="C102" s="9" t="e">
+      <c r="C102" s="9" t="n">
         <f aca="false">AVERAGE(C82,C87,C97)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D102" s="9" t="e">
+        <v>37.5</v>
+      </c>
+      <c r="D102" s="9" t="n">
         <f aca="false">1-C102/B102</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E102" s="9" t="e">
+        <v>0.625</v>
+      </c>
+      <c r="E102" s="9" t="n">
         <f aca="false">AVERAGE(E82,E87,E97)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F102" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F102" s="9" t="n">
         <f aca="false">AVERAGE(F82,F87,F97)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G102" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G102" s="9" t="n">
         <f aca="false">AVERAGE(G82,G87,G97)</f>
-        <v>#DIV/0!</v>
+        <v>-102.26</v>
       </c>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -2463,31 +3022,31 @@
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B103" s="9" t="n">
         <f aca="false">AVERAGE(B83,B88,B98)</f>
         <v>100</v>
       </c>
-      <c r="C103" s="9" t="e">
+      <c r="C103" s="9" t="n">
         <f aca="false">AVERAGE(C83,C88,C98)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D103" s="9" t="e">
+        <v>24</v>
+      </c>
+      <c r="D103" s="9" t="n">
         <f aca="false">1-C103/B103</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E103" s="9" t="e">
+        <v>0.76</v>
+      </c>
+      <c r="E103" s="9" t="n">
         <f aca="false">AVERAGE(E83,E88,E98)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F103" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F103" s="9" t="n">
         <f aca="false">AVERAGE(F83,F88,F98)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G103" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9" t="n">
         <f aca="false">AVERAGE(G83,G88,G98)</f>
-        <v>#DIV/0!</v>
+        <v>-97.87</v>
       </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -2495,7 +3054,7 @@
     </row>
     <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -2523,7 +3082,7 @@
     </row>
     <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -2551,7 +3110,7 @@
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -2605,7 +3164,7 @@
     </row>
     <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B112" s="9" t="n">
         <v>100</v>
@@ -2624,7 +3183,7 @@
     </row>
     <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B113" s="9" t="n">
         <v>100</v>
@@ -2643,7 +3202,7 @@
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" s="9" t="n">
         <v>100</v>
@@ -2702,7 +3261,7 @@
     </row>
     <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B117" s="9" t="n">
         <v>100</v>
@@ -2721,7 +3280,7 @@
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B118" s="9" t="n">
         <v>100</v>
@@ -2740,7 +3299,7 @@
     </row>
     <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" s="9" t="n">
         <v>100</v>
@@ -2790,7 +3349,7 @@
     </row>
     <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B122" s="9" t="n">
         <v>100</v>
@@ -2809,7 +3368,7 @@
     </row>
     <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>100</v>
@@ -2828,7 +3387,7 @@
     </row>
     <row r="124" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>100</v>
@@ -2887,7 +3446,7 @@
     </row>
     <row r="127" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B127" s="9" t="n">
         <f aca="false">AVERAGE(B107,B112,B122)</f>
@@ -2919,7 +3478,7 @@
     </row>
     <row r="128" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B128" s="9" t="n">
         <f aca="false">AVERAGE(B108,B113,B123)</f>
@@ -2951,7 +3510,7 @@
     </row>
     <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B129" s="9" t="n">
         <f aca="false">AVERAGE(B109,B114,B124)</f>
@@ -2983,7 +3542,7 @@
     </row>
     <row r="131" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3011,7 +3570,7 @@
     </row>
     <row r="133" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -3093,57 +3652,81 @@
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B138" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="9" t="n">
+        <v>23</v>
+      </c>
       <c r="D138" s="10" t="n">
         <f aca="false">1-C138/B138</f>
-        <v>1</v>
-      </c>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+        <v>0.77</v>
+      </c>
+      <c r="E138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" s="9" t="n">
+        <v>-104.3</v>
+      </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B139" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="9" t="n">
+        <v>34</v>
+      </c>
       <c r="D139" s="10" t="n">
         <f aca="false">1-C139/B139</f>
-        <v>1</v>
-      </c>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+        <v>0.66</v>
+      </c>
+      <c r="E139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>-106.21</v>
+      </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B140" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C140" s="9"/>
+      <c r="C140" s="9" t="n">
+        <v>40</v>
+      </c>
       <c r="D140" s="10" t="n">
         <f aca="false">1-C140/B140</f>
-        <v>1</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="E140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" s="9" t="n">
+        <v>-105.5</v>
+      </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -3190,57 +3773,81 @@
     </row>
     <row r="143" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B143" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C143" s="9"/>
+      <c r="C143" s="9" t="n">
+        <v>54</v>
+      </c>
       <c r="D143" s="10" t="n">
         <f aca="false">1-C143/B143</f>
-        <v>1</v>
-      </c>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+        <v>0.46</v>
+      </c>
+      <c r="E143" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>-86.82</v>
+      </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B144" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="9" t="n">
+        <v>79</v>
+      </c>
       <c r="D144" s="10" t="n">
         <f aca="false">1-C144/B144</f>
-        <v>1</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
+        <v>0.21</v>
+      </c>
+      <c r="E144" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="9" t="n">
+        <v>-105</v>
+      </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="9" t="n">
+        <v>51</v>
+      </c>
       <c r="D145" s="10" t="n">
         <f aca="false">1-C145/B145</f>
-        <v>1</v>
-      </c>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
+        <v>0.49</v>
+      </c>
+      <c r="E145" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>-105.33</v>
+      </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
@@ -3278,57 +3885,81 @@
     </row>
     <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B148" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C148" s="9"/>
+      <c r="C148" s="9" t="n">
+        <v>36</v>
+      </c>
       <c r="D148" s="10" t="n">
         <f aca="false">1-C148/B148</f>
-        <v>1</v>
-      </c>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+        <v>0.64</v>
+      </c>
+      <c r="E148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" s="9" t="n">
+        <v>-102.15</v>
+      </c>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C149" s="9"/>
+      <c r="C149" s="9" t="n">
+        <v>56</v>
+      </c>
       <c r="D149" s="10" t="n">
         <f aca="false">1-C149/B149</f>
-        <v>1</v>
-      </c>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
+        <v>0.44</v>
+      </c>
+      <c r="E149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>-107.04</v>
+      </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B150" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C150" s="9"/>
+      <c r="C150" s="9" t="n">
+        <v>42</v>
+      </c>
       <c r="D150" s="10" t="n">
         <f aca="false">1-C150/B150</f>
-        <v>1</v>
-      </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
+        <v>0.58</v>
+      </c>
+      <c r="E150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="9" t="n">
+        <v>-106.73</v>
+      </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -3375,31 +4006,31 @@
     </row>
     <row r="153" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B153" s="9" t="n">
         <f aca="false">AVERAGE(B133,B138,B148)</f>
         <v>100</v>
       </c>
-      <c r="C153" s="9" t="e">
+      <c r="C153" s="9" t="n">
         <f aca="false">AVERAGE(C133,C138,C148)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D153" s="9" t="e">
+        <v>29.5</v>
+      </c>
+      <c r="D153" s="9" t="n">
         <f aca="false">1-C153/B153</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E153" s="9" t="e">
+        <v>0.705</v>
+      </c>
+      <c r="E153" s="9" t="n">
         <f aca="false">AVERAGE(E133,E138,E148)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F153" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F153" s="9" t="n">
         <f aca="false">AVERAGE(F133,F138,F148)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G153" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9" t="n">
         <f aca="false">AVERAGE(G133,G138,G148)</f>
-        <v>#DIV/0!</v>
+        <v>-103.225</v>
       </c>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
@@ -3407,31 +4038,31 @@
     </row>
     <row r="154" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B154" s="9" t="n">
         <f aca="false">AVERAGE(B134,B139,B149)</f>
         <v>100</v>
       </c>
-      <c r="C154" s="9" t="e">
+      <c r="C154" s="9" t="n">
         <f aca="false">AVERAGE(C134,C139,C149)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D154" s="9" t="e">
+        <v>45</v>
+      </c>
+      <c r="D154" s="9" t="n">
         <f aca="false">1-C154/B154</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E154" s="9" t="e">
+        <v>0.55</v>
+      </c>
+      <c r="E154" s="9" t="n">
         <f aca="false">AVERAGE(E134,E139,E149)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F154" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F154" s="9" t="n">
         <f aca="false">AVERAGE(F134,F139,F149)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G154" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G154" s="9" t="n">
         <f aca="false">AVERAGE(G134,G139,G149)</f>
-        <v>#DIV/0!</v>
+        <v>-106.625</v>
       </c>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
@@ -3439,31 +4070,31 @@
     </row>
     <row r="155" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B155" s="9" t="n">
         <f aca="false">AVERAGE(B135,B140,B150)</f>
         <v>100</v>
       </c>
-      <c r="C155" s="9" t="e">
+      <c r="C155" s="9" t="n">
         <f aca="false">AVERAGE(C135,C140,C150)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D155" s="9" t="e">
+        <v>41</v>
+      </c>
+      <c r="D155" s="9" t="n">
         <f aca="false">1-C155/B155</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E155" s="9" t="e">
+        <v>0.59</v>
+      </c>
+      <c r="E155" s="9" t="n">
         <f aca="false">AVERAGE(E135,E140,E150)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F155" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="F155" s="9" t="n">
         <f aca="false">AVERAGE(F135,F140,F150)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G155" s="9" t="e">
+        <v>0</v>
+      </c>
+      <c r="G155" s="9" t="n">
         <f aca="false">AVERAGE(G135,G140,G150)</f>
-        <v>#DIV/0!</v>
+        <v>-106.115</v>
       </c>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
@@ -3472,7 +4103,7 @@
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -3500,7 +4131,7 @@
     </row>
     <row r="159" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -3528,7 +4159,7 @@
     </row>
     <row r="161" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -3582,7 +4213,7 @@
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B164" s="9" t="n">
         <v>100</v>
@@ -3601,7 +4232,7 @@
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B165" s="9" t="n">
         <v>100</v>
@@ -3620,7 +4251,7 @@
     </row>
     <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B166" s="9" t="n">
         <v>100</v>
@@ -3679,7 +4310,7 @@
     </row>
     <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B169" s="9" t="n">
         <v>100</v>
@@ -3698,7 +4329,7 @@
     </row>
     <row r="170" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B170" s="9" t="n">
         <v>100</v>
@@ -3717,7 +4348,7 @@
     </row>
     <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B171" s="9" t="n">
         <v>100</v>
@@ -3767,7 +4398,7 @@
     </row>
     <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B174" s="9" t="n">
         <v>100</v>
@@ -3786,7 +4417,7 @@
     </row>
     <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B175" s="9" t="n">
         <v>100</v>
@@ -3805,7 +4436,7 @@
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B176" s="9" t="n">
         <v>100</v>
@@ -3864,7 +4495,7 @@
     </row>
     <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B179" s="9" t="n">
         <f aca="false">AVERAGE(B159,B164,B174)</f>
@@ -3896,7 +4527,7 @@
     </row>
     <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B180" s="9" t="n">
         <f aca="false">AVERAGE(B160,B165,B175)</f>
@@ -3928,7 +4559,7 @@
     </row>
     <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B181" s="9" t="n">
         <f aca="false">AVERAGE(B161,B166,B176)</f>
@@ -3959,7 +4590,7 @@
       <c r="J181" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="48">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H7:J10"/>
@@ -3968,10 +4599,16 @@
     <mergeCell ref="H22:J25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="O27:R27"/>
     <mergeCell ref="H33:J36"/>
+    <mergeCell ref="S33:U36"/>
     <mergeCell ref="H38:J41"/>
+    <mergeCell ref="S38:U41"/>
     <mergeCell ref="H43:J46"/>
+    <mergeCell ref="S43:U46"/>
     <mergeCell ref="H48:J51"/>
+    <mergeCell ref="S48:U51"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="H59:J62"/>
@@ -4020,7 +4657,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -4043,7 +4680,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4117,10 +4754,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -4143,10 +4780,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -4169,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -4223,10 +4860,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -4249,10 +4886,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -4275,10 +4912,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -4329,10 +4966,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -4355,10 +4992,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -4381,10 +5018,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -4524,7 +5161,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4598,10 +5235,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -4624,10 +5261,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -4650,10 +5287,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -4704,10 +5341,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -4730,10 +5367,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -4756,10 +5393,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -4822,10 +5459,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -4848,10 +5485,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -4874,10 +5511,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -5042,11 +5679,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -5064,7 +5701,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5669,7 +6306,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="36">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -54,7 +54,13 @@
     <t xml:space="preserve">Pkts outside conf. interval</t>
   </si>
   <si>
-    <t xml:space="preserve">PDR (conf. interval)</t>
+    <t xml:space="preserve">Pkt in (conf. interval)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReTX Pkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRR</t>
   </si>
   <si>
     <t xml:space="preserve">RSSI (mean)</t>
@@ -70,6 +76,9 @@
   </si>
   <si>
     <t xml:space="preserve">board 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDR (conf. interval)</t>
   </si>
   <si>
     <t xml:space="preserve">ITERATION 2</t>
@@ -193,12 +202,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -249,7 +264,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -296,6 +311,10 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -375,22 +394,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U181"/>
+  <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G99" activeCellId="0" sqref="G99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="28.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.74"/>
@@ -422,10 +443,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -436,10 +457,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -450,10 +471,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -464,10 +485,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -476,10 +497,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -503,15 +524,21 @@
       <c r="G7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>100</v>
@@ -530,15 +557,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="n">
+        <f aca="false">F8+E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <f aca="false">G8/B8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
         <v>-92.84</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
       <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>100</v>
@@ -557,15 +592,23 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="n">
+        <f aca="false">F9+E9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <f aca="false">G9/B9</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
         <v>-93.41</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>100</v>
@@ -584,11 +627,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="n">
+        <f aca="false">F10+E10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <f aca="false">G10/B10</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
         <v>-92.94</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
       <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -597,10 +648,10 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -619,20 +670,26 @@
         <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>100</v>
@@ -651,15 +708,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="n">
+        <f aca="false">F13+E13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <f aca="false">G13/B13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9" t="n">
         <v>-92.86</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>100</v>
@@ -678,15 +743,23 @@
         <v>0</v>
       </c>
       <c r="G14" s="9" t="n">
+        <f aca="false">F14+E14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="n">
+        <f aca="false">G14/B14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9" t="n">
         <v>-93.64</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>100</v>
@@ -705,11 +778,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="9" t="n">
+        <f aca="false">F15+E15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="9" t="n">
+        <f aca="false">G15/B15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9" t="n">
         <v>-94.18</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
       <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -718,10 +799,10 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
@@ -740,20 +821,26 @@
         <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="H17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>100</v>
@@ -772,15 +859,23 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="n">
+        <f aca="false">F18+E18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <f aca="false">G18/B18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9" t="n">
         <v>-93.59</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
       <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>100</v>
@@ -799,15 +894,23 @@
         <v>0</v>
       </c>
       <c r="G19" s="9" t="n">
+        <f aca="false">F19+E19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <f aca="false">G19/B19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9" t="n">
         <v>-93.87</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>100</v>
@@ -826,11 +929,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="9" t="n">
+        <f aca="false">F20+E20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <f aca="false">G20/B20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9" t="n">
         <v>-93.78</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
@@ -839,10 +950,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
@@ -861,20 +972,26 @@
         <v>9</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="H22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23" s="9" t="n">
         <f aca="false">AVERAGE(B8,B13,B18)</f>
@@ -884,29 +1001,37 @@
         <f aca="false">AVERAGE(C8,C13,C18)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="9" t="n">
+      <c r="D23" s="12" t="n">
         <f aca="false">1-C23/B23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="12" t="n">
         <f aca="false">AVERAGE(E8,E13,E18)</f>
         <v>0</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="12" t="n">
         <f aca="false">AVERAGE(F8,F13,F18)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="9" t="n">
-        <f aca="false">AVERAGE(G8,G13,G18)</f>
+      <c r="G23" s="12" t="n">
+        <f aca="false">F23+E23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <f aca="false">G23/B23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="n">
+        <f aca="false">AVERAGE(I8,I13,I18)</f>
         <v>-93.0966666666667</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="9" t="n">
         <f aca="false">AVERAGE(B9,B14,B19)</f>
@@ -916,29 +1041,37 @@
         <f aca="false">AVERAGE(C9,C14,C19)</f>
         <v>0</v>
       </c>
-      <c r="D24" s="9" t="n">
+      <c r="D24" s="12" t="n">
         <f aca="false">1-C24/B24</f>
         <v>1</v>
       </c>
-      <c r="E24" s="9" t="n">
+      <c r="E24" s="12" t="n">
         <f aca="false">AVERAGE(E9,E14,E19)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="12" t="n">
         <f aca="false">AVERAGE(F9,F14,F19)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="9" t="n">
-        <f aca="false">AVERAGE(G9,G14,G19)</f>
+      <c r="G24" s="12" t="n">
+        <f aca="false">F24+E24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="12" t="n">
+        <f aca="false">G24/B24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="9" t="n">
+        <f aca="false">AVERAGE(I9,I14,I19)</f>
         <v>-93.64</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -948,30 +1081,38 @@
         <f aca="false">AVERAGE(C10,C15,C20)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="9" t="n">
+      <c r="D25" s="12" t="n">
         <f aca="false">1-C25/B25</f>
         <v>1</v>
       </c>
-      <c r="E25" s="9" t="n">
+      <c r="E25" s="12" t="n">
         <f aca="false">AVERAGE(E10,E15,E20)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="12" t="n">
         <f aca="false">AVERAGE(F10,F15,F20)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">AVERAGE(G10,G15,G20)</f>
+      <c r="G25" s="12" t="n">
+        <f aca="false">F25+E25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <f aca="false">G25/B25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="9" t="n">
+        <f aca="false">AVERAGE(I10,I15,I20)</f>
         <v>-93.6333333333333</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
       <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -981,23 +1122,24 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="4"/>
-      <c r="L27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="3" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="N27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
       <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
@@ -1006,12 +1148,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -1020,6 +1160,8 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1030,48 +1172,48 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="L29" s="5" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="N29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="L30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="N30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1082,22 +1224,22 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="L31" s="5" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="N31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
@@ -1106,12 +1248,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -1120,6 +1260,8 @@
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
@@ -1138,46 +1280,52 @@
         <v>9</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="L33" s="6" t="s">
+      <c r="I33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="N33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="O33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="R33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q33" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
+      <c r="S33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>100</v>
@@ -1193,39 +1341,47 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="G34" s="9" t="n">
+        <f aca="false">F34+E34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <f aca="false">G34/B34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="7"/>
-      <c r="L34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N34" s="9" t="n">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="N34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P34" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="O34" s="10" t="n">
-        <f aca="false">1-N34/M34</f>
+      <c r="Q34" s="10" t="n">
+        <f aca="false">1-P34/O34</f>
         <v>0.84</v>
       </c>
-      <c r="P34" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9" t="n">
         <v>-98.51</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
       <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>100</v>
@@ -1241,39 +1397,47 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="G35" s="9" t="n">
+        <f aca="false">F35+E35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <f aca="false">G35/B35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="9"/>
       <c r="J35" s="7"/>
-      <c r="L35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N35" s="9" t="n">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="N35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P35" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="O35" s="10" t="n">
-        <f aca="false">1-N35/M35</f>
+      <c r="Q35" s="10" t="n">
+        <f aca="false">1-P35/O35</f>
         <v>0.82</v>
       </c>
-      <c r="P35" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9" t="n">
         <v>-91.59</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
       <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>100</v>
@@ -1289,35 +1453,43 @@
       <c r="F36" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="9" t="n">
+        <f aca="false">F36+E36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <f aca="false">G36/B36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="9"/>
       <c r="J36" s="7"/>
-      <c r="L36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N36" s="9" t="n">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="N36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P36" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="O36" s="10" t="n">
-        <f aca="false">1-N36/M36</f>
+      <c r="Q36" s="10" t="n">
+        <f aca="false">1-P36/O36</f>
         <v>0.91</v>
       </c>
-      <c r="P36" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9" t="n">
         <v>-90.81</v>
       </c>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
       <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
@@ -1326,12 +1498,10 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -1340,6 +1510,8 @@
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
@@ -1358,46 +1530,52 @@
         <v>9</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="L38" s="6" t="s">
+      <c r="H38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="N38" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="P38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="Q38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="R38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q38" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
+      <c r="S38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>100</v>
@@ -1413,39 +1591,47 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="9" t="n">
+        <f aca="false">F39+E39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <f aca="false">G39/B39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="9"/>
       <c r="J39" s="7"/>
-      <c r="L39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M39" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N39" s="9" t="n">
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="N39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P39" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="O39" s="10" t="n">
-        <f aca="false">1-N39/M39</f>
+      <c r="Q39" s="10" t="n">
+        <f aca="false">1-P39/O39</f>
         <v>0.81</v>
       </c>
-      <c r="P39" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9" t="n">
         <v>-91.81</v>
       </c>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
       <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>100</v>
@@ -1461,39 +1647,47 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="G40" s="9" t="n">
+        <f aca="false">F40+E40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <f aca="false">G40/B40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="7"/>
-      <c r="L40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N40" s="9" t="n">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="N40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P40" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="O40" s="10" t="n">
-        <f aca="false">1-N40/M40</f>
+      <c r="Q40" s="10" t="n">
+        <f aca="false">1-P40/O40</f>
         <v>0.84</v>
       </c>
-      <c r="P40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9" t="n">
         <v>-91.88</v>
       </c>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
       <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B41" s="9" t="n">
         <v>100</v>
@@ -1509,39 +1703,48 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="9" t="n">
+        <f aca="false">F41+E41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <f aca="false">G41/B41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="9"/>
       <c r="J41" s="7"/>
-      <c r="L41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N41" s="9" t="n">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="N41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P41" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="O41" s="10" t="n">
-        <f aca="false">1-N41/M41</f>
+      <c r="Q41" s="10" t="n">
+        <f aca="false">1-P41/O41</f>
         <v>0.91</v>
       </c>
-      <c r="P41" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9" t="n">
         <v>-91.76</v>
       </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
       <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="O42" s="4"/>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
@@ -1560,46 +1763,52 @@
         <v>9</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="L43" s="6" t="s">
+      <c r="H43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="N43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="O43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="R43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
+      <c r="S43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>100</v>
@@ -1615,39 +1824,47 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="G44" s="9" t="n">
+        <f aca="false">F44+E44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <f aca="false">G44/B44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="7"/>
-      <c r="L44" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M44" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N44" s="9" t="n">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="N44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P44" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="O44" s="10" t="n">
-        <f aca="false">1-N44/M44</f>
+      <c r="Q44" s="10" t="n">
+        <f aca="false">1-P44/O44</f>
         <v>0.83</v>
       </c>
-      <c r="P44" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9" t="n">
         <v>-92.59</v>
       </c>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
       <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>100</v>
@@ -1663,39 +1880,47 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="9"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="G45" s="9" t="n">
+        <f aca="false">F45+E45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <f aca="false">G45/B45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="7"/>
-      <c r="L45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N45" s="9" t="n">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="N45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P45" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="O45" s="10" t="n">
-        <f aca="false">1-N45/M45</f>
+      <c r="Q45" s="10" t="n">
+        <f aca="false">1-P45/O45</f>
         <v>0.8</v>
       </c>
-      <c r="P45" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9" t="n">
         <v>-94.53</v>
       </c>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
       <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B46" s="9" t="n">
         <v>100</v>
@@ -1711,35 +1936,43 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="G46" s="9"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="G46" s="9" t="n">
+        <f aca="false">F46+E46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <f aca="false">G46/B46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="9"/>
       <c r="J46" s="7"/>
-      <c r="L46" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M46" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="N46" s="9" t="n">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="N46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="P46" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="O46" s="10" t="n">
-        <f aca="false">1-N46/M46</f>
+      <c r="Q46" s="10" t="n">
+        <f aca="false">1-P46/O46</f>
         <v>0.9</v>
       </c>
-      <c r="P46" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" s="9" t="n">
         <v>-89.75</v>
       </c>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
       <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
@@ -1748,12 +1981,10 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -1762,6 +1993,8 @@
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
@@ -1780,233 +2013,263 @@
         <v>9</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="N48" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="L48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q48" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
+      <c r="T48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B49" s="9" t="n">
         <f aca="false">AVERAGE(B29,B34,B44)</f>
         <v>100</v>
       </c>
       <c r="C49" s="9" t="e">
-        <f aca="false">AVERAGE(C29,C34,C44)</f>
+        <f aca="false">AVERAGE(C34,C39,C44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="9" t="e">
+      <c r="D49" s="12" t="e">
         <f aca="false">1-C49/B49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="9" t="n">
-        <f aca="false">AVERAGE(E29,E34,E44)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="9" t="n">
-        <f aca="false">AVERAGE(F29,F34,F44)</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="9" t="e">
-        <f aca="false">AVERAGE(G29,G34,G44)</f>
+      <c r="E49" s="12" t="n">
+        <f aca="false">AVERAGE(E34,E39,E44)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="12" t="n">
+        <f aca="false">AVERAGE(F34,F39,F44)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="12" t="n">
+        <f aca="false">F49+E49</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="12" t="n">
+        <f aca="false">G49/B49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="9" t="e">
+        <f aca="false">AVERAGE(I34,I39,I44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
       <c r="J49" s="11"/>
-      <c r="L49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M49" s="9" t="n">
-        <f aca="false">AVERAGE(M29,M34,M44)</f>
-        <v>100</v>
-      </c>
-      <c r="N49" s="9" t="n">
-        <f aca="false">AVERAGE(N29,N34,N44)</f>
-        <v>16.5</v>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="N49" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="O49" s="9" t="n">
-        <f aca="false">1-N49/M49</f>
-        <v>0.835</v>
+        <f aca="false">AVERAGE(O29,O34,O44)</f>
+        <v>100</v>
       </c>
       <c r="P49" s="9" t="n">
-        <f aca="false">AVERAGE(P29,P34,P44)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="9" t="n">
-        <f aca="false">AVERAGE(Q29,Q34,Q44)</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="9" t="n">
+        <f aca="false">AVERAGE(P34,P39,P44)</f>
+        <v>17.3333333333333</v>
+      </c>
+      <c r="Q49" s="12" t="n">
+        <f aca="false">1-P49/O49</f>
+        <v>0.826666666666667</v>
+      </c>
+      <c r="R49" s="12" t="n">
         <f aca="false">AVERAGE(R29,R34,R44)</f>
-        <v>-95.55</v>
-      </c>
-      <c r="S49" s="11"/>
-      <c r="T49" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="12" t="n">
+        <f aca="false">AVERAGE(S29,S34,S44)</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="9" t="n">
+        <f aca="false">AVERAGE(T34,T39,T44)</f>
+        <v>-94.3033333333333</v>
+      </c>
       <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B50" s="9" t="n">
         <f aca="false">AVERAGE(B30,B35,B45)</f>
         <v>100</v>
       </c>
       <c r="C50" s="9" t="e">
-        <f aca="false">AVERAGE(C30,C35,C45)</f>
+        <f aca="false">AVERAGE(C35,C40,C45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="9" t="e">
+      <c r="D50" s="12" t="e">
         <f aca="false">1-C50/B50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="9" t="n">
-        <f aca="false">AVERAGE(E30,E35,E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="9" t="n">
-        <f aca="false">AVERAGE(F30,F35,F45)</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="9" t="e">
-        <f aca="false">AVERAGE(G30,G35,G45)</f>
+      <c r="E50" s="12" t="n">
+        <f aca="false">AVERAGE(E35,E40,E45)</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="12" t="n">
+        <f aca="false">AVERAGE(F35,F40,F45)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="12" t="n">
+        <f aca="false">F50+E50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="12" t="n">
+        <f aca="false">G50/B50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="9" t="e">
+        <f aca="false">AVERAGE(I35,I40,I45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
-      <c r="L50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M50" s="9" t="n">
-        <f aca="false">AVERAGE(M30,M35,M45)</f>
-        <v>100</v>
-      </c>
-      <c r="N50" s="9" t="n">
-        <f aca="false">AVERAGE(N30,N35,N45)</f>
-        <v>19</v>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="N50" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="O50" s="9" t="n">
-        <f aca="false">1-N50/M50</f>
-        <v>0.81</v>
+        <f aca="false">AVERAGE(O30,O35,O45)</f>
+        <v>100</v>
       </c>
       <c r="P50" s="9" t="n">
-        <f aca="false">AVERAGE(P30,P35,P45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="9" t="n">
-        <f aca="false">AVERAGE(Q30,Q35,Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R50" s="9" t="n">
+        <f aca="false">AVERAGE(P35,P40,P45)</f>
+        <v>18</v>
+      </c>
+      <c r="Q50" s="12" t="n">
+        <f aca="false">1-P50/O50</f>
+        <v>0.82</v>
+      </c>
+      <c r="R50" s="12" t="n">
         <f aca="false">AVERAGE(R30,R35,R45)</f>
-        <v>-93.06</v>
-      </c>
-      <c r="S50" s="11"/>
-      <c r="T50" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="12" t="n">
+        <f aca="false">AVERAGE(S30,S35,S45)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="9" t="n">
+        <f aca="false">AVERAGE(T35,T40,T45)</f>
+        <v>-92.6666666666667</v>
+      </c>
       <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B51" s="9" t="n">
         <f aca="false">AVERAGE(B31,B36,B46)</f>
         <v>100</v>
       </c>
       <c r="C51" s="9" t="e">
-        <f aca="false">AVERAGE(C31,C36,C46)</f>
+        <f aca="false">AVERAGE(C36,C41,C46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="9" t="e">
+      <c r="D51" s="12" t="e">
         <f aca="false">1-C51/B51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="9" t="n">
-        <f aca="false">AVERAGE(E31,E36,E46)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="9" t="n">
-        <f aca="false">AVERAGE(F31,F36,F46)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="9" t="e">
-        <f aca="false">AVERAGE(G31,G36,G46)</f>
+      <c r="E51" s="12" t="n">
+        <f aca="false">AVERAGE(E36,E41,E46)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="12" t="n">
+        <f aca="false">AVERAGE(F36,F41,F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="12" t="n">
+        <f aca="false">F51+E51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="n">
+        <f aca="false">G51/B51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="e">
+        <f aca="false">AVERAGE(I36,I41,I46)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
-      <c r="L51" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M51" s="9" t="n">
-        <f aca="false">AVERAGE(M31,M36,M46)</f>
-        <v>100</v>
-      </c>
-      <c r="N51" s="9" t="n">
-        <f aca="false">AVERAGE(N31,N36,N46)</f>
-        <v>9.5</v>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="N51" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="O51" s="9" t="n">
-        <f aca="false">1-N51/M51</f>
-        <v>0.905</v>
+        <f aca="false">AVERAGE(O31,O36,O46)</f>
+        <v>100</v>
       </c>
       <c r="P51" s="9" t="n">
-        <f aca="false">AVERAGE(P31,P36,P46)</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="9" t="n">
-        <f aca="false">AVERAGE(Q31,Q36,Q46)</f>
-        <v>0</v>
-      </c>
-      <c r="R51" s="9" t="n">
+        <f aca="false">AVERAGE(P36,P41,P46)</f>
+        <v>9.33333333333333</v>
+      </c>
+      <c r="Q51" s="12" t="n">
+        <f aca="false">1-P51/O51</f>
+        <v>0.906666666666667</v>
+      </c>
+      <c r="R51" s="12" t="n">
         <f aca="false">AVERAGE(R31,R36,R46)</f>
-        <v>-90.28</v>
-      </c>
-      <c r="S51" s="11"/>
-      <c r="T51" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="12" t="n">
+        <f aca="false">AVERAGE(S31,S36,S46)</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="9" t="n">
+        <f aca="false">AVERAGE(T36,T41,T46)</f>
+        <v>-90.7733333333333</v>
+      </c>
       <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -2016,9 +2279,10 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="3"/>
       <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
@@ -2027,10 +2291,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
@@ -2041,38 +2305,38 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
@@ -2081,10 +2345,10 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
@@ -2103,20 +2367,26 @@
         <v>9</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
+      <c r="I59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B60" s="9" t="n">
         <v>100</v>
@@ -2128,14 +2398,22 @@
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="G60" s="9" t="n">
+        <f aca="false">F60+E60</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <f aca="false">G60/B60</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="9"/>
       <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B61" s="9" t="n">
         <v>100</v>
@@ -2147,14 +2425,22 @@
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="G61" s="9" t="n">
+        <f aca="false">F61+E61</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <f aca="false">G61/B61</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="9"/>
       <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B62" s="9" t="n">
         <v>100</v>
@@ -2166,10 +2452,18 @@
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="G62" s="9" t="n">
+        <f aca="false">F62+E62</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <f aca="false">G62/B62</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="9"/>
       <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
@@ -2178,10 +2472,10 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
@@ -2200,20 +2494,26 @@
         <v>9</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
+      <c r="H64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B65" s="9" t="n">
         <v>100</v>
@@ -2225,14 +2525,22 @@
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="G65" s="9" t="n">
+        <f aca="false">F65+E65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <f aca="false">G65/B65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="9"/>
       <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B66" s="9" t="n">
         <v>100</v>
@@ -2244,14 +2552,22 @@
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="G66" s="9" t="n">
+        <f aca="false">F66+E66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <f aca="false">G66/B66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="9"/>
       <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>100</v>
@@ -2263,12 +2579,21 @@
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
+      <c r="G67" s="9" t="n">
+        <f aca="false">F67+E67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <f aca="false">G67/B67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="9"/>
       <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,20 +2613,26 @@
         <v>9</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
+      <c r="H69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>100</v>
@@ -2313,14 +2644,22 @@
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
+      <c r="G70" s="9" t="n">
+        <f aca="false">F70+E70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="n">
+        <f aca="false">G70/B70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="9"/>
       <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>100</v>
@@ -2332,14 +2671,22 @@
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="G71" s="9" t="n">
+        <f aca="false">F71+E71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="9" t="n">
+        <f aca="false">G71/B71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="9"/>
       <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>100</v>
@@ -2351,10 +2698,18 @@
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
+      <c r="G72" s="9" t="n">
+        <f aca="false">F72+E72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="9" t="n">
+        <f aca="false">G72/B72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="9"/>
       <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
@@ -2363,10 +2718,10 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
@@ -2385,116 +2740,147 @@
         <v>9</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
+      <c r="H74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B75" s="9" t="n">
         <f aca="false">AVERAGE(B55,B60,B70)</f>
         <v>100</v>
       </c>
       <c r="C75" s="9" t="e">
-        <f aca="false">AVERAGE(C55,C60,C70)</f>
+        <f aca="false">AVERAGE(C60,C65,C70)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D75" s="9" t="e">
+      <c r="D75" s="12" t="e">
         <f aca="false">1-C75/B75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E75" s="9" t="e">
-        <f aca="false">AVERAGE(E55,E60,E70)</f>
+      <c r="E75" s="12" t="e">
+        <f aca="false">AVERAGE(E60,E65,E70)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F75" s="9" t="e">
-        <f aca="false">AVERAGE(F55,F60,F70)</f>
+      <c r="F75" s="12" t="e">
+        <f aca="false">AVERAGE(F60,F65,F70)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G75" s="9" t="e">
-        <f aca="false">AVERAGE(G55,G60,G70)</f>
+      <c r="G75" s="12" t="e">
+        <f aca="false">F75+E75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="H75" s="12" t="e">
+        <f aca="false">G75/B75</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I75" s="9" t="e">
+        <f aca="false">AVERAGE(I60,I65,I70)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B76" s="9" t="n">
         <f aca="false">AVERAGE(B56,B61,B71)</f>
         <v>100</v>
       </c>
       <c r="C76" s="9" t="e">
-        <f aca="false">AVERAGE(C56,C61,C71)</f>
+        <f aca="false">AVERAGE(C61,C66,C71)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D76" s="9" t="e">
+      <c r="D76" s="12" t="e">
         <f aca="false">1-C76/B76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E76" s="9" t="e">
-        <f aca="false">AVERAGE(E56,E61,E71)</f>
+      <c r="E76" s="12" t="e">
+        <f aca="false">AVERAGE(E61,E66,E71)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F76" s="9" t="e">
-        <f aca="false">AVERAGE(F56,F61,F71)</f>
+      <c r="F76" s="12" t="e">
+        <f aca="false">AVERAGE(F61,F66,F71)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G76" s="9" t="e">
-        <f aca="false">AVERAGE(G56,G61,G71)</f>
+      <c r="G76" s="12" t="e">
+        <f aca="false">F76+E76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="H76" s="12" t="e">
+        <f aca="false">G76/B76</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I76" s="9" t="e">
+        <f aca="false">AVERAGE(I61,I66,I71)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B77" s="9" t="n">
         <f aca="false">AVERAGE(B57,B62,B72)</f>
         <v>100</v>
       </c>
       <c r="C77" s="9" t="e">
-        <f aca="false">AVERAGE(C57,C62,C72)</f>
+        <f aca="false">AVERAGE(C62,C67,C72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D77" s="9" t="e">
+      <c r="D77" s="12" t="e">
         <f aca="false">1-C77/B77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E77" s="9" t="e">
-        <f aca="false">AVERAGE(E57,E62,E72)</f>
+      <c r="E77" s="12" t="e">
+        <f aca="false">AVERAGE(E62,E67,E72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F77" s="9" t="e">
-        <f aca="false">AVERAGE(F57,F62,F72)</f>
+      <c r="F77" s="12" t="e">
+        <f aca="false">AVERAGE(F62,F67,F72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G77" s="9" t="e">
-        <f aca="false">AVERAGE(G57,G62,G72)</f>
+      <c r="G77" s="12" t="e">
+        <f aca="false">F77+E77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="H77" s="12" t="e">
+        <f aca="false">G77/B77</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I77" s="9" t="e">
+        <f aca="false">AVERAGE(I62,I67,I72)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J77" s="11"/>
-    </row>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2504,9 +2890,10 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
@@ -2515,38 +2902,38 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
@@ -2557,10 +2944,10 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
@@ -2569,10 +2956,10 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
@@ -2591,20 +2978,26 @@
         <v>9</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
+      <c r="I85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B86" s="9" t="n">
         <v>100</v>
@@ -2623,15 +3016,23 @@
         <v>0</v>
       </c>
       <c r="G86" s="9" t="n">
+        <f aca="false">F86+E86</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="9" t="n">
+        <f aca="false">G86/B86</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="9" t="n">
         <v>-98.64</v>
       </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
       <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B87" s="9" t="n">
         <v>100</v>
@@ -2650,15 +3051,23 @@
         <v>0</v>
       </c>
       <c r="G87" s="9" t="n">
+        <f aca="false">F87+E87</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="9" t="n">
+        <f aca="false">G87/B87</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="9" t="n">
         <v>-105.5</v>
       </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
       <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B88" s="9" t="n">
         <v>100</v>
@@ -2677,11 +3086,19 @@
         <v>0</v>
       </c>
       <c r="G88" s="9" t="n">
+        <f aca="false">F88+E88</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="9" t="n">
+        <f aca="false">G88/B88</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="9" t="n">
         <v>-104.93</v>
       </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
       <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
@@ -2690,10 +3107,10 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
@@ -2712,20 +3129,26 @@
         <v>9</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
+      <c r="H90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B91" s="9" t="n">
         <v>100</v>
@@ -2744,15 +3167,23 @@
         <v>0</v>
       </c>
       <c r="G91" s="9" t="n">
+        <f aca="false">F91+E91</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="9" t="n">
+        <f aca="false">G91/B91</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="9" t="n">
         <v>-94.22</v>
       </c>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
       <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B92" s="9" t="n">
         <v>100</v>
@@ -2771,15 +3202,23 @@
         <v>0</v>
       </c>
       <c r="G92" s="9" t="n">
+        <f aca="false">F92+E92</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="9" t="n">
+        <f aca="false">G92/B92</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="9" t="n">
         <v>-97.59</v>
       </c>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
       <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>100</v>
@@ -2798,13 +3237,22 @@
         <v>0</v>
       </c>
       <c r="G93" s="9" t="n">
+        <f aca="false">F93+E93</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="9" t="n">
+        <f aca="false">G93/B93</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="9" t="n">
         <v>-100.26</v>
       </c>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
       <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="4"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2824,20 +3272,26 @@
         <v>9</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H95" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
+      <c r="H95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B96" s="9" t="n">
         <v>100</v>
@@ -2856,15 +3310,23 @@
         <v>0</v>
       </c>
       <c r="G96" s="9" t="n">
+        <f aca="false">F96+E96</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="9" t="n">
+        <f aca="false">G96/B96</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="9" t="n">
         <v>-95.77</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
       <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B97" s="9" t="n">
         <v>100</v>
@@ -2883,15 +3345,23 @@
         <v>0</v>
       </c>
       <c r="G97" s="9" t="n">
+        <f aca="false">F97+E97</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="9" t="n">
+        <f aca="false">G97/B97</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="9" t="n">
         <v>-99.02</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
       <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B98" s="9" t="n">
         <v>100</v>
@@ -2910,11 +3380,19 @@
         <v>0</v>
       </c>
       <c r="G98" s="9" t="n">
+        <f aca="false">F98+E98</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="9" t="n">
+        <f aca="false">G98/B98</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="9" t="n">
         <v>-90.81</v>
       </c>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
       <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
@@ -2923,10 +3401,10 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
@@ -2945,116 +3423,147 @@
         <v>9</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
+      <c r="H100" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B101" s="9" t="n">
         <f aca="false">AVERAGE(B81,B86,B96)</f>
         <v>100</v>
       </c>
       <c r="C101" s="9" t="n">
-        <f aca="false">AVERAGE(C81,C86,C96)</f>
-        <v>20.5</v>
-      </c>
-      <c r="D101" s="9" t="n">
+        <f aca="false">AVERAGE(C86,C91,C96)</f>
+        <v>17.6666666666667</v>
+      </c>
+      <c r="D101" s="12" t="n">
         <f aca="false">1-C101/B101</f>
-        <v>0.795</v>
-      </c>
-      <c r="E101" s="9" t="n">
-        <f aca="false">AVERAGE(E81,E86,E96)</f>
-        <v>0</v>
-      </c>
-      <c r="F101" s="9" t="n">
-        <f aca="false">AVERAGE(F81,F86,F96)</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="9" t="n">
-        <f aca="false">AVERAGE(G81,G86,G96)</f>
-        <v>-97.205</v>
-      </c>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+        <v>0.823333333333333</v>
+      </c>
+      <c r="E101" s="12" t="n">
+        <f aca="false">AVERAGE(E86,E91,E96)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="12" t="n">
+        <f aca="false">AVERAGE(F86,F91,F96)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="12" t="n">
+        <f aca="false">F101+E101</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="12" t="n">
+        <f aca="false">G101/B101</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="9" t="n">
+        <f aca="false">AVERAGE(I86,I91,I96)</f>
+        <v>-96.21</v>
+      </c>
       <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B102" s="9" t="n">
         <f aca="false">AVERAGE(B82,B87,B97)</f>
         <v>100</v>
       </c>
       <c r="C102" s="9" t="n">
-        <f aca="false">AVERAGE(C82,C87,C97)</f>
-        <v>37.5</v>
-      </c>
-      <c r="D102" s="9" t="n">
+        <f aca="false">AVERAGE(C87,C92,C97)</f>
+        <v>42.6666666666667</v>
+      </c>
+      <c r="D102" s="12" t="n">
         <f aca="false">1-C102/B102</f>
-        <v>0.625</v>
-      </c>
-      <c r="E102" s="9" t="n">
-        <f aca="false">AVERAGE(E82,E87,E97)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="9" t="n">
-        <f aca="false">AVERAGE(F82,F87,F97)</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="9" t="n">
-        <f aca="false">AVERAGE(G82,G87,G97)</f>
-        <v>-102.26</v>
-      </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+        <v>0.573333333333333</v>
+      </c>
+      <c r="E102" s="12" t="n">
+        <f aca="false">AVERAGE(E87,E92,E97)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="12" t="n">
+        <f aca="false">AVERAGE(F87,F92,F97)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="12" t="n">
+        <f aca="false">F102+E102</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="12" t="n">
+        <f aca="false">G102/B102</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="9" t="n">
+        <f aca="false">AVERAGE(I87,I92,I97)</f>
+        <v>-100.703333333333</v>
+      </c>
       <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B103" s="9" t="n">
         <f aca="false">AVERAGE(B83,B88,B98)</f>
         <v>100</v>
       </c>
       <c r="C103" s="9" t="n">
-        <f aca="false">AVERAGE(C83,C88,C98)</f>
-        <v>24</v>
-      </c>
-      <c r="D103" s="9" t="n">
+        <f aca="false">AVERAGE(C88,C93,C98)</f>
+        <v>28</v>
+      </c>
+      <c r="D103" s="12" t="n">
         <f aca="false">1-C103/B103</f>
-        <v>0.76</v>
-      </c>
-      <c r="E103" s="9" t="n">
-        <f aca="false">AVERAGE(E83,E88,E98)</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="9" t="n">
-        <f aca="false">AVERAGE(F83,F88,F98)</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="9" t="n">
-        <f aca="false">AVERAGE(G83,G88,G98)</f>
-        <v>-97.87</v>
-      </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+        <v>0.72</v>
+      </c>
+      <c r="E103" s="12" t="n">
+        <f aca="false">AVERAGE(E88,E93,E98)</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="12" t="n">
+        <f aca="false">AVERAGE(F88,F93,F98)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="12" t="n">
+        <f aca="false">F103+E103</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="12" t="n">
+        <f aca="false">G103/B103</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="9" t="n">
+        <f aca="false">AVERAGE(I88,I93,I98)</f>
+        <v>-98.6666666666667</v>
+      </c>
       <c r="J103" s="11"/>
-    </row>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -3064,9 +3573,10 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="I105" s="3"/>
       <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
@@ -3075,52 +3585,52 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
@@ -3129,10 +3639,10 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
@@ -3151,20 +3661,26 @@
         <v>9</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H111" s="7" t="s">
+      <c r="H111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
+      <c r="I111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B112" s="9" t="n">
         <v>100</v>
@@ -3176,14 +3692,22 @@
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
+      <c r="G112" s="9" t="n">
+        <f aca="false">F112+E112</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="9" t="n">
+        <f aca="false">G112/B112</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="9"/>
       <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B113" s="9" t="n">
         <v>100</v>
@@ -3195,14 +3719,22 @@
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
+      <c r="G113" s="9" t="n">
+        <f aca="false">F113+E113</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="9" t="n">
+        <f aca="false">G113/B113</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="9"/>
       <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B114" s="9" t="n">
         <v>100</v>
@@ -3214,10 +3746,18 @@
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
+      <c r="G114" s="9" t="n">
+        <f aca="false">F114+E114</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="9" t="n">
+        <f aca="false">G114/B114</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="9"/>
       <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
@@ -3226,10 +3766,10 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
@@ -3248,20 +3788,26 @@
         <v>9</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
+      <c r="H116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B117" s="9" t="n">
         <v>100</v>
@@ -3273,14 +3819,22 @@
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
+      <c r="G117" s="9" t="n">
+        <f aca="false">F117+E117</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="9" t="n">
+        <f aca="false">G117/B117</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="9"/>
       <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B118" s="9" t="n">
         <v>100</v>
@@ -3292,14 +3846,22 @@
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
+      <c r="G118" s="9" t="n">
+        <f aca="false">F118+E118</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="9" t="n">
+        <f aca="false">G118/B118</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="9"/>
       <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B119" s="9" t="n">
         <v>100</v>
@@ -3311,12 +3873,21 @@
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
+      <c r="G119" s="9" t="n">
+        <f aca="false">F119+E119</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="9" t="n">
+        <f aca="false">G119/B119</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="9"/>
       <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3336,20 +3907,26 @@
         <v>9</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H121" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+      <c r="H121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K121" s="7"/>
+      <c r="L121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B122" s="9" t="n">
         <v>100</v>
@@ -3361,14 +3938,22 @@
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
+      <c r="G122" s="9" t="n">
+        <f aca="false">F122+E122</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="9" t="n">
+        <f aca="false">G122/B122</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="9"/>
       <c r="J122" s="7"/>
+      <c r="K122" s="7"/>
+      <c r="L122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>100</v>
@@ -3380,14 +3965,22 @@
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
+      <c r="G123" s="9" t="n">
+        <f aca="false">F123+E123</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="9" t="n">
+        <f aca="false">G123/B123</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="9"/>
       <c r="J123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>100</v>
@@ -3399,10 +3992,18 @@
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
+      <c r="G124" s="9" t="n">
+        <f aca="false">F124+E124</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="9" t="n">
+        <f aca="false">G124/B124</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="9"/>
       <c r="J124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
@@ -3411,10 +4012,10 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
@@ -3433,116 +4034,147 @@
         <v>9</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
+      <c r="H126" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B127" s="9" t="n">
         <f aca="false">AVERAGE(B107,B112,B122)</f>
         <v>100</v>
       </c>
       <c r="C127" s="9" t="e">
-        <f aca="false">AVERAGE(C107,C112,C122)</f>
+        <f aca="false">AVERAGE(C112,C117,C122)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D127" s="9" t="e">
+      <c r="D127" s="12" t="e">
         <f aca="false">1-C127/B127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E127" s="9" t="e">
-        <f aca="false">AVERAGE(E107,E112,E122)</f>
+      <c r="E127" s="12" t="e">
+        <f aca="false">AVERAGE(E112,E117,E122)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F127" s="9" t="e">
-        <f aca="false">AVERAGE(F107,F112,F122)</f>
+      <c r="F127" s="12" t="e">
+        <f aca="false">AVERAGE(F112,F117,F122)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G127" s="9" t="e">
-        <f aca="false">AVERAGE(G107,G112,G122)</f>
+      <c r="G127" s="12" t="e">
+        <f aca="false">F127+E127</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="H127" s="12" t="e">
+        <f aca="false">G127/B127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I127" s="9" t="e">
+        <f aca="false">AVERAGE(I112,I117,I122)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B128" s="9" t="n">
         <f aca="false">AVERAGE(B108,B113,B123)</f>
         <v>100</v>
       </c>
       <c r="C128" s="9" t="e">
-        <f aca="false">AVERAGE(C108,C113,C123)</f>
+        <f aca="false">AVERAGE(C113,C118,C123)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D128" s="9" t="e">
+      <c r="D128" s="12" t="e">
         <f aca="false">1-C128/B128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E128" s="9" t="e">
-        <f aca="false">AVERAGE(E108,E113,E123)</f>
+      <c r="E128" s="12" t="e">
+        <f aca="false">AVERAGE(E113,E118,E123)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F128" s="9" t="e">
-        <f aca="false">AVERAGE(F108,F113,F123)</f>
+      <c r="F128" s="12" t="e">
+        <f aca="false">AVERAGE(F113,F118,F123)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G128" s="9" t="e">
-        <f aca="false">AVERAGE(G108,G113,G123)</f>
+      <c r="G128" s="12" t="e">
+        <f aca="false">F128+E128</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H128" s="11"/>
-      <c r="I128" s="11"/>
+      <c r="H128" s="12" t="e">
+        <f aca="false">G128/B128</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I128" s="9" t="e">
+        <f aca="false">AVERAGE(I113,I118,I123)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B129" s="9" t="n">
         <f aca="false">AVERAGE(B109,B114,B124)</f>
         <v>100</v>
       </c>
       <c r="C129" s="9" t="e">
-        <f aca="false">AVERAGE(C109,C114,C124)</f>
+        <f aca="false">AVERAGE(C114,C119,C124)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D129" s="9" t="e">
+      <c r="D129" s="12" t="e">
         <f aca="false">1-C129/B129</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E129" s="9" t="e">
-        <f aca="false">AVERAGE(E109,E114,E124)</f>
+      <c r="E129" s="12" t="e">
+        <f aca="false">AVERAGE(E114,E119,E124)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F129" s="9" t="e">
-        <f aca="false">AVERAGE(F109,F114,F124)</f>
+      <c r="F129" s="12" t="e">
+        <f aca="false">AVERAGE(F114,F119,F124)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G129" s="9" t="e">
-        <f aca="false">AVERAGE(G109,G114,G124)</f>
+      <c r="G129" s="12" t="e">
+        <f aca="false">F129+E129</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H129" s="11"/>
-      <c r="I129" s="11"/>
+      <c r="H129" s="12" t="e">
+        <f aca="false">G129/B129</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I129" s="9" t="e">
+        <f aca="false">AVERAGE(I114,I119,I124)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="J129" s="11"/>
-    </row>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="131" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -3552,9 +4184,10 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+      <c r="I131" s="3"/>
       <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
@@ -3563,38 +4196,38 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
@@ -3605,10 +4238,10 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
@@ -3617,10 +4250,10 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
@@ -3639,20 +4272,26 @@
         <v>9</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H137" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
+      <c r="I137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B138" s="9" t="n">
         <v>100</v>
@@ -3671,15 +4310,23 @@
         <v>0</v>
       </c>
       <c r="G138" s="9" t="n">
+        <f aca="false">F138+E138</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="9" t="n">
+        <f aca="false">G138/B138</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="9" t="n">
         <v>-104.3</v>
       </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
       <c r="J138" s="7"/>
+      <c r="K138" s="7"/>
+      <c r="L138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B139" s="9" t="n">
         <v>100</v>
@@ -3698,15 +4345,23 @@
         <v>0</v>
       </c>
       <c r="G139" s="9" t="n">
+        <f aca="false">F139+E139</f>
+        <v>0</v>
+      </c>
+      <c r="H139" s="9" t="n">
+        <f aca="false">G139/B139</f>
+        <v>0</v>
+      </c>
+      <c r="I139" s="9" t="n">
         <v>-106.21</v>
       </c>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
       <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B140" s="9" t="n">
         <v>100</v>
@@ -3725,11 +4380,19 @@
         <v>0</v>
       </c>
       <c r="G140" s="9" t="n">
+        <f aca="false">F140+E140</f>
+        <v>0</v>
+      </c>
+      <c r="H140" s="9" t="n">
+        <f aca="false">G140/B140</f>
+        <v>0</v>
+      </c>
+      <c r="I140" s="9" t="n">
         <v>-105.5</v>
       </c>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
       <c r="J140" s="7"/>
+      <c r="K140" s="7"/>
+      <c r="L140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
@@ -3738,10 +4401,10 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
@@ -3760,20 +4423,26 @@
         <v>9</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H142" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
+      <c r="H142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B143" s="9" t="n">
         <v>100</v>
@@ -3792,15 +4461,23 @@
         <v>0</v>
       </c>
       <c r="G143" s="9" t="n">
+        <f aca="false">F143+E143</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="9" t="n">
+        <f aca="false">G143/B143</f>
+        <v>0</v>
+      </c>
+      <c r="I143" s="9" t="n">
         <v>-86.82</v>
       </c>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
       <c r="J143" s="7"/>
+      <c r="K143" s="7"/>
+      <c r="L143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B144" s="9" t="n">
         <v>100</v>
@@ -3819,15 +4496,23 @@
         <v>0</v>
       </c>
       <c r="G144" s="9" t="n">
+        <f aca="false">F144+E144</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="9" t="n">
+        <f aca="false">G144/B144</f>
+        <v>0</v>
+      </c>
+      <c r="I144" s="9" t="n">
         <v>-105</v>
       </c>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
       <c r="J144" s="7"/>
+      <c r="K144" s="7"/>
+      <c r="L144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>100</v>
@@ -3846,13 +4531,22 @@
         <v>0</v>
       </c>
       <c r="G145" s="9" t="n">
+        <f aca="false">F145+E145</f>
+        <v>0</v>
+      </c>
+      <c r="H145" s="9" t="n">
+        <f aca="false">G145/B145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="9" t="n">
         <v>-105.33</v>
       </c>
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
       <c r="J145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,20 +4566,26 @@
         <v>9</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H147" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I147" s="7"/>
-      <c r="J147" s="7"/>
+      <c r="H147" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B148" s="9" t="n">
         <v>100</v>
@@ -3904,15 +4604,23 @@
         <v>0</v>
       </c>
       <c r="G148" s="9" t="n">
+        <f aca="false">F148+E148</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="9" t="n">
+        <f aca="false">G148/B148</f>
+        <v>0</v>
+      </c>
+      <c r="I148" s="9" t="n">
         <v>-102.15</v>
       </c>
-      <c r="H148" s="7"/>
-      <c r="I148" s="7"/>
       <c r="J148" s="7"/>
+      <c r="K148" s="7"/>
+      <c r="L148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>100</v>
@@ -3931,15 +4639,23 @@
         <v>0</v>
       </c>
       <c r="G149" s="9" t="n">
+        <f aca="false">F149+E149</f>
+        <v>0</v>
+      </c>
+      <c r="H149" s="9" t="n">
+        <f aca="false">G149/B149</f>
+        <v>0</v>
+      </c>
+      <c r="I149" s="9" t="n">
         <v>-107.04</v>
       </c>
-      <c r="H149" s="7"/>
-      <c r="I149" s="7"/>
       <c r="J149" s="7"/>
+      <c r="K149" s="7"/>
+      <c r="L149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B150" s="9" t="n">
         <v>100</v>
@@ -3958,11 +4674,19 @@
         <v>0</v>
       </c>
       <c r="G150" s="9" t="n">
+        <f aca="false">F150+E150</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="9" t="n">
+        <f aca="false">G150/B150</f>
+        <v>0</v>
+      </c>
+      <c r="I150" s="9" t="n">
         <v>-106.73</v>
       </c>
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
       <c r="J150" s="7"/>
+      <c r="K150" s="7"/>
+      <c r="L150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
@@ -3971,10 +4695,10 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
@@ -3993,117 +4717,147 @@
         <v>9</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H152" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
+      <c r="H152" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J152" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B153" s="9" t="n">
         <f aca="false">AVERAGE(B133,B138,B148)</f>
         <v>100</v>
       </c>
       <c r="C153" s="9" t="n">
-        <f aca="false">AVERAGE(C133,C138,C148)</f>
-        <v>29.5</v>
-      </c>
-      <c r="D153" s="9" t="n">
+        <f aca="false">AVERAGE(C138,C143,C148)</f>
+        <v>37.6666666666667</v>
+      </c>
+      <c r="D153" s="12" t="n">
         <f aca="false">1-C153/B153</f>
-        <v>0.705</v>
-      </c>
-      <c r="E153" s="9" t="n">
-        <f aca="false">AVERAGE(E133,E138,E148)</f>
-        <v>0</v>
-      </c>
-      <c r="F153" s="9" t="n">
-        <f aca="false">AVERAGE(F133,F138,F148)</f>
-        <v>0</v>
-      </c>
-      <c r="G153" s="9" t="n">
-        <f aca="false">AVERAGE(G133,G138,G148)</f>
-        <v>-103.225</v>
-      </c>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11"/>
+        <v>0.623333333333333</v>
+      </c>
+      <c r="E153" s="12" t="n">
+        <f aca="false">AVERAGE(E138,E143,E148)</f>
+        <v>0</v>
+      </c>
+      <c r="F153" s="12" t="n">
+        <f aca="false">AVERAGE(F138,F143,F148)</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="12" t="n">
+        <f aca="false">F153+E153</f>
+        <v>0</v>
+      </c>
+      <c r="H153" s="12" t="n">
+        <f aca="false">G153/B153</f>
+        <v>0</v>
+      </c>
+      <c r="I153" s="9" t="n">
+        <f aca="false">AVERAGE(I138,I143,I148)</f>
+        <v>-97.7566666666667</v>
+      </c>
       <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B154" s="9" t="n">
         <f aca="false">AVERAGE(B134,B139,B149)</f>
         <v>100</v>
       </c>
       <c r="C154" s="9" t="n">
-        <f aca="false">AVERAGE(C134,C139,C149)</f>
-        <v>45</v>
-      </c>
-      <c r="D154" s="9" t="n">
+        <f aca="false">AVERAGE(C139,C144,C149)</f>
+        <v>56.3333333333333</v>
+      </c>
+      <c r="D154" s="12" t="n">
         <f aca="false">1-C154/B154</f>
-        <v>0.55</v>
-      </c>
-      <c r="E154" s="9" t="n">
-        <f aca="false">AVERAGE(E134,E139,E149)</f>
-        <v>0</v>
-      </c>
-      <c r="F154" s="9" t="n">
-        <f aca="false">AVERAGE(F134,F139,F149)</f>
-        <v>0</v>
-      </c>
-      <c r="G154" s="9" t="n">
-        <f aca="false">AVERAGE(G134,G139,G149)</f>
-        <v>-106.625</v>
-      </c>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
+        <v>0.436666666666667</v>
+      </c>
+      <c r="E154" s="12" t="n">
+        <f aca="false">AVERAGE(E139,E144,E149)</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="12" t="n">
+        <f aca="false">AVERAGE(F139,F144,F149)</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="12" t="n">
+        <f aca="false">F154+E154</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="12" t="n">
+        <f aca="false">G154/B154</f>
+        <v>0</v>
+      </c>
+      <c r="I154" s="9" t="n">
+        <f aca="false">AVERAGE(I139,I144,I149)</f>
+        <v>-106.083333333333</v>
+      </c>
       <c r="J154" s="11"/>
+      <c r="K154" s="11"/>
+      <c r="L154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B155" s="9" t="n">
         <f aca="false">AVERAGE(B135,B140,B150)</f>
         <v>100</v>
       </c>
       <c r="C155" s="9" t="n">
-        <f aca="false">AVERAGE(C135,C140,C150)</f>
-        <v>41</v>
-      </c>
-      <c r="D155" s="9" t="n">
+        <f aca="false">AVERAGE(C140,C145,C150)</f>
+        <v>44.3333333333333</v>
+      </c>
+      <c r="D155" s="12" t="n">
         <f aca="false">1-C155/B155</f>
-        <v>0.59</v>
-      </c>
-      <c r="E155" s="9" t="n">
-        <f aca="false">AVERAGE(E135,E140,E150)</f>
-        <v>0</v>
-      </c>
-      <c r="F155" s="9" t="n">
-        <f aca="false">AVERAGE(F135,F140,F150)</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="9" t="n">
-        <f aca="false">AVERAGE(G135,G140,G150)</f>
-        <v>-106.115</v>
-      </c>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11"/>
+        <v>0.556666666666667</v>
+      </c>
+      <c r="E155" s="12" t="n">
+        <f aca="false">AVERAGE(E140,E145,E150)</f>
+        <v>0</v>
+      </c>
+      <c r="F155" s="12" t="n">
+        <f aca="false">AVERAGE(F140,F145,F150)</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="12" t="n">
+        <f aca="false">F155+E155</f>
+        <v>0</v>
+      </c>
+      <c r="H155" s="12" t="n">
+        <f aca="false">G155/B155</f>
+        <v>0</v>
+      </c>
+      <c r="I155" s="9" t="n">
+        <f aca="false">AVERAGE(I140,I145,I150)</f>
+        <v>-105.853333333333</v>
+      </c>
       <c r="J155" s="11"/>
+      <c r="K155" s="11"/>
+      <c r="L155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -4113,9 +4867,10 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
+      <c r="I157" s="3"/>
       <c r="J157" s="4"/>
+      <c r="K157" s="4"/>
+      <c r="L157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
@@ -4124,52 +4879,52 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
@@ -4178,10 +4933,10 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
@@ -4200,73 +4955,127 @@
         <v>9</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H163" s="7" t="s">
+      <c r="H163" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="7"/>
+      <c r="I163" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K163" s="7"/>
+      <c r="L163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B164" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C164" s="9"/>
+      <c r="C164" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="D164" s="10" t="n">
         <f aca="false">1-C164/B164</f>
-        <v>1</v>
-      </c>
-      <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
+        <v>0.99</v>
+      </c>
+      <c r="E164" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F164" s="9" t="n">
+        <v>114</v>
+      </c>
+      <c r="G164" s="9" t="n">
+        <f aca="false">F164+E164</f>
+        <v>136</v>
+      </c>
+      <c r="H164" s="9" t="n">
+        <f aca="false">G164/B164</f>
+        <v>1.36</v>
+      </c>
+      <c r="I164" s="9" t="n">
+        <v>-97.97</v>
+      </c>
       <c r="J164" s="7"/>
+      <c r="K164" s="7"/>
+      <c r="L164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B165" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C165" s="9"/>
+      <c r="C165" s="9" t="n">
+        <v>70</v>
+      </c>
       <c r="D165" s="10" t="n">
         <f aca="false">1-C165/B165</f>
-        <v>1</v>
-      </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="7"/>
-      <c r="I165" s="7"/>
+        <v>0.3</v>
+      </c>
+      <c r="E165" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G165" s="9" t="n">
+        <f aca="false">F165+E165</f>
+        <v>33</v>
+      </c>
+      <c r="H165" s="9" t="n">
+        <f aca="false">G165/B165</f>
+        <v>0.33</v>
+      </c>
+      <c r="I165" s="9" t="n">
+        <v>-86.15</v>
+      </c>
       <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
+      <c r="L165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B166" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C166" s="9"/>
+      <c r="C166" s="9" t="n">
+        <v>30</v>
+      </c>
       <c r="D166" s="10" t="n">
         <f aca="false">1-C166/B166</f>
-        <v>1</v>
-      </c>
-      <c r="E166" s="9"/>
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="7"/>
-      <c r="I166" s="7"/>
+        <v>0.7</v>
+      </c>
+      <c r="E166" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F166" s="9" t="n">
+        <v>87</v>
+      </c>
+      <c r="G166" s="9" t="n">
+        <f aca="false">F166+E166</f>
+        <v>90</v>
+      </c>
+      <c r="H166" s="9" t="n">
+        <f aca="false">G166/B166</f>
+        <v>0.9</v>
+      </c>
+      <c r="I166" s="9" t="n">
+        <v>-78.73</v>
+      </c>
       <c r="J166" s="7"/>
+      <c r="K166" s="7"/>
+      <c r="L166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
@@ -4275,10 +5084,10 @@
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
@@ -4297,75 +5106,130 @@
         <v>9</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H168" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I168" s="7"/>
-      <c r="J168" s="7"/>
+      <c r="H168" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B169" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C169" s="9"/>
+      <c r="C169" s="9" t="n">
+        <v>73</v>
+      </c>
       <c r="D169" s="10" t="n">
         <f aca="false">1-C169/B169</f>
-        <v>1</v>
-      </c>
-      <c r="E169" s="9"/>
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="7"/>
-      <c r="I169" s="7"/>
+        <v>0.27</v>
+      </c>
+      <c r="E169" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="9" t="n">
+        <v>31</v>
+      </c>
+      <c r="G169" s="9" t="n">
+        <f aca="false">F169+E169</f>
+        <v>31</v>
+      </c>
+      <c r="H169" s="9" t="n">
+        <f aca="false">G169/B169</f>
+        <v>0.31</v>
+      </c>
+      <c r="I169" s="9" t="n">
+        <v>-81.1</v>
+      </c>
       <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B170" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C170" s="9"/>
+      <c r="C170" s="9" t="n">
+        <v>20</v>
+      </c>
       <c r="D170" s="10" t="n">
         <f aca="false">1-C170/B170</f>
-        <v>1</v>
-      </c>
-      <c r="E170" s="9"/>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="7"/>
-      <c r="I170" s="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="E170" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F170" s="9" t="n">
+        <v>97</v>
+      </c>
+      <c r="G170" s="9" t="n">
+        <f aca="false">F170+E170</f>
+        <v>109</v>
+      </c>
+      <c r="H170" s="9" t="n">
+        <f aca="false">G170/B170</f>
+        <v>1.09</v>
+      </c>
+      <c r="I170" s="9" t="n">
+        <v>-95.22</v>
+      </c>
       <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B171" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C171" s="9"/>
+      <c r="C171" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="D171" s="10" t="n">
         <f aca="false">1-C171/B171</f>
-        <v>1</v>
-      </c>
-      <c r="E171" s="9"/>
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="7"/>
-      <c r="I171" s="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="E171" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F171" s="9" t="n">
+        <v>98</v>
+      </c>
+      <c r="G171" s="9" t="n">
+        <f aca="false">F171+E171</f>
+        <v>104</v>
+      </c>
+      <c r="H171" s="9" t="n">
+        <f aca="false">G171/B171</f>
+        <v>1.04</v>
+      </c>
+      <c r="I171" s="9" t="n">
+        <v>-78.94</v>
+      </c>
       <c r="J171" s="7"/>
+      <c r="K171" s="7"/>
+      <c r="L171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4385,73 +5249,127 @@
         <v>9</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H173" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="7"/>
+      <c r="H173" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K173" s="7"/>
+      <c r="L173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B174" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C174" s="9"/>
+      <c r="C174" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D174" s="10" t="n">
         <f aca="false">1-C174/B174</f>
         <v>1</v>
       </c>
-      <c r="E174" s="9"/>
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="7"/>
-      <c r="I174" s="7"/>
+      <c r="E174" s="9" t="n">
+        <v>19</v>
+      </c>
+      <c r="F174" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="G174" s="9" t="n">
+        <f aca="false">F174+E174</f>
+        <v>148</v>
+      </c>
+      <c r="H174" s="9" t="n">
+        <f aca="false">G174/B174</f>
+        <v>1.48</v>
+      </c>
+      <c r="I174" s="9" t="n">
+        <v>-91.72</v>
+      </c>
       <c r="J174" s="7"/>
+      <c r="K174" s="7"/>
+      <c r="L174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B175" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C175" s="9"/>
+      <c r="C175" s="9" t="n">
+        <v>15</v>
+      </c>
       <c r="D175" s="10" t="n">
         <f aca="false">1-C175/B175</f>
-        <v>1</v>
-      </c>
-      <c r="E175" s="9"/>
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="7"/>
+        <v>0.85</v>
+      </c>
+      <c r="E175" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="F175" s="9" t="n">
+        <v>94</v>
+      </c>
+      <c r="G175" s="9" t="n">
+        <f aca="false">F175+E175</f>
+        <v>117</v>
+      </c>
+      <c r="H175" s="9" t="n">
+        <f aca="false">G175/B175</f>
+        <v>1.17</v>
+      </c>
+      <c r="I175" s="9" t="n">
+        <v>-98.6</v>
+      </c>
       <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B176" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C176" s="9"/>
+      <c r="C176" s="9" t="n">
+        <v>11</v>
+      </c>
       <c r="D176" s="10" t="n">
         <f aca="false">1-C176/B176</f>
-        <v>1</v>
-      </c>
-      <c r="E176" s="9"/>
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="7"/>
-      <c r="I176" s="7"/>
+        <v>0.89</v>
+      </c>
+      <c r="E176" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="F176" s="9" t="n">
+        <v>104</v>
+      </c>
+      <c r="G176" s="9" t="n">
+        <f aca="false">F176+E176</f>
+        <v>122</v>
+      </c>
+      <c r="H176" s="9" t="n">
+        <f aca="false">G176/B176</f>
+        <v>1.22</v>
+      </c>
+      <c r="I176" s="9" t="n">
+        <v>-103.43</v>
+      </c>
       <c r="J176" s="7"/>
+      <c r="K176" s="7"/>
+      <c r="L176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
@@ -4460,10 +5378,10 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="4"/>
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
@@ -4482,163 +5400,194 @@
         <v>9</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H178" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
+      <c r="H178" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B179" s="9" t="n">
         <f aca="false">AVERAGE(B159,B164,B174)</f>
         <v>100</v>
       </c>
-      <c r="C179" s="9" t="e">
-        <f aca="false">AVERAGE(C159,C164,C174)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D179" s="9" t="e">
+      <c r="C179" s="9" t="n">
+        <f aca="false">AVERAGE(C164,C169,C174)</f>
+        <v>24.6666666666667</v>
+      </c>
+      <c r="D179" s="12" t="n">
         <f aca="false">1-C179/B179</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E179" s="9" t="e">
-        <f aca="false">AVERAGE(E159,E164,E174)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F179" s="9" t="e">
-        <f aca="false">AVERAGE(F159,F164,F174)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G179" s="9" t="e">
-        <f aca="false">AVERAGE(G159,G164,G174)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
+        <v>0.753333333333333</v>
+      </c>
+      <c r="E179" s="12" t="n">
+        <f aca="false">AVERAGE(E164,E169,E174)</f>
+        <v>13.6666666666667</v>
+      </c>
+      <c r="F179" s="12" t="n">
+        <f aca="false">AVERAGE(F164,F169,F174)</f>
+        <v>91.3333333333333</v>
+      </c>
+      <c r="G179" s="12" t="n">
+        <f aca="false">F179+E179</f>
+        <v>105</v>
+      </c>
+      <c r="H179" s="12" t="n">
+        <f aca="false">G179/B179</f>
+        <v>1.05</v>
+      </c>
+      <c r="I179" s="9" t="n">
+        <f aca="false">AVERAGE(I164,I169,I174)</f>
+        <v>-90.2633333333333</v>
+      </c>
       <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B180" s="9" t="n">
         <f aca="false">AVERAGE(B160,B165,B175)</f>
         <v>100</v>
       </c>
-      <c r="C180" s="9" t="e">
-        <f aca="false">AVERAGE(C160,C165,C175)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D180" s="9" t="e">
+      <c r="C180" s="9" t="n">
+        <f aca="false">AVERAGE(C165,C170,C175)</f>
+        <v>35</v>
+      </c>
+      <c r="D180" s="12" t="n">
         <f aca="false">1-C180/B180</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E180" s="9" t="e">
-        <f aca="false">AVERAGE(E160,E165,E175)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F180" s="9" t="e">
-        <f aca="false">AVERAGE(F160,F165,F175)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G180" s="9" t="e">
-        <f aca="false">AVERAGE(G160,G165,G175)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
+        <v>0.65</v>
+      </c>
+      <c r="E180" s="12" t="n">
+        <f aca="false">AVERAGE(E165,E170,E175)</f>
+        <v>12.6666666666667</v>
+      </c>
+      <c r="F180" s="12" t="n">
+        <f aca="false">AVERAGE(F165,F170,F175)</f>
+        <v>73.6666666666667</v>
+      </c>
+      <c r="G180" s="12" t="n">
+        <f aca="false">F180+E180</f>
+        <v>86.3333333333333</v>
+      </c>
+      <c r="H180" s="12" t="n">
+        <f aca="false">G180/B180</f>
+        <v>0.863333333333333</v>
+      </c>
+      <c r="I180" s="9" t="n">
+        <f aca="false">AVERAGE(I165,I170,I175)</f>
+        <v>-93.3233333333333</v>
+      </c>
       <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B181" s="9" t="n">
         <f aca="false">AVERAGE(B161,B166,B176)</f>
         <v>100</v>
       </c>
-      <c r="C181" s="9" t="e">
-        <f aca="false">AVERAGE(C161,C166,C176)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D181" s="9" t="e">
+      <c r="C181" s="9" t="n">
+        <f aca="false">AVERAGE(C166,C171,C176)</f>
+        <v>22</v>
+      </c>
+      <c r="D181" s="12" t="n">
         <f aca="false">1-C181/B181</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E181" s="9" t="e">
-        <f aca="false">AVERAGE(E161,E166,E176)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F181" s="9" t="e">
-        <f aca="false">AVERAGE(F161,F166,F176)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G181" s="9" t="e">
-        <f aca="false">AVERAGE(G161,G166,G176)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
+        <v>0.78</v>
+      </c>
+      <c r="E181" s="12" t="n">
+        <f aca="false">AVERAGE(E166,E171,E176)</f>
+        <v>9</v>
+      </c>
+      <c r="F181" s="12" t="n">
+        <f aca="false">AVERAGE(F166,F171,F176)</f>
+        <v>96.3333333333333</v>
+      </c>
+      <c r="G181" s="12" t="n">
+        <f aca="false">F181+E181</f>
+        <v>105.333333333333</v>
+      </c>
+      <c r="H181" s="12" t="n">
+        <f aca="false">G181/B181</f>
+        <v>1.05333333333333</v>
+      </c>
+      <c r="I181" s="9" t="n">
+        <f aca="false">AVERAGE(I166,I171,I176)</f>
+        <v>-87.0333333333334</v>
+      </c>
       <c r="J181" s="11"/>
-    </row>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H7:J10"/>
-    <mergeCell ref="H12:J15"/>
-    <mergeCell ref="H17:J20"/>
-    <mergeCell ref="H22:J25"/>
+    <mergeCell ref="J7:L10"/>
+    <mergeCell ref="J12:L15"/>
+    <mergeCell ref="J17:L20"/>
+    <mergeCell ref="J22:L25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="H33:J36"/>
-    <mergeCell ref="S33:U36"/>
-    <mergeCell ref="H38:J41"/>
-    <mergeCell ref="S38:U41"/>
-    <mergeCell ref="H43:J46"/>
-    <mergeCell ref="S43:U46"/>
-    <mergeCell ref="H48:J51"/>
-    <mergeCell ref="S48:U51"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:T27"/>
+    <mergeCell ref="J33:L36"/>
+    <mergeCell ref="U33:W36"/>
+    <mergeCell ref="J38:L41"/>
+    <mergeCell ref="U38:W41"/>
+    <mergeCell ref="J43:L46"/>
+    <mergeCell ref="U43:W46"/>
+    <mergeCell ref="J48:L51"/>
+    <mergeCell ref="U48:W51"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H59:J62"/>
-    <mergeCell ref="H64:J67"/>
-    <mergeCell ref="H69:J72"/>
-    <mergeCell ref="H74:J77"/>
+    <mergeCell ref="J59:L62"/>
+    <mergeCell ref="J64:L67"/>
+    <mergeCell ref="J69:L72"/>
+    <mergeCell ref="J74:L77"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="D79:G79"/>
-    <mergeCell ref="H85:J88"/>
-    <mergeCell ref="H90:J93"/>
-    <mergeCell ref="H95:J98"/>
-    <mergeCell ref="H100:J103"/>
+    <mergeCell ref="J85:L88"/>
+    <mergeCell ref="J90:L93"/>
+    <mergeCell ref="J95:L98"/>
+    <mergeCell ref="J100:L103"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H111:J114"/>
-    <mergeCell ref="H116:J119"/>
-    <mergeCell ref="H121:J124"/>
-    <mergeCell ref="H126:J129"/>
+    <mergeCell ref="J111:L114"/>
+    <mergeCell ref="J116:L119"/>
+    <mergeCell ref="J121:L124"/>
+    <mergeCell ref="J126:L129"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="D131:G131"/>
-    <mergeCell ref="H137:J140"/>
-    <mergeCell ref="H142:J145"/>
-    <mergeCell ref="H147:J150"/>
-    <mergeCell ref="H152:J155"/>
+    <mergeCell ref="J137:L140"/>
+    <mergeCell ref="J142:L145"/>
+    <mergeCell ref="J147:L150"/>
+    <mergeCell ref="J152:L155"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="D157:G157"/>
-    <mergeCell ref="H163:J166"/>
-    <mergeCell ref="H168:J171"/>
-    <mergeCell ref="H173:J176"/>
-    <mergeCell ref="H178:J181"/>
+    <mergeCell ref="J163:L166"/>
+    <mergeCell ref="J168:L171"/>
+    <mergeCell ref="J173:L176"/>
+    <mergeCell ref="J178:L181"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4680,7 +5629,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -4729,20 +5678,20 @@
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>27</v>
@@ -4754,10 +5703,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -4768,7 +5717,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>27</v>
@@ -4780,10 +5729,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -4794,7 +5743,7 @@
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>27</v>
@@ -4806,10 +5755,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -4835,20 +5784,20 @@
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>26</v>
@@ -4860,10 +5809,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -4874,7 +5823,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>26</v>
@@ -4886,10 +5835,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -4900,7 +5849,7 @@
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>26</v>
@@ -4912,10 +5861,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -4941,20 +5890,20 @@
         <v>9</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>27</v>
@@ -4966,10 +5915,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -4980,7 +5929,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>26</v>
@@ -4992,10 +5941,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -5006,7 +5955,7 @@
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>26</v>
@@ -5018,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -5047,20 +5996,20 @@
         <v>9</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -5092,7 +6041,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -5124,7 +6073,7 @@
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B27" s="9" t="n">
         <f aca="false">AVERAGE(B12,B17,B22)</f>
@@ -5156,12 +6105,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -5181,7 +6130,7 @@
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -5210,20 +6159,20 @@
         <v>9</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>26</v>
@@ -5235,10 +6184,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -5249,7 +6198,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>26</v>
@@ -5261,10 +6210,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -5275,7 +6224,7 @@
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>25</v>
@@ -5287,10 +6236,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -5316,20 +6265,20 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B43" s="9" t="n">
         <v>26</v>
@@ -5341,10 +6290,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -5355,7 +6304,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>26</v>
@@ -5367,10 +6316,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -5381,7 +6330,7 @@
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>26</v>
@@ -5393,10 +6342,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -5434,20 +6383,20 @@
         <v>9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>26</v>
@@ -5459,10 +6408,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -5473,7 +6422,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" s="9" t="n">
         <v>17</v>
@@ -5485,10 +6434,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -5499,7 +6448,7 @@
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B50" s="9" t="n">
         <v>26</v>
@@ -5511,10 +6460,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -5540,20 +6489,20 @@
         <v>9</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
@@ -5585,7 +6534,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>
@@ -5617,7 +6566,7 @@
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9" t="n">
         <f aca="false">AVERAGE(B35,B40,B50)</f>
@@ -5683,7 +6632,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -5701,7 +6650,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5805,20 +6754,20 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>207</v>
@@ -5845,7 +6794,7 @@
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>207</v>
@@ -5872,7 +6821,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>207</v>
@@ -5926,20 +6875,20 @@
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>200</v>
@@ -5966,7 +6915,7 @@
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>200</v>
@@ -5993,7 +6942,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>200</v>
@@ -6047,20 +6996,20 @@
         <v>9</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>200</v>
@@ -6087,7 +7036,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>200</v>
@@ -6114,7 +7063,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>200</v>
@@ -6168,20 +7117,20 @@
         <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24" s="9" t="n">
         <f aca="false">AVERAGE(B9,B14,B19)</f>
@@ -6213,7 +7162,7 @@
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -6245,7 +7194,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -6301,12 +7250,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -6355,7 +7304,7 @@
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -6410,20 +7359,20 @@
         <v>9</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B37" s="9" t="n">
         <v>199</v>
@@ -6450,7 +7399,7 @@
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>199</v>
@@ -6477,7 +7426,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>199</v>
@@ -6531,20 +7480,20 @@
         <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -6565,7 +7514,7 @@
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -6586,7 +7535,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -6623,20 +7572,20 @@
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -6657,7 +7606,7 @@
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -6678,7 +7627,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -6726,20 +7675,20 @@
         <v>9</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B52" s="9" t="n">
         <f aca="false">AVERAGE(B32,B37,B47)</f>
@@ -6771,7 +7720,7 @@
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
@@ -6803,7 +7752,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="37">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">PRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDR (conf. Interval)</t>
   </si>
   <si>
     <t xml:space="preserve">RSSI (mean)</t>
@@ -394,10 +397,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W182"/>
+  <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J120" activeCellId="0" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -410,9 +413,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.28"/>
@@ -433,8 +436,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
@@ -443,10 +446,10 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -457,10 +460,10 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -471,10 +474,10 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -485,10 +488,10 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
@@ -497,10 +500,10 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
@@ -530,15 +533,18 @@
       <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>100</v>
@@ -565,15 +571,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="9" t="n">
+        <f aca="false">1-(C8+E8)/B8</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>-92.84</v>
       </c>
-      <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>100</v>
@@ -600,15 +610,19 @@
         <v>0</v>
       </c>
       <c r="I9" s="9" t="n">
+        <f aca="false">1-(C9+E9)/B9</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>-93.41</v>
       </c>
-      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>100</v>
@@ -635,11 +649,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="9" t="n">
+        <f aca="false">1-(C10+E10)/B10</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>-92.94</v>
       </c>
-      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4"/>
@@ -648,10 +666,10 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
@@ -670,7 +688,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
@@ -681,15 +699,18 @@
       <c r="I12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7"/>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="9" t="n">
         <v>100</v>
@@ -716,15 +737,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="9" t="n">
+        <f aca="false">1-(C13+E13)/B13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="n">
         <v>-92.86</v>
       </c>
-      <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>100</v>
@@ -751,15 +776,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="9" t="n">
+        <f aca="false">1-(C14+E14)/B14</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="9" t="n">
         <v>-93.64</v>
       </c>
-      <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>100</v>
@@ -786,11 +815,15 @@
         <v>0</v>
       </c>
       <c r="I15" s="9" t="n">
+        <f aca="false">1-(C15+E15)/B15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="9" t="n">
         <v>-94.18</v>
       </c>
-      <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
@@ -799,10 +832,10 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
@@ -821,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>11</v>
@@ -832,15 +865,18 @@
       <c r="I17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="7"/>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="n">
         <v>100</v>
@@ -867,15 +903,19 @@
         <v>0</v>
       </c>
       <c r="I18" s="9" t="n">
+        <f aca="false">1-(C18+E18)/B18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="n">
         <v>-93.59</v>
       </c>
-      <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>100</v>
@@ -902,15 +942,19 @@
         <v>0</v>
       </c>
       <c r="I19" s="9" t="n">
+        <f aca="false">1-(C19+E19)/B19</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="n">
         <v>-93.87</v>
       </c>
-      <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>100</v>
@@ -937,11 +981,15 @@
         <v>0</v>
       </c>
       <c r="I20" s="9" t="n">
+        <f aca="false">1-(C20+E20)/B20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="9" t="n">
         <v>-93.78</v>
       </c>
-      <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
@@ -950,10 +998,10 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
@@ -972,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>11</v>
@@ -983,15 +1031,18 @@
       <c r="I22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="11"/>
+      <c r="J22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9" t="n">
         <f aca="false">AVERAGE(B8,B13,B18)</f>
@@ -1021,17 +1072,21 @@
         <f aca="false">G23/B23</f>
         <v>0</v>
       </c>
-      <c r="I23" s="9" t="n">
-        <f aca="false">AVERAGE(I8,I13,I18)</f>
+      <c r="I23" s="12" t="n">
+        <f aca="false">1-(C23+E23)/B23</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <f aca="false">AVERAGE(J8,J13,J18)</f>
         <v>-93.0966666666667</v>
       </c>
-      <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="9" t="n">
         <f aca="false">AVERAGE(B9,B14,B19)</f>
@@ -1061,17 +1116,21 @@
         <f aca="false">G24/B24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="9" t="n">
-        <f aca="false">AVERAGE(I9,I14,I19)</f>
+      <c r="I24" s="12" t="n">
+        <f aca="false">1-(C24+E24)/B24</f>
+        <v>1</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <f aca="false">AVERAGE(J9,J14,J19)</f>
         <v>-93.64</v>
       </c>
-      <c r="J24" s="11"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -1101,18 +1160,22 @@
         <f aca="false">G25/B25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="9" t="n">
-        <f aca="false">AVERAGE(I10,I15,I20)</f>
+      <c r="I25" s="12" t="n">
+        <f aca="false">1-(C25+E25)/B25</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <f aca="false">AVERAGE(J10,J15,J20)</f>
         <v>-93.6333333333333</v>
       </c>
-      <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -1122,24 +1185,24 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
-      <c r="N27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="O27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="4"/>
+      <c r="U27" s="3"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
@@ -1148,11 +1211,10 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="M28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -1162,6 +1224,7 @@
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1172,48 +1235,48 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="N29" s="5" t="s">
+      <c r="M29" s="4"/>
+      <c r="O29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="4"/>
+      <c r="Q29" s="5"/>
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-      <c r="N30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="5"/>
+      <c r="M30" s="4"/>
+      <c r="O30" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="P30" s="5"/>
-      <c r="Q30" s="4"/>
+      <c r="Q30" s="5"/>
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
@@ -1224,22 +1287,22 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
-      <c r="N31" s="5" t="s">
+      <c r="M31" s="4"/>
+      <c r="O31" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O31" s="5"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="4"/>
+      <c r="Q31" s="5"/>
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
@@ -1248,11 +1311,10 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -1262,6 +1324,7 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
@@ -1280,7 +1343,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>11</v>
@@ -1291,41 +1354,44 @@
       <c r="I33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L33" s="7"/>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="7"/>
+      <c r="O33" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="P33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="Q33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="6" t="s">
+      <c r="R33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S33" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="T33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V33" s="7"/>
+      <c r="V33" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>100</v>
@@ -1349,39 +1415,43 @@
         <f aca="false">G34/B34</f>
         <v>0</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="7"/>
+      <c r="I34" s="9" t="n">
+        <f aca="false">1-(C34+E34)/B34</f>
+        <v>1</v>
+      </c>
+      <c r="J34" s="9"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="N34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="9" t="n">
-        <v>100</v>
+      <c r="M34" s="7"/>
+      <c r="O34" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="P34" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q34" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="Q34" s="10" t="n">
-        <f aca="false">1-P34/O34</f>
+      <c r="R34" s="10" t="n">
+        <f aca="false">1-Q34/P34</f>
         <v>0.84</v>
       </c>
-      <c r="R34" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="9" t="n">
         <v>-98.51</v>
       </c>
-      <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="9" t="n">
         <v>100</v>
@@ -1405,39 +1475,43 @@
         <f aca="false">G35/B35</f>
         <v>0</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="7"/>
+      <c r="I35" s="9" t="n">
+        <f aca="false">1-(C35+E35)/B35</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="9"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="N35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O35" s="9" t="n">
-        <v>100</v>
+      <c r="M35" s="7"/>
+      <c r="O35" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P35" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="Q35" s="10" t="n">
-        <f aca="false">1-P35/O35</f>
+      <c r="R35" s="10" t="n">
+        <f aca="false">1-Q35/P35</f>
         <v>0.82</v>
       </c>
-      <c r="R35" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="9" t="n">
         <v>-91.59</v>
       </c>
-      <c r="U35" s="7"/>
       <c r="V35" s="7"/>
       <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>100</v>
@@ -1461,35 +1535,39 @@
         <f aca="false">G36/B36</f>
         <v>0</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="9" t="n">
+        <f aca="false">1-(C36+E36)/B36</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="9"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="N36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="9" t="n">
-        <v>100</v>
+      <c r="M36" s="7"/>
+      <c r="O36" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P36" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q36" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="Q36" s="10" t="n">
-        <f aca="false">1-P36/O36</f>
+      <c r="R36" s="10" t="n">
+        <f aca="false">1-Q36/P36</f>
         <v>0.91</v>
       </c>
-      <c r="R36" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S36" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="9" t="n">
         <v>-90.81</v>
       </c>
-      <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
@@ -1498,11 +1576,10 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="N37" s="4"/>
+      <c r="M37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -1512,6 +1589,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
@@ -1530,7 +1608,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>11</v>
@@ -1541,41 +1619,44 @@
       <c r="I38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="O38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="N38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="V38" s="7"/>
+      <c r="U38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>100</v>
@@ -1599,39 +1680,43 @@
         <f aca="false">G39/B39</f>
         <v>0</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="7"/>
+      <c r="I39" s="9" t="n">
+        <f aca="false">1-(C39+E39)/B39</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="N39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="9" t="n">
-        <v>100</v>
+      <c r="M39" s="7"/>
+      <c r="O39" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="P39" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q39" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="Q39" s="10" t="n">
-        <f aca="false">1-P39/O39</f>
+      <c r="R39" s="10" t="n">
+        <f aca="false">1-Q39/P39</f>
         <v>0.81</v>
       </c>
-      <c r="R39" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S39" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="9" t="n">
         <v>-91.81</v>
       </c>
-      <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>100</v>
@@ -1655,39 +1740,43 @@
         <f aca="false">G40/B40</f>
         <v>0</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="7"/>
+      <c r="I40" s="9" t="n">
+        <f aca="false">1-(C40+E40)/B40</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="9"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-      <c r="N40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O40" s="9" t="n">
-        <v>100</v>
+      <c r="M40" s="7"/>
+      <c r="O40" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q40" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="Q40" s="10" t="n">
-        <f aca="false">1-P40/O40</f>
+      <c r="R40" s="10" t="n">
+        <f aca="false">1-Q40/P40</f>
         <v>0.84</v>
       </c>
-      <c r="R40" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S40" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="9" t="n">
         <v>-91.88</v>
       </c>
-      <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" s="9" t="n">
         <v>100</v>
@@ -1711,40 +1800,44 @@
         <f aca="false">G41/B41</f>
         <v>0</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="7"/>
+      <c r="I41" s="9" t="n">
+        <f aca="false">1-(C41+E41)/B41</f>
+        <v>1</v>
+      </c>
+      <c r="J41" s="9"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-      <c r="N41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="9" t="n">
-        <v>100</v>
+      <c r="M41" s="7"/>
+      <c r="O41" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P41" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="Q41" s="10" t="n">
-        <f aca="false">1-P41/O41</f>
+      <c r="R41" s="10" t="n">
+        <f aca="false">1-Q41/P41</f>
         <v>0.91</v>
       </c>
-      <c r="R41" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S41" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="9" t="n">
         <v>-91.76</v>
       </c>
-      <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
@@ -1763,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>11</v>
@@ -1774,41 +1867,44 @@
       <c r="I43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K43" s="7"/>
+      <c r="J43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L43" s="7"/>
-      <c r="N43" s="6" t="s">
+      <c r="M43" s="7"/>
+      <c r="O43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="P43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="Q43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="R43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="S43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S43" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="T43" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="V43" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>100</v>
@@ -1832,39 +1928,43 @@
         <f aca="false">G44/B44</f>
         <v>0</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="9" t="n">
+        <f aca="false">1-(C44+E44)/B44</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-      <c r="N44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="9" t="n">
-        <v>100</v>
+      <c r="M44" s="7"/>
+      <c r="O44" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="P44" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="Q44" s="10" t="n">
-        <f aca="false">1-P44/O44</f>
+      <c r="R44" s="10" t="n">
+        <f aca="false">1-Q44/P44</f>
         <v>0.83</v>
       </c>
-      <c r="R44" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S44" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="9" t="n">
         <v>-92.59</v>
       </c>
-      <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>100</v>
@@ -1888,39 +1988,43 @@
         <f aca="false">G45/B45</f>
         <v>0</v>
       </c>
-      <c r="I45" s="9"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="9" t="n">
+        <f aca="false">1-(C45+E45)/B45</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="9"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="N45" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O45" s="9" t="n">
-        <v>100</v>
+      <c r="M45" s="7"/>
+      <c r="O45" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P45" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="Q45" s="10" t="n">
-        <f aca="false">1-P45/O45</f>
+      <c r="R45" s="10" t="n">
+        <f aca="false">1-Q45/P45</f>
         <v>0.8</v>
       </c>
-      <c r="R45" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="9" t="n">
         <v>-94.53</v>
       </c>
-      <c r="U45" s="7"/>
       <c r="V45" s="7"/>
       <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" s="9" t="n">
         <v>100</v>
@@ -1944,35 +2048,39 @@
         <f aca="false">G46/B46</f>
         <v>0</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="7"/>
+      <c r="I46" s="9" t="n">
+        <f aca="false">1-(C46+E46)/B46</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="9"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="N46" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="9" t="n">
-        <v>100</v>
+      <c r="M46" s="7"/>
+      <c r="O46" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P46" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="Q46" s="10" t="n">
-        <f aca="false">1-P46/O46</f>
+      <c r="R46" s="10" t="n">
+        <f aca="false">1-Q46/P46</f>
         <v>0.9</v>
       </c>
-      <c r="R46" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="S46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="T46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="9" t="n">
         <v>-89.75</v>
       </c>
-      <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
@@ -1981,11 +2089,10 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="N47" s="4"/>
+      <c r="M47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -1995,6 +2102,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
@@ -2013,7 +2121,7 @@
         <v>9</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>11</v>
@@ -2024,41 +2132,44 @@
       <c r="I48" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="11"/>
+      <c r="J48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L48" s="11"/>
-      <c r="N48" s="6" t="s">
+      <c r="M48" s="11"/>
+      <c r="O48" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="P48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="Q48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="R48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="S48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="S48" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="T48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="U48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V48" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="U48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V48" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="9" t="n">
         <f aca="false">AVERAGE(B29,B34,B44)</f>
@@ -2088,47 +2199,51 @@
         <f aca="false">G49/B49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="9" t="e">
-        <f aca="false">AVERAGE(I34,I39,I44)</f>
+      <c r="I49" s="12" t="e">
+        <f aca="false">1-(C49+E49)/B49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="11"/>
+      <c r="J49" s="9" t="e">
+        <f aca="false">AVERAGE(J34,J39,J44)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
-      <c r="N49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="9" t="n">
-        <f aca="false">AVERAGE(O29,O34,O44)</f>
-        <v>100</v>
+      <c r="M49" s="11"/>
+      <c r="O49" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="P49" s="9" t="n">
-        <f aca="false">AVERAGE(P34,P39,P44)</f>
+        <f aca="false">AVERAGE(P29,P34,P44)</f>
+        <v>100</v>
+      </c>
+      <c r="Q49" s="9" t="n">
+        <f aca="false">AVERAGE(Q34,Q39,Q44)</f>
         <v>17.3333333333333</v>
       </c>
-      <c r="Q49" s="12" t="n">
-        <f aca="false">1-P49/O49</f>
+      <c r="R49" s="12" t="n">
+        <f aca="false">1-Q49/P49</f>
         <v>0.826666666666667</v>
-      </c>
-      <c r="R49" s="12" t="n">
-        <f aca="false">AVERAGE(R29,R34,R44)</f>
-        <v>0</v>
       </c>
       <c r="S49" s="12" t="n">
         <f aca="false">AVERAGE(S29,S34,S44)</f>
         <v>0</v>
       </c>
-      <c r="T49" s="9" t="n">
-        <f aca="false">AVERAGE(T34,T39,T44)</f>
+      <c r="T49" s="12" t="n">
+        <f aca="false">AVERAGE(T29,T34,T44)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="9" t="n">
+        <f aca="false">AVERAGE(U34,U39,U44)</f>
         <v>-94.3033333333333</v>
       </c>
-      <c r="U49" s="11"/>
       <c r="V49" s="11"/>
       <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B50" s="9" t="n">
         <f aca="false">AVERAGE(B30,B35,B45)</f>
@@ -2158,47 +2273,51 @@
         <f aca="false">G50/B50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="9" t="e">
-        <f aca="false">AVERAGE(I35,I40,I45)</f>
+      <c r="I50" s="12" t="e">
+        <f aca="false">1-(C50+E50)/B50</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="11"/>
+      <c r="J50" s="9" t="e">
+        <f aca="false">AVERAGE(J35,J40,J45)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
-      <c r="N50" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O50" s="9" t="n">
-        <f aca="false">AVERAGE(O30,O35,O45)</f>
-        <v>100</v>
+      <c r="M50" s="11"/>
+      <c r="O50" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="P50" s="9" t="n">
-        <f aca="false">AVERAGE(P35,P40,P45)</f>
+        <f aca="false">AVERAGE(P30,P35,P45)</f>
+        <v>100</v>
+      </c>
+      <c r="Q50" s="9" t="n">
+        <f aca="false">AVERAGE(Q35,Q40,Q45)</f>
         <v>18</v>
       </c>
-      <c r="Q50" s="12" t="n">
-        <f aca="false">1-P50/O50</f>
+      <c r="R50" s="12" t="n">
+        <f aca="false">1-Q50/P50</f>
         <v>0.82</v>
-      </c>
-      <c r="R50" s="12" t="n">
-        <f aca="false">AVERAGE(R30,R35,R45)</f>
-        <v>0</v>
       </c>
       <c r="S50" s="12" t="n">
         <f aca="false">AVERAGE(S30,S35,S45)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="9" t="n">
-        <f aca="false">AVERAGE(T35,T40,T45)</f>
+      <c r="T50" s="12" t="n">
+        <f aca="false">AVERAGE(T30,T35,T45)</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="9" t="n">
+        <f aca="false">AVERAGE(U35,U40,U45)</f>
         <v>-92.6666666666667</v>
       </c>
-      <c r="U50" s="11"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" s="9" t="n">
         <f aca="false">AVERAGE(B31,B36,B46)</f>
@@ -2228,48 +2347,52 @@
         <f aca="false">G51/B51</f>
         <v>0</v>
       </c>
-      <c r="I51" s="9" t="e">
-        <f aca="false">AVERAGE(I36,I41,I46)</f>
+      <c r="I51" s="12" t="e">
+        <f aca="false">1-(C51+E51)/B51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="11"/>
+      <c r="J51" s="9" t="e">
+        <f aca="false">AVERAGE(J36,J41,J46)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="N51" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O51" s="9" t="n">
-        <f aca="false">AVERAGE(O31,O36,O46)</f>
-        <v>100</v>
+      <c r="M51" s="11"/>
+      <c r="O51" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="P51" s="9" t="n">
-        <f aca="false">AVERAGE(P36,P41,P46)</f>
+        <f aca="false">AVERAGE(P31,P36,P46)</f>
+        <v>100</v>
+      </c>
+      <c r="Q51" s="9" t="n">
+        <f aca="false">AVERAGE(Q36,Q41,Q46)</f>
         <v>9.33333333333333</v>
       </c>
-      <c r="Q51" s="12" t="n">
-        <f aca="false">1-P51/O51</f>
+      <c r="R51" s="12" t="n">
+        <f aca="false">1-Q51/P51</f>
         <v>0.906666666666667</v>
-      </c>
-      <c r="R51" s="12" t="n">
-        <f aca="false">AVERAGE(R31,R36,R46)</f>
-        <v>0</v>
       </c>
       <c r="S51" s="12" t="n">
         <f aca="false">AVERAGE(S31,S36,S46)</f>
         <v>0</v>
       </c>
-      <c r="T51" s="9" t="n">
-        <f aca="false">AVERAGE(T36,T41,T46)</f>
+      <c r="T51" s="12" t="n">
+        <f aca="false">AVERAGE(T31,T36,T46)</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="9" t="n">
+        <f aca="false">AVERAGE(U36,U41,U46)</f>
         <v>-90.7733333333333</v>
       </c>
-      <c r="U51" s="11"/>
       <c r="V51" s="11"/>
       <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
@@ -2279,10 +2402,10 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
@@ -2291,10 +2414,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
@@ -2305,38 +2428,38 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
-      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
@@ -2345,10 +2468,10 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
-      <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
@@ -2367,7 +2490,7 @@
         <v>9</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>11</v>
@@ -2378,15 +2501,18 @@
       <c r="I59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="9" t="n">
         <v>100</v>
@@ -2406,14 +2532,18 @@
         <f aca="false">G60/B60</f>
         <v>0</v>
       </c>
-      <c r="I60" s="9"/>
-      <c r="J60" s="7"/>
+      <c r="I60" s="9" t="n">
+        <f aca="false">1-(C60+E60)/B60</f>
+        <v>1</v>
+      </c>
+      <c r="J60" s="9"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" s="9" t="n">
         <v>100</v>
@@ -2433,14 +2563,18 @@
         <f aca="false">G61/B61</f>
         <v>0</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="7"/>
+      <c r="I61" s="9" t="n">
+        <f aca="false">1-(C61+E61)/B61</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="9"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" s="9" t="n">
         <v>100</v>
@@ -2460,10 +2594,14 @@
         <f aca="false">G62/B62</f>
         <v>0</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="7"/>
+      <c r="I62" s="9" t="n">
+        <f aca="false">1-(C62+E62)/B62</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="9"/>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
@@ -2472,10 +2610,10 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
@@ -2494,7 +2632,7 @@
         <v>9</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>11</v>
@@ -2505,15 +2643,18 @@
       <c r="I64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J64" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K64" s="7"/>
+      <c r="J64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="9" t="n">
         <v>100</v>
@@ -2533,14 +2674,18 @@
         <f aca="false">G65/B65</f>
         <v>0</v>
       </c>
-      <c r="I65" s="9"/>
-      <c r="J65" s="7"/>
+      <c r="I65" s="9" t="n">
+        <f aca="false">1-(C65+E65)/B65</f>
+        <v>1</v>
+      </c>
+      <c r="J65" s="9"/>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" s="9" t="n">
         <v>100</v>
@@ -2560,14 +2705,18 @@
         <f aca="false">G66/B66</f>
         <v>0</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="7"/>
+      <c r="I66" s="9" t="n">
+        <f aca="false">1-(C66+E66)/B66</f>
+        <v>1</v>
+      </c>
+      <c r="J66" s="9"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" s="9" t="n">
         <v>100</v>
@@ -2587,10 +2736,14 @@
         <f aca="false">G67/B67</f>
         <v>0</v>
       </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="7"/>
+      <c r="I67" s="9" t="n">
+        <f aca="false">1-(C67+E67)/B67</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
@@ -2613,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>11</v>
@@ -2624,15 +2777,18 @@
       <c r="I69" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K69" s="7"/>
+      <c r="J69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>100</v>
@@ -2652,14 +2808,18 @@
         <f aca="false">G70/B70</f>
         <v>0</v>
       </c>
-      <c r="I70" s="9"/>
-      <c r="J70" s="7"/>
+      <c r="I70" s="9" t="n">
+        <f aca="false">1-(C70+E70)/B70</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="9"/>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B71" s="9" t="n">
         <v>100</v>
@@ -2679,14 +2839,18 @@
         <f aca="false">G71/B71</f>
         <v>0</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="7"/>
+      <c r="I71" s="9" t="n">
+        <f aca="false">1-(C71+E71)/B71</f>
+        <v>1</v>
+      </c>
+      <c r="J71" s="9"/>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" s="9" t="n">
         <v>100</v>
@@ -2706,10 +2870,14 @@
         <f aca="false">G72/B72</f>
         <v>0</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="7"/>
+      <c r="I72" s="9" t="n">
+        <f aca="false">1-(C72+E72)/B72</f>
+        <v>1</v>
+      </c>
+      <c r="J72" s="9"/>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
@@ -2718,10 +2886,10 @@
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
@@ -2740,7 +2908,7 @@
         <v>9</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>11</v>
@@ -2751,15 +2919,18 @@
       <c r="I74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="11"/>
+      <c r="J74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" s="9" t="n">
         <f aca="false">AVERAGE(B55,B60,B70)</f>
@@ -2789,17 +2960,21 @@
         <f aca="false">G75/B75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I75" s="9" t="e">
-        <f aca="false">AVERAGE(I60,I65,I70)</f>
+      <c r="I75" s="12" t="e">
+        <f aca="false">1-(C75+E75)/B75</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J75" s="11"/>
+      <c r="J75" s="9" t="e">
+        <f aca="false">AVERAGE(J60,J65,J70)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B76" s="9" t="n">
         <f aca="false">AVERAGE(B56,B61,B71)</f>
@@ -2829,17 +3004,21 @@
         <f aca="false">G76/B76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I76" s="9" t="e">
-        <f aca="false">AVERAGE(I61,I66,I71)</f>
+      <c r="I76" s="12" t="e">
+        <f aca="false">1-(C76+E76)/B76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J76" s="11"/>
+      <c r="J76" s="9" t="e">
+        <f aca="false">AVERAGE(J61,J66,J71)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77" s="9" t="n">
         <f aca="false">AVERAGE(B57,B62,B72)</f>
@@ -2869,18 +3048,22 @@
         <f aca="false">G77/B77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I77" s="9" t="e">
-        <f aca="false">AVERAGE(I62,I67,I72)</f>
+      <c r="I77" s="12" t="e">
+        <f aca="false">1-(C77+E77)/B77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J77" s="11"/>
+      <c r="J77" s="9" t="e">
+        <f aca="false">AVERAGE(J62,J67,J72)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="2"/>
@@ -2890,10 +3073,10 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="4"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
@@ -2902,38 +3085,38 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
-      <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
     </row>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
     </row>
     <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
     </row>
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
@@ -2944,10 +3127,10 @@
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
-      <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
@@ -2956,10 +3139,10 @@
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
-      <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
@@ -2978,7 +3161,7 @@
         <v>9</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>11</v>
@@ -2989,15 +3172,18 @@
       <c r="I85" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K85" s="7"/>
+      <c r="K85" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B86" s="9" t="n">
         <v>100</v>
@@ -3024,15 +3210,19 @@
         <v>0</v>
       </c>
       <c r="I86" s="9" t="n">
+        <f aca="false">1-(C86+E86)/B86</f>
+        <v>0.85</v>
+      </c>
+      <c r="J86" s="9" t="n">
         <v>-98.64</v>
       </c>
-      <c r="J86" s="7"/>
       <c r="K86" s="7"/>
       <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" s="9" t="n">
         <v>100</v>
@@ -3059,15 +3249,19 @@
         <v>0</v>
       </c>
       <c r="I87" s="9" t="n">
+        <f aca="false">1-(C87+E87)/B87</f>
+        <v>0.59</v>
+      </c>
+      <c r="J87" s="9" t="n">
         <v>-105.5</v>
       </c>
-      <c r="J87" s="7"/>
       <c r="K87" s="7"/>
       <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" s="9" t="n">
         <v>100</v>
@@ -3094,11 +3288,15 @@
         <v>0</v>
       </c>
       <c r="I88" s="9" t="n">
+        <f aca="false">1-(C88+E88)/B88</f>
+        <v>0.7</v>
+      </c>
+      <c r="J88" s="9" t="n">
         <v>-104.93</v>
       </c>
-      <c r="J88" s="7"/>
       <c r="K88" s="7"/>
       <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
@@ -3107,10 +3305,10 @@
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
-      <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
@@ -3129,7 +3327,7 @@
         <v>9</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>11</v>
@@ -3140,15 +3338,18 @@
       <c r="I90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J90" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K90" s="7"/>
+      <c r="J90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" s="9" t="n">
         <v>100</v>
@@ -3175,15 +3376,19 @@
         <v>0</v>
       </c>
       <c r="I91" s="9" t="n">
+        <f aca="false">1-(C91+E91)/B91</f>
+        <v>0.88</v>
+      </c>
+      <c r="J91" s="9" t="n">
         <v>-94.22</v>
       </c>
-      <c r="J91" s="7"/>
       <c r="K91" s="7"/>
       <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" s="9" t="n">
         <v>100</v>
@@ -3210,15 +3415,19 @@
         <v>0</v>
       </c>
       <c r="I92" s="9" t="n">
+        <f aca="false">1-(C92+E92)/B92</f>
+        <v>0.47</v>
+      </c>
+      <c r="J92" s="9" t="n">
         <v>-97.59</v>
       </c>
-      <c r="J92" s="7"/>
       <c r="K92" s="7"/>
       <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>100</v>
@@ -3245,11 +3454,15 @@
         <v>0</v>
       </c>
       <c r="I93" s="9" t="n">
+        <f aca="false">1-(C93+E93)/B93</f>
+        <v>0.64</v>
+      </c>
+      <c r="J93" s="9" t="n">
         <v>-100.26</v>
       </c>
-      <c r="J93" s="7"/>
       <c r="K93" s="7"/>
       <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
@@ -3272,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>11</v>
@@ -3283,15 +3496,18 @@
       <c r="I95" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K95" s="7"/>
+      <c r="J95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" s="9" t="n">
         <v>100</v>
@@ -3318,15 +3534,19 @@
         <v>0</v>
       </c>
       <c r="I96" s="9" t="n">
+        <f aca="false">1-(C96+E96)/B96</f>
+        <v>0.74</v>
+      </c>
+      <c r="J96" s="9" t="n">
         <v>-95.77</v>
       </c>
-      <c r="J96" s="7"/>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" s="9" t="n">
         <v>100</v>
@@ -3353,15 +3573,19 @@
         <v>0</v>
       </c>
       <c r="I97" s="9" t="n">
+        <f aca="false">1-(C97+E97)/B97</f>
+        <v>0.66</v>
+      </c>
+      <c r="J97" s="9" t="n">
         <v>-99.02</v>
       </c>
-      <c r="J97" s="7"/>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B98" s="9" t="n">
         <v>100</v>
@@ -3388,11 +3612,15 @@
         <v>0</v>
       </c>
       <c r="I98" s="9" t="n">
+        <f aca="false">1-(C98+E98)/B98</f>
+        <v>0.82</v>
+      </c>
+      <c r="J98" s="9" t="n">
         <v>-90.81</v>
       </c>
-      <c r="J98" s="7"/>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
@@ -3401,10 +3629,10 @@
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
@@ -3423,7 +3651,7 @@
         <v>9</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>11</v>
@@ -3434,15 +3662,18 @@
       <c r="I100" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="11"/>
+      <c r="J100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" s="9" t="n">
         <f aca="false">AVERAGE(B81,B86,B96)</f>
@@ -3472,17 +3703,21 @@
         <f aca="false">G101/B101</f>
         <v>0</v>
       </c>
-      <c r="I101" s="9" t="n">
-        <f aca="false">AVERAGE(I86,I91,I96)</f>
+      <c r="I101" s="12" t="n">
+        <f aca="false">1-(C101+E101)/B101</f>
+        <v>0.823333333333333</v>
+      </c>
+      <c r="J101" s="9" t="n">
+        <f aca="false">AVERAGE(J86,J91,J96)</f>
         <v>-96.21</v>
       </c>
-      <c r="J101" s="11"/>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
     </row>
     <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B102" s="9" t="n">
         <f aca="false">AVERAGE(B82,B87,B97)</f>
@@ -3512,17 +3747,21 @@
         <f aca="false">G102/B102</f>
         <v>0</v>
       </c>
-      <c r="I102" s="9" t="n">
-        <f aca="false">AVERAGE(I87,I92,I97)</f>
+      <c r="I102" s="12" t="n">
+        <f aca="false">1-(C102+E102)/B102</f>
+        <v>0.573333333333333</v>
+      </c>
+      <c r="J102" s="9" t="n">
+        <f aca="false">AVERAGE(J87,J92,J97)</f>
         <v>-100.703333333333</v>
       </c>
-      <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B103" s="9" t="n">
         <f aca="false">AVERAGE(B83,B88,B98)</f>
@@ -3552,18 +3791,22 @@
         <f aca="false">G103/B103</f>
         <v>0</v>
       </c>
-      <c r="I103" s="9" t="n">
-        <f aca="false">AVERAGE(I88,I93,I98)</f>
+      <c r="I103" s="12" t="n">
+        <f aca="false">1-(C103+E103)/B103</f>
+        <v>0.72</v>
+      </c>
+      <c r="J103" s="9" t="n">
+        <f aca="false">AVERAGE(J88,J93,J98)</f>
         <v>-98.6666666666667</v>
       </c>
-      <c r="J103" s="11"/>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="105" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
@@ -3573,10 +3816,10 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="4"/>
+      <c r="J105" s="3"/>
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
@@ -3585,52 +3828,52 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
     </row>
     <row r="108" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
     </row>
     <row r="109" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
@@ -3639,10 +3882,10 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
     </row>
     <row r="111" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="s">
@@ -3661,7 +3904,7 @@
         <v>9</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G111" s="6" t="s">
         <v>11</v>
@@ -3672,92 +3915,131 @@
       <c r="I111" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K111" s="7"/>
+      <c r="K111" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D112" s="10" t="n">
         <f aca="false">1-C112/B112</f>
         <v>1</v>
       </c>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
+      <c r="E112" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F112" s="9" t="n">
+        <v>104</v>
+      </c>
       <c r="G112" s="9" t="n">
         <f aca="false">F112+E112</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H112" s="9" t="n">
         <f aca="false">G112/B112</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="9"/>
-      <c r="J112" s="7"/>
+        <v>1.14</v>
+      </c>
+      <c r="I112" s="9" t="n">
+        <f aca="false">1-(C112+E112)/B112</f>
+        <v>0.9</v>
+      </c>
+      <c r="J112" s="9" t="n">
+        <v>-104.7</v>
+      </c>
       <c r="K112" s="7"/>
       <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B113" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D113" s="10" t="n">
         <f aca="false">1-C113/B113</f>
         <v>1</v>
       </c>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="E113" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F113" s="9" t="n">
+        <v>110</v>
+      </c>
       <c r="G113" s="9" t="n">
         <f aca="false">F113+E113</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H113" s="9" t="n">
         <f aca="false">G113/B113</f>
-        <v>0</v>
-      </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="7"/>
+        <v>1.16</v>
+      </c>
+      <c r="I113" s="9" t="n">
+        <f aca="false">1-(C113+E113)/B113</f>
+        <v>0.94</v>
+      </c>
+      <c r="J113" s="9" t="n">
+        <v>-104.45</v>
+      </c>
       <c r="K113" s="7"/>
       <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B114" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D114" s="10" t="n">
         <f aca="false">1-C114/B114</f>
         <v>1</v>
       </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="E114" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F114" s="9" t="n">
+        <v>122</v>
+      </c>
       <c r="G114" s="9" t="n">
         <f aca="false">F114+E114</f>
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="H114" s="9" t="n">
         <f aca="false">G114/B114</f>
-        <v>0</v>
-      </c>
-      <c r="I114" s="9"/>
-      <c r="J114" s="7"/>
+        <v>1.27</v>
+      </c>
+      <c r="I114" s="9" t="n">
+        <f aca="false">1-(C114+E114)/B114</f>
+        <v>0.95</v>
+      </c>
+      <c r="J114" s="9" t="n">
+        <v>-101.35</v>
+      </c>
       <c r="K114" s="7"/>
       <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
@@ -3766,10 +4048,10 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
     </row>
     <row r="116" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
@@ -3788,7 +4070,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G116" s="6" t="s">
         <v>11</v>
@@ -3799,92 +4081,131 @@
       <c r="I116" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J116" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K116" s="7"/>
+      <c r="J116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B117" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C117" s="9"/>
+      <c r="C117" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D117" s="10" t="n">
         <f aca="false">1-C117/B117</f>
         <v>1</v>
       </c>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="E117" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F117" s="9" t="n">
+        <v>107</v>
+      </c>
       <c r="G117" s="9" t="n">
         <f aca="false">F117+E117</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H117" s="9" t="n">
         <f aca="false">G117/B117</f>
-        <v>0</v>
-      </c>
-      <c r="I117" s="9"/>
-      <c r="J117" s="7"/>
+        <v>1.2</v>
+      </c>
+      <c r="I117" s="9" t="n">
+        <f aca="false">1-(C117+E117)/B117</f>
+        <v>0.87</v>
+      </c>
+      <c r="J117" s="9" t="n">
+        <v>-102.88</v>
+      </c>
       <c r="K117" s="7"/>
       <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B118" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C118" s="9"/>
+      <c r="C118" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D118" s="10" t="n">
         <f aca="false">1-C118/B118</f>
         <v>1</v>
       </c>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
+      <c r="E118" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F118" s="9" t="n">
+        <v>112</v>
+      </c>
       <c r="G118" s="9" t="n">
         <f aca="false">F118+E118</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="H118" s="9" t="n">
         <f aca="false">G118/B118</f>
-        <v>0</v>
-      </c>
-      <c r="I118" s="9"/>
-      <c r="J118" s="7"/>
+        <v>1.24</v>
+      </c>
+      <c r="I118" s="9" t="n">
+        <f aca="false">1-(C118+E118)/B118</f>
+        <v>0.88</v>
+      </c>
+      <c r="J118" s="9" t="n">
+        <v>-104.95</v>
+      </c>
       <c r="K118" s="7"/>
       <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B119" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D119" s="10" t="n">
         <f aca="false">1-C119/B119</f>
         <v>1</v>
       </c>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
+      <c r="E119" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" s="9" t="n">
+        <v>113</v>
+      </c>
       <c r="G119" s="9" t="n">
         <f aca="false">F119+E119</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="H119" s="9" t="n">
         <f aca="false">G119/B119</f>
-        <v>0</v>
-      </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="7"/>
+        <v>1.16</v>
+      </c>
+      <c r="I119" s="9" t="n">
+        <f aca="false">1-(C119+E119)/B119</f>
+        <v>0.97</v>
+      </c>
+      <c r="J119" s="9" t="n">
+        <v>-105.5</v>
+      </c>
       <c r="K119" s="7"/>
       <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
@@ -3907,7 +4228,7 @@
         <v>9</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G121" s="6" t="s">
         <v>11</v>
@@ -3918,15 +4239,18 @@
       <c r="I121" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J121" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K121" s="7"/>
+      <c r="J121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B122" s="9" t="n">
         <v>100</v>
@@ -3946,14 +4270,18 @@
         <f aca="false">G122/B122</f>
         <v>0</v>
       </c>
-      <c r="I122" s="9"/>
-      <c r="J122" s="7"/>
+      <c r="I122" s="9" t="n">
+        <f aca="false">1-(C122+E122)/B122</f>
+        <v>1</v>
+      </c>
+      <c r="J122" s="9"/>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B123" s="9" t="n">
         <v>100</v>
@@ -3973,14 +4301,18 @@
         <f aca="false">G123/B123</f>
         <v>0</v>
       </c>
-      <c r="I123" s="9"/>
-      <c r="J123" s="7"/>
+      <c r="I123" s="9" t="n">
+        <f aca="false">1-(C123+E123)/B123</f>
+        <v>1</v>
+      </c>
+      <c r="J123" s="9"/>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B124" s="9" t="n">
         <v>100</v>
@@ -4000,10 +4332,14 @@
         <f aca="false">G124/B124</f>
         <v>0</v>
       </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="7"/>
+      <c r="I124" s="9" t="n">
+        <f aca="false">1-(C124+E124)/B124</f>
+        <v>1</v>
+      </c>
+      <c r="J124" s="9"/>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
@@ -4012,10 +4348,10 @@
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
-      <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
     </row>
     <row r="126" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="s">
@@ -4034,7 +4370,7 @@
         <v>9</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G126" s="6" t="s">
         <v>11</v>
@@ -4045,136 +4381,151 @@
       <c r="I126" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J126" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K126" s="11"/>
+      <c r="J126" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B127" s="9" t="n">
         <f aca="false">AVERAGE(B107,B112,B122)</f>
         <v>100</v>
       </c>
-      <c r="C127" s="9" t="e">
+      <c r="C127" s="9" t="n">
         <f aca="false">AVERAGE(C112,C117,C122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D127" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D127" s="12" t="n">
         <f aca="false">1-C127/B127</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E127" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E127" s="12" t="n">
         <f aca="false">AVERAGE(E112,E117,E122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F127" s="12" t="e">
+        <v>11.5</v>
+      </c>
+      <c r="F127" s="12" t="n">
         <f aca="false">AVERAGE(F112,F117,F122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G127" s="12" t="e">
+        <v>105.5</v>
+      </c>
+      <c r="G127" s="12" t="n">
         <f aca="false">F127+E127</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" s="12" t="e">
+        <v>117</v>
+      </c>
+      <c r="H127" s="12" t="n">
         <f aca="false">G127/B127</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127" s="9" t="e">
-        <f aca="false">AVERAGE(I112,I117,I122)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J127" s="11"/>
+        <v>1.17</v>
+      </c>
+      <c r="I127" s="12" t="n">
+        <f aca="false">1-(C127+E127)/B127</f>
+        <v>0.885</v>
+      </c>
+      <c r="J127" s="9" t="n">
+        <f aca="false">AVERAGE(J112,J117,J122)</f>
+        <v>-103.79</v>
+      </c>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
     </row>
     <row r="128" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B128" s="9" t="n">
         <f aca="false">AVERAGE(B108,B113,B123)</f>
         <v>100</v>
       </c>
-      <c r="C128" s="9" t="e">
+      <c r="C128" s="9" t="n">
         <f aca="false">AVERAGE(C113,C118,C123)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D128" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D128" s="12" t="n">
         <f aca="false">1-C128/B128</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E128" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E128" s="12" t="n">
         <f aca="false">AVERAGE(E113,E118,E123)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F128" s="12" t="e">
+        <v>9</v>
+      </c>
+      <c r="F128" s="12" t="n">
         <f aca="false">AVERAGE(F113,F118,F123)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G128" s="12" t="e">
+        <v>111</v>
+      </c>
+      <c r="G128" s="12" t="n">
         <f aca="false">F128+E128</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H128" s="12" t="e">
+        <v>120</v>
+      </c>
+      <c r="H128" s="12" t="n">
         <f aca="false">G128/B128</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I128" s="9" t="e">
-        <f aca="false">AVERAGE(I113,I118,I123)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J128" s="11"/>
+        <v>1.2</v>
+      </c>
+      <c r="I128" s="12" t="n">
+        <f aca="false">1-(C128+E128)/B128</f>
+        <v>0.91</v>
+      </c>
+      <c r="J128" s="9" t="n">
+        <f aca="false">AVERAGE(J113,J118,J123)</f>
+        <v>-104.7</v>
+      </c>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B129" s="9" t="n">
         <f aca="false">AVERAGE(B109,B114,B124)</f>
         <v>100</v>
       </c>
-      <c r="C129" s="9" t="e">
+      <c r="C129" s="9" t="n">
         <f aca="false">AVERAGE(C114,C119,C124)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D129" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D129" s="12" t="n">
         <f aca="false">1-C129/B129</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E129" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E129" s="12" t="n">
         <f aca="false">AVERAGE(E114,E119,E124)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F129" s="12" t="e">
+        <v>4</v>
+      </c>
+      <c r="F129" s="12" t="n">
         <f aca="false">AVERAGE(F114,F119,F124)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G129" s="12" t="e">
+        <v>117.5</v>
+      </c>
+      <c r="G129" s="12" t="n">
         <f aca="false">F129+E129</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H129" s="12" t="e">
+        <v>121.5</v>
+      </c>
+      <c r="H129" s="12" t="n">
         <f aca="false">G129/B129</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I129" s="9" t="e">
-        <f aca="false">AVERAGE(I114,I119,I124)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J129" s="11"/>
+        <v>1.215</v>
+      </c>
+      <c r="I129" s="12" t="n">
+        <f aca="false">1-(C129+E129)/B129</f>
+        <v>0.96</v>
+      </c>
+      <c r="J129" s="9" t="n">
+        <f aca="false">AVERAGE(J114,J119,J124)</f>
+        <v>-103.425</v>
+      </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="131" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="2"/>
@@ -4184,10 +4535,10 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="4"/>
+      <c r="J131" s="3"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="4"/>
@@ -4196,38 +4547,38 @@
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
     </row>
     <row r="133" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
-      <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
     </row>
     <row r="134" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
-      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
     </row>
     <row r="135" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
@@ -4238,10 +4589,10 @@
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
-      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="4"/>
@@ -4250,10 +4601,10 @@
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
-      <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
     </row>
     <row r="137" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
@@ -4272,7 +4623,7 @@
         <v>9</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G137" s="6" t="s">
         <v>11</v>
@@ -4283,15 +4634,18 @@
       <c r="I137" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J137" s="7" t="s">
+      <c r="J137" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K137" s="7"/>
+      <c r="K137" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
     </row>
     <row r="138" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" s="9" t="n">
         <v>100</v>
@@ -4318,15 +4672,19 @@
         <v>0</v>
       </c>
       <c r="I138" s="9" t="n">
+        <f aca="false">1-(C138+E138)/B138</f>
+        <v>0.77</v>
+      </c>
+      <c r="J138" s="9" t="n">
         <v>-104.3</v>
       </c>
-      <c r="J138" s="7"/>
       <c r="K138" s="7"/>
       <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
     </row>
     <row r="139" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B139" s="9" t="n">
         <v>100</v>
@@ -4353,15 +4711,19 @@
         <v>0</v>
       </c>
       <c r="I139" s="9" t="n">
+        <f aca="false">1-(C139+E139)/B139</f>
+        <v>0.66</v>
+      </c>
+      <c r="J139" s="9" t="n">
         <v>-106.21</v>
       </c>
-      <c r="J139" s="7"/>
       <c r="K139" s="7"/>
       <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
     </row>
     <row r="140" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B140" s="9" t="n">
         <v>100</v>
@@ -4388,11 +4750,15 @@
         <v>0</v>
       </c>
       <c r="I140" s="9" t="n">
+        <f aca="false">1-(C140+E140)/B140</f>
+        <v>0.6</v>
+      </c>
+      <c r="J140" s="9" t="n">
         <v>-105.5</v>
       </c>
-      <c r="J140" s="7"/>
       <c r="K140" s="7"/>
       <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="4"/>
@@ -4401,10 +4767,10 @@
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
-      <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
     </row>
     <row r="142" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="s">
@@ -4423,7 +4789,7 @@
         <v>9</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>11</v>
@@ -4434,15 +4800,18 @@
       <c r="I142" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J142" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K142" s="7"/>
+      <c r="J142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
     </row>
     <row r="143" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" s="9" t="n">
         <v>100</v>
@@ -4469,15 +4838,19 @@
         <v>0</v>
       </c>
       <c r="I143" s="9" t="n">
+        <f aca="false">1-(C143+E143)/B143</f>
+        <v>0.46</v>
+      </c>
+      <c r="J143" s="9" t="n">
         <v>-86.82</v>
       </c>
-      <c r="J143" s="7"/>
       <c r="K143" s="7"/>
       <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
     </row>
     <row r="144" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B144" s="9" t="n">
         <v>100</v>
@@ -4504,15 +4877,19 @@
         <v>0</v>
       </c>
       <c r="I144" s="9" t="n">
+        <f aca="false">1-(C144+E144)/B144</f>
+        <v>0.21</v>
+      </c>
+      <c r="J144" s="9" t="n">
         <v>-105</v>
       </c>
-      <c r="J144" s="7"/>
       <c r="K144" s="7"/>
       <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
     </row>
     <row r="145" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>100</v>
@@ -4539,11 +4916,15 @@
         <v>0</v>
       </c>
       <c r="I145" s="9" t="n">
+        <f aca="false">1-(C145+E145)/B145</f>
+        <v>0.49</v>
+      </c>
+      <c r="J145" s="9" t="n">
         <v>-105.33</v>
       </c>
-      <c r="J145" s="7"/>
       <c r="K145" s="7"/>
       <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="4"/>
@@ -4566,7 +4947,7 @@
         <v>9</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>11</v>
@@ -4577,15 +4958,18 @@
       <c r="I147" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J147" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K147" s="7"/>
+      <c r="J147" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
     </row>
     <row r="148" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" s="9" t="n">
         <v>100</v>
@@ -4612,15 +4996,19 @@
         <v>0</v>
       </c>
       <c r="I148" s="9" t="n">
+        <f aca="false">1-(C148+E148)/B148</f>
+        <v>0.64</v>
+      </c>
+      <c r="J148" s="9" t="n">
         <v>-102.15</v>
       </c>
-      <c r="J148" s="7"/>
       <c r="K148" s="7"/>
       <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
     </row>
     <row r="149" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>100</v>
@@ -4647,15 +5035,19 @@
         <v>0</v>
       </c>
       <c r="I149" s="9" t="n">
+        <f aca="false">1-(C149+E149)/B149</f>
+        <v>0.44</v>
+      </c>
+      <c r="J149" s="9" t="n">
         <v>-107.04</v>
       </c>
-      <c r="J149" s="7"/>
       <c r="K149" s="7"/>
       <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
     </row>
     <row r="150" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B150" s="9" t="n">
         <v>100</v>
@@ -4682,11 +5074,15 @@
         <v>0</v>
       </c>
       <c r="I150" s="9" t="n">
+        <f aca="false">1-(C150+E150)/B150</f>
+        <v>0.58</v>
+      </c>
+      <c r="J150" s="9" t="n">
         <v>-106.73</v>
       </c>
-      <c r="J150" s="7"/>
       <c r="K150" s="7"/>
       <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="4"/>
@@ -4695,10 +5091,10 @@
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
-      <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="s">
@@ -4717,7 +5113,7 @@
         <v>9</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>11</v>
@@ -4728,15 +5124,18 @@
       <c r="I152" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J152" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K152" s="11"/>
+      <c r="J152" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B153" s="9" t="n">
         <f aca="false">AVERAGE(B133,B138,B148)</f>
@@ -4766,17 +5165,21 @@
         <f aca="false">G153/B153</f>
         <v>0</v>
       </c>
-      <c r="I153" s="9" t="n">
-        <f aca="false">AVERAGE(I138,I143,I148)</f>
+      <c r="I153" s="12" t="n">
+        <f aca="false">1-(C153+E153)/B153</f>
+        <v>0.623333333333333</v>
+      </c>
+      <c r="J153" s="9" t="n">
+        <f aca="false">AVERAGE(J138,J143,J148)</f>
         <v>-97.7566666666667</v>
       </c>
-      <c r="J153" s="11"/>
       <c r="K153" s="11"/>
       <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
     </row>
     <row r="154" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B154" s="9" t="n">
         <f aca="false">AVERAGE(B134,B139,B149)</f>
@@ -4806,17 +5209,21 @@
         <f aca="false">G154/B154</f>
         <v>0</v>
       </c>
-      <c r="I154" s="9" t="n">
-        <f aca="false">AVERAGE(I139,I144,I149)</f>
+      <c r="I154" s="12" t="n">
+        <f aca="false">1-(C154+E154)/B154</f>
+        <v>0.436666666666667</v>
+      </c>
+      <c r="J154" s="9" t="n">
+        <f aca="false">AVERAGE(J139,J144,J149)</f>
         <v>-106.083333333333</v>
       </c>
-      <c r="J154" s="11"/>
       <c r="K154" s="11"/>
       <c r="L154" s="11"/>
+      <c r="M154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B155" s="9" t="n">
         <f aca="false">AVERAGE(B135,B140,B150)</f>
@@ -4846,18 +5253,22 @@
         <f aca="false">G155/B155</f>
         <v>0</v>
       </c>
-      <c r="I155" s="9" t="n">
-        <f aca="false">AVERAGE(I140,I145,I150)</f>
+      <c r="I155" s="12" t="n">
+        <f aca="false">1-(C155+E155)/B155</f>
+        <v>0.556666666666667</v>
+      </c>
+      <c r="J155" s="9" t="n">
+        <f aca="false">AVERAGE(J140,J145,J150)</f>
         <v>-105.853333333333</v>
       </c>
-      <c r="J155" s="11"/>
       <c r="K155" s="11"/>
       <c r="L155" s="11"/>
+      <c r="M155" s="11"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="2"/>
@@ -4867,10 +5278,10 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="I157" s="3"/>
-      <c r="J157" s="4"/>
+      <c r="J157" s="3"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
+      <c r="M157" s="4"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="4"/>
@@ -4879,52 +5290,52 @@
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
+      <c r="M158" s="4"/>
     </row>
     <row r="159" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
-      <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
     </row>
     <row r="160" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
+      <c r="M160" s="4"/>
     </row>
     <row r="161" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
-      <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
+      <c r="M161" s="4"/>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="4"/>
@@ -4933,10 +5344,10 @@
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
-      <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
+      <c r="M162" s="4"/>
     </row>
     <row r="163" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="s">
@@ -4955,7 +5366,7 @@
         <v>9</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G163" s="6" t="s">
         <v>11</v>
@@ -4966,15 +5377,18 @@
       <c r="I163" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J163" s="7" t="s">
+      <c r="J163" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K163" s="7"/>
+      <c r="K163" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
     </row>
     <row r="164" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B164" s="9" t="n">
         <v>100</v>
@@ -5001,15 +5415,19 @@
         <v>1.36</v>
       </c>
       <c r="I164" s="9" t="n">
+        <f aca="false">1-(C164+E164)/B164</f>
+        <v>0.77</v>
+      </c>
+      <c r="J164" s="9" t="n">
         <v>-97.97</v>
       </c>
-      <c r="J164" s="7"/>
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
     </row>
     <row r="165" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B165" s="9" t="n">
         <v>100</v>
@@ -5036,15 +5454,19 @@
         <v>0.33</v>
       </c>
       <c r="I165" s="9" t="n">
+        <f aca="false">1-(C165+E165)/B165</f>
+        <v>0.27</v>
+      </c>
+      <c r="J165" s="9" t="n">
         <v>-86.15</v>
       </c>
-      <c r="J165" s="7"/>
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
     </row>
     <row r="166" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B166" s="9" t="n">
         <v>100</v>
@@ -5071,11 +5493,15 @@
         <v>0.9</v>
       </c>
       <c r="I166" s="9" t="n">
+        <f aca="false">1-(C166+E166)/B166</f>
+        <v>0.67</v>
+      </c>
+      <c r="J166" s="9" t="n">
         <v>-78.73</v>
       </c>
-      <c r="J166" s="7"/>
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4"/>
@@ -5084,10 +5510,10 @@
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
-      <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
     </row>
     <row r="168" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="s">
@@ -5106,7 +5532,7 @@
         <v>9</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G168" s="6" t="s">
         <v>11</v>
@@ -5117,15 +5543,18 @@
       <c r="I168" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J168" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K168" s="7"/>
+      <c r="J168" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
     </row>
     <row r="169" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B169" s="9" t="n">
         <v>100</v>
@@ -5152,15 +5581,19 @@
         <v>0.31</v>
       </c>
       <c r="I169" s="9" t="n">
+        <f aca="false">1-(C169+E169)/B169</f>
+        <v>0.27</v>
+      </c>
+      <c r="J169" s="9" t="n">
         <v>-81.1</v>
       </c>
-      <c r="J169" s="7"/>
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
     </row>
     <row r="170" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B170" s="9" t="n">
         <v>100</v>
@@ -5187,15 +5620,19 @@
         <v>1.09</v>
       </c>
       <c r="I170" s="9" t="n">
+        <f aca="false">1-(C170+E170)/B170</f>
+        <v>0.68</v>
+      </c>
+      <c r="J170" s="9" t="n">
         <v>-95.22</v>
       </c>
-      <c r="J170" s="7"/>
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
     </row>
     <row r="171" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B171" s="9" t="n">
         <v>100</v>
@@ -5222,11 +5659,15 @@
         <v>1.04</v>
       </c>
       <c r="I171" s="9" t="n">
+        <f aca="false">1-(C171+E171)/B171</f>
+        <v>0.69</v>
+      </c>
+      <c r="J171" s="9" t="n">
         <v>-78.94</v>
       </c>
-      <c r="J171" s="7"/>
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="4"/>
@@ -5249,7 +5690,7 @@
         <v>9</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G173" s="6" t="s">
         <v>11</v>
@@ -5260,15 +5701,18 @@
       <c r="I173" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J173" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K173" s="7"/>
+      <c r="J173" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
     </row>
     <row r="174" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B174" s="9" t="n">
         <v>100</v>
@@ -5295,15 +5739,19 @@
         <v>1.48</v>
       </c>
       <c r="I174" s="9" t="n">
+        <f aca="false">1-(C174+E174)/B174</f>
+        <v>0.81</v>
+      </c>
+      <c r="J174" s="9" t="n">
         <v>-91.72</v>
       </c>
-      <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
     </row>
     <row r="175" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B175" s="9" t="n">
         <v>100</v>
@@ -5330,15 +5778,19 @@
         <v>1.17</v>
       </c>
       <c r="I175" s="9" t="n">
+        <f aca="false">1-(C175+E175)/B175</f>
+        <v>0.62</v>
+      </c>
+      <c r="J175" s="9" t="n">
         <v>-98.6</v>
       </c>
-      <c r="J175" s="7"/>
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
     </row>
     <row r="176" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B176" s="9" t="n">
         <v>100</v>
@@ -5365,11 +5817,15 @@
         <v>1.22</v>
       </c>
       <c r="I176" s="9" t="n">
+        <f aca="false">1-(C176+E176)/B176</f>
+        <v>0.71</v>
+      </c>
+      <c r="J176" s="9" t="n">
         <v>-103.43</v>
       </c>
-      <c r="J176" s="7"/>
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="4"/>
@@ -5378,10 +5834,10 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
-      <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
       <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
@@ -5400,7 +5856,7 @@
         <v>9</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G178" s="6" t="s">
         <v>11</v>
@@ -5411,15 +5867,18 @@
       <c r="I178" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J178" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K178" s="11"/>
+      <c r="J178" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B179" s="9" t="n">
         <f aca="false">AVERAGE(B159,B164,B174)</f>
@@ -5449,17 +5908,21 @@
         <f aca="false">G179/B179</f>
         <v>1.05</v>
       </c>
-      <c r="I179" s="9" t="n">
-        <f aca="false">AVERAGE(I164,I169,I174)</f>
+      <c r="I179" s="12" t="n">
+        <f aca="false">1-(C179+E179)/B179</f>
+        <v>0.616666666666667</v>
+      </c>
+      <c r="J179" s="9" t="n">
+        <f aca="false">AVERAGE(J164,J169,J174)</f>
         <v>-90.2633333333333</v>
       </c>
-      <c r="J179" s="11"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
     </row>
     <row r="180" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B180" s="9" t="n">
         <f aca="false">AVERAGE(B160,B165,B175)</f>
@@ -5489,17 +5952,21 @@
         <f aca="false">G180/B180</f>
         <v>0.863333333333333</v>
       </c>
-      <c r="I180" s="9" t="n">
-        <f aca="false">AVERAGE(I165,I170,I175)</f>
+      <c r="I180" s="12" t="n">
+        <f aca="false">1-(C180+E180)/B180</f>
+        <v>0.523333333333333</v>
+      </c>
+      <c r="J180" s="9" t="n">
+        <f aca="false">AVERAGE(J165,J170,J175)</f>
         <v>-93.3233333333333</v>
       </c>
-      <c r="J180" s="11"/>
       <c r="K180" s="11"/>
       <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B181" s="9" t="n">
         <f aca="false">AVERAGE(B161,B166,B176)</f>
@@ -5529,65 +5996,69 @@
         <f aca="false">G181/B181</f>
         <v>1.05333333333333</v>
       </c>
-      <c r="I181" s="9" t="n">
-        <f aca="false">AVERAGE(I166,I171,I176)</f>
+      <c r="I181" s="12" t="n">
+        <f aca="false">1-(C181+E181)/B181</f>
+        <v>0.69</v>
+      </c>
+      <c r="J181" s="9" t="n">
+        <f aca="false">AVERAGE(J166,J171,J176)</f>
         <v>-87.0333333333334</v>
       </c>
-      <c r="J181" s="11"/>
       <c r="K181" s="11"/>
       <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="J7:L10"/>
-    <mergeCell ref="J12:L15"/>
-    <mergeCell ref="J17:L20"/>
-    <mergeCell ref="J22:L25"/>
+    <mergeCell ref="K7:M10"/>
+    <mergeCell ref="K12:M15"/>
+    <mergeCell ref="K17:M20"/>
+    <mergeCell ref="K22:M25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:T27"/>
-    <mergeCell ref="J33:L36"/>
-    <mergeCell ref="U33:W36"/>
-    <mergeCell ref="J38:L41"/>
-    <mergeCell ref="U38:W41"/>
-    <mergeCell ref="J43:L46"/>
-    <mergeCell ref="U43:W46"/>
-    <mergeCell ref="J48:L51"/>
-    <mergeCell ref="U48:W51"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="K33:M36"/>
+    <mergeCell ref="V33:X36"/>
+    <mergeCell ref="K38:M41"/>
+    <mergeCell ref="V38:X41"/>
+    <mergeCell ref="K43:M46"/>
+    <mergeCell ref="V43:X46"/>
+    <mergeCell ref="K48:M51"/>
+    <mergeCell ref="V48:X51"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="D53:G53"/>
-    <mergeCell ref="J59:L62"/>
-    <mergeCell ref="J64:L67"/>
-    <mergeCell ref="J69:L72"/>
-    <mergeCell ref="J74:L77"/>
+    <mergeCell ref="K59:M62"/>
+    <mergeCell ref="K64:M67"/>
+    <mergeCell ref="K69:M72"/>
+    <mergeCell ref="K74:M77"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="D79:G79"/>
-    <mergeCell ref="J85:L88"/>
-    <mergeCell ref="J90:L93"/>
-    <mergeCell ref="J95:L98"/>
-    <mergeCell ref="J100:L103"/>
+    <mergeCell ref="K85:M88"/>
+    <mergeCell ref="K90:M93"/>
+    <mergeCell ref="K95:M98"/>
+    <mergeCell ref="K100:M103"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="D105:G105"/>
-    <mergeCell ref="J111:L114"/>
-    <mergeCell ref="J116:L119"/>
-    <mergeCell ref="J121:L124"/>
-    <mergeCell ref="J126:L129"/>
+    <mergeCell ref="K111:M114"/>
+    <mergeCell ref="K116:M119"/>
+    <mergeCell ref="K121:M124"/>
+    <mergeCell ref="K126:M129"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="D131:G131"/>
-    <mergeCell ref="J137:L140"/>
-    <mergeCell ref="J142:L145"/>
-    <mergeCell ref="J147:L150"/>
-    <mergeCell ref="J152:L155"/>
+    <mergeCell ref="K137:M140"/>
+    <mergeCell ref="K142:M145"/>
+    <mergeCell ref="K147:M150"/>
+    <mergeCell ref="K152:M155"/>
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="D157:G157"/>
-    <mergeCell ref="J163:L166"/>
-    <mergeCell ref="J168:L171"/>
-    <mergeCell ref="J173:L176"/>
-    <mergeCell ref="J178:L181"/>
+    <mergeCell ref="K163:M166"/>
+    <mergeCell ref="K168:M171"/>
+    <mergeCell ref="K173:M176"/>
+    <mergeCell ref="K178:M181"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5629,7 +6100,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -5678,20 +6149,20 @@
         <v>9</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>27</v>
@@ -5703,10 +6174,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -5717,7 +6188,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>27</v>
@@ -5729,10 +6200,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -5743,7 +6214,7 @@
     </row>
     <row r="12" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>27</v>
@@ -5755,10 +6226,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -5784,20 +6255,20 @@
         <v>9</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>26</v>
@@ -5809,10 +6280,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -5823,7 +6294,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>26</v>
@@ -5835,10 +6306,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -5849,7 +6320,7 @@
     </row>
     <row r="17" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="9" t="n">
         <v>26</v>
@@ -5861,10 +6332,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -5890,20 +6361,20 @@
         <v>9</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>27</v>
@@ -5915,10 +6386,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -5929,7 +6400,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>26</v>
@@ -5941,10 +6412,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -5955,7 +6426,7 @@
     </row>
     <row r="22" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="9" t="n">
         <v>26</v>
@@ -5967,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -5996,20 +6467,20 @@
         <v>9</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -6041,7 +6512,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -6073,7 +6544,7 @@
     </row>
     <row r="27" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="9" t="n">
         <f aca="false">AVERAGE(B12,B17,B22)</f>
@@ -6105,12 +6576,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -6130,7 +6601,7 @@
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -6159,20 +6630,20 @@
         <v>9</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>26</v>
@@ -6184,10 +6655,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -6198,7 +6669,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>26</v>
@@ -6210,10 +6681,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -6224,7 +6695,7 @@
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" s="9" t="n">
         <v>25</v>
@@ -6236,10 +6707,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -6265,20 +6736,20 @@
         <v>9</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" s="9" t="n">
         <v>26</v>
@@ -6290,10 +6761,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -6304,7 +6775,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B44" s="9" t="n">
         <v>26</v>
@@ -6316,10 +6787,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -6330,7 +6801,7 @@
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" s="9" t="n">
         <v>26</v>
@@ -6342,10 +6813,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -6383,20 +6854,20 @@
         <v>9</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>26</v>
@@ -6408,10 +6879,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -6422,7 +6893,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" s="9" t="n">
         <v>17</v>
@@ -6434,10 +6905,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -6448,7 +6919,7 @@
     </row>
     <row r="50" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="9" t="n">
         <v>26</v>
@@ -6460,10 +6931,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -6489,20 +6960,20 @@
         <v>9</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
@@ -6534,7 +7005,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>
@@ -6566,7 +7037,7 @@
     </row>
     <row r="55" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="9" t="n">
         <f aca="false">AVERAGE(B35,B40,B50)</f>
@@ -6650,7 +7121,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -6754,20 +7225,20 @@
         <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>207</v>
@@ -6794,7 +7265,7 @@
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>207</v>
@@ -6821,7 +7292,7 @@
     </row>
     <row r="11" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9" t="n">
         <v>207</v>
@@ -6875,20 +7346,20 @@
         <v>9</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="9" t="n">
         <v>200</v>
@@ -6915,7 +7386,7 @@
     </row>
     <row r="15" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="9" t="n">
         <v>200</v>
@@ -6942,7 +7413,7 @@
     </row>
     <row r="16" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="9" t="n">
         <v>200</v>
@@ -6996,20 +7467,20 @@
         <v>9</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>200</v>
@@ -7036,7 +7507,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="9" t="n">
         <v>200</v>
@@ -7063,7 +7534,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>200</v>
@@ -7117,20 +7588,20 @@
         <v>9</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="9" t="n">
         <f aca="false">AVERAGE(B9,B14,B19)</f>
@@ -7162,7 +7633,7 @@
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" s="9" t="n">
         <f aca="false">AVERAGE(B10,B15,B20)</f>
@@ -7194,7 +7665,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="9" t="n">
         <f aca="false">AVERAGE(B11,B16,B21)</f>
@@ -7250,12 +7721,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -7304,7 +7775,7 @@
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -7359,20 +7830,20 @@
         <v>9</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="9" t="n">
         <v>199</v>
@@ -7399,7 +7870,7 @@
     </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="9" t="n">
         <v>199</v>
@@ -7426,7 +7897,7 @@
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="9" t="n">
         <v>199</v>
@@ -7480,20 +7951,20 @@
         <v>9</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -7514,7 +7985,7 @@
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -7535,7 +8006,7 @@
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -7572,20 +8043,20 @@
         <v>9</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -7606,7 +8077,7 @@
     </row>
     <row r="48" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -7627,7 +8098,7 @@
     </row>
     <row r="49" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -7675,20 +8146,20 @@
         <v>9</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" s="9" t="n">
         <f aca="false">AVERAGE(B32,B37,B47)</f>
@@ -7720,7 +8191,7 @@
     </row>
     <row r="53" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B53" s="9" t="n">
         <f aca="false">AVERAGE(B33,B38,B48)</f>
@@ -7752,7 +8223,7 @@
     </row>
     <row r="54" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" s="9" t="n">
         <f aca="false">AVERAGE(B34,B39,B49)</f>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -399,15 +399,15 @@
   </sheetPr>
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J120" activeCellId="0" sqref="J120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J125" activeCellId="0" sqref="J125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.61"/>
@@ -4144,22 +4144,22 @@
         <v>1</v>
       </c>
       <c r="E118" s="9" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F118" s="9" t="n">
         <v>112</v>
       </c>
       <c r="G118" s="9" t="n">
         <f aca="false">F118+E118</f>
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H118" s="9" t="n">
         <f aca="false">G118/B118</f>
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="I118" s="9" t="n">
         <f aca="false">1-(C118+E118)/B118</f>
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="J118" s="9" t="n">
         <v>-104.95</v>
@@ -4255,26 +4255,34 @@
       <c r="B122" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D122" s="10" t="n">
         <f aca="false">1-C122/B122</f>
         <v>1</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
+      <c r="E122" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" s="9" t="n">
+        <v>116</v>
+      </c>
       <c r="G122" s="9" t="n">
         <f aca="false">F122+E122</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H122" s="9" t="n">
         <f aca="false">G122/B122</f>
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="I122" s="9" t="n">
         <f aca="false">1-(C122+E122)/B122</f>
-        <v>1</v>
-      </c>
-      <c r="J122" s="9"/>
+        <v>0.98</v>
+      </c>
+      <c r="J122" s="9" t="n">
+        <v>-100.63</v>
+      </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
@@ -4286,26 +4294,34 @@
       <c r="B123" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D123" s="10" t="n">
         <f aca="false">1-C123/B123</f>
         <v>1</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
+      <c r="E123" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" s="9" t="n">
+        <v>116</v>
+      </c>
       <c r="G123" s="9" t="n">
         <f aca="false">F123+E123</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="H123" s="9" t="n">
         <f aca="false">G123/B123</f>
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="I123" s="9" t="n">
         <f aca="false">1-(C123+E123)/B123</f>
-        <v>1</v>
-      </c>
-      <c r="J123" s="9"/>
+        <v>0.98</v>
+      </c>
+      <c r="J123" s="9" t="n">
+        <v>-97.56</v>
+      </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
@@ -4317,26 +4333,34 @@
       <c r="B124" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D124" s="10" t="n">
         <f aca="false">1-C124/B124</f>
         <v>1</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
+      <c r="E124" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" s="9" t="n">
+        <v>113</v>
+      </c>
       <c r="G124" s="9" t="n">
         <f aca="false">F124+E124</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H124" s="9" t="n">
         <f aca="false">G124/B124</f>
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I124" s="9" t="n">
         <f aca="false">1-(C124+E124)/B124</f>
-        <v>1</v>
-      </c>
-      <c r="J124" s="9"/>
+        <v>0.98</v>
+      </c>
+      <c r="J124" s="9" t="n">
+        <v>-98.75</v>
+      </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
@@ -4408,27 +4432,27 @@
       </c>
       <c r="E127" s="12" t="n">
         <f aca="false">AVERAGE(E112,E117,E122)</f>
-        <v>11.5</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="F127" s="12" t="n">
         <f aca="false">AVERAGE(F112,F117,F122)</f>
-        <v>105.5</v>
+        <v>109</v>
       </c>
       <c r="G127" s="12" t="n">
         <f aca="false">F127+E127</f>
-        <v>117</v>
+        <v>117.333333333333</v>
       </c>
       <c r="H127" s="12" t="n">
         <f aca="false">G127/B127</f>
-        <v>1.17</v>
+        <v>1.17333333333333</v>
       </c>
       <c r="I127" s="12" t="n">
         <f aca="false">1-(C127+E127)/B127</f>
-        <v>0.885</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="J127" s="9" t="n">
         <f aca="false">AVERAGE(J112,J117,J122)</f>
-        <v>-103.79</v>
+        <v>-102.736666666667</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
@@ -4452,27 +4476,27 @@
       </c>
       <c r="E128" s="12" t="n">
         <f aca="false">AVERAGE(E113,E118,E123)</f>
-        <v>9</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="F128" s="12" t="n">
         <f aca="false">AVERAGE(F113,F118,F123)</f>
-        <v>111</v>
+        <v>112.666666666667</v>
       </c>
       <c r="G128" s="12" t="n">
         <f aca="false">F128+E128</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H128" s="12" t="n">
         <f aca="false">G128/B128</f>
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="I128" s="12" t="n">
         <f aca="false">1-(C128+E128)/B128</f>
-        <v>0.91</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="J128" s="9" t="n">
         <f aca="false">AVERAGE(J113,J118,J123)</f>
-        <v>-104.7</v>
+        <v>-102.32</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
@@ -4496,27 +4520,27 @@
       </c>
       <c r="E129" s="12" t="n">
         <f aca="false">AVERAGE(E114,E119,E124)</f>
-        <v>4</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="F129" s="12" t="n">
         <f aca="false">AVERAGE(F114,F119,F124)</f>
-        <v>117.5</v>
+        <v>116</v>
       </c>
       <c r="G129" s="12" t="n">
         <f aca="false">F129+E129</f>
-        <v>121.5</v>
+        <v>119.333333333333</v>
       </c>
       <c r="H129" s="12" t="n">
         <f aca="false">G129/B129</f>
-        <v>1.215</v>
+        <v>1.19333333333333</v>
       </c>
       <c r="I129" s="12" t="n">
         <f aca="false">1-(C129+E129)/B129</f>
-        <v>0.96</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="J129" s="9" t="n">
         <f aca="false">AVERAGE(J114,J119,J124)</f>
-        <v>-103.425</v>
+        <v>-101.866666666667</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
@@ -7103,7 +7127,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J125" activeCellId="0" sqref="J125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J67" activeCellId="0" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -2517,24 +2517,30 @@
       <c r="B60" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D60" s="10" t="n">
         <f aca="false">1-C60/B60</f>
         <v>1</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="E60" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>111</v>
+      </c>
       <c r="G60" s="9" t="n">
         <f aca="false">F60+E60</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H60" s="9" t="n">
         <f aca="false">G60/B60</f>
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I60" s="9" t="n">
         <f aca="false">1-(C60+E60)/B60</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="7"/>
@@ -2548,24 +2554,30 @@
       <c r="B61" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D61" s="10" t="n">
         <f aca="false">1-C61/B61</f>
         <v>1</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="E61" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>107</v>
+      </c>
       <c r="G61" s="9" t="n">
         <f aca="false">F61+E61</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H61" s="9" t="n">
         <f aca="false">G61/B61</f>
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="I61" s="9" t="n">
         <f aca="false">1-(C61+E61)/B61</f>
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J61" s="9"/>
       <c r="K61" s="7"/>
@@ -2579,24 +2591,30 @@
       <c r="B62" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D62" s="10" t="n">
         <f aca="false">1-C62/B62</f>
         <v>1</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="E62" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>114</v>
+      </c>
       <c r="G62" s="9" t="n">
         <f aca="false">F62+E62</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="H62" s="9" t="n">
         <f aca="false">G62/B62</f>
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="I62" s="9" t="n">
         <f aca="false">1-(C62+E62)/B62</f>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J62" s="9"/>
       <c r="K62" s="7"/>
@@ -2936,33 +2954,33 @@
         <f aca="false">AVERAGE(B55,B60,B70)</f>
         <v>100</v>
       </c>
-      <c r="C75" s="9" t="e">
+      <c r="C75" s="9" t="n">
         <f aca="false">AVERAGE(C60,C65,C70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D75" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D75" s="12" t="n">
         <f aca="false">1-C75/B75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E75" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="n">
         <f aca="false">AVERAGE(E60,E65,E70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F75" s="12" t="e">
+        <v>4</v>
+      </c>
+      <c r="F75" s="12" t="n">
         <f aca="false">AVERAGE(F60,F65,F70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G75" s="12" t="e">
+        <v>111</v>
+      </c>
+      <c r="G75" s="12" t="n">
         <f aca="false">F75+E75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H75" s="12" t="e">
+        <v>115</v>
+      </c>
+      <c r="H75" s="12" t="n">
         <f aca="false">G75/B75</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I75" s="12" t="e">
+        <v>1.15</v>
+      </c>
+      <c r="I75" s="12" t="n">
         <f aca="false">1-(C75+E75)/B75</f>
-        <v>#DIV/0!</v>
+        <v>0.96</v>
       </c>
       <c r="J75" s="9" t="e">
         <f aca="false">AVERAGE(J60,J65,J70)</f>
@@ -2980,33 +2998,33 @@
         <f aca="false">AVERAGE(B56,B61,B71)</f>
         <v>100</v>
       </c>
-      <c r="C76" s="9" t="e">
+      <c r="C76" s="9" t="n">
         <f aca="false">AVERAGE(C61,C66,C71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D76" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D76" s="12" t="n">
         <f aca="false">1-C76/B76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E76" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E76" s="12" t="n">
         <f aca="false">AVERAGE(E61,E66,E71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F76" s="12" t="e">
+        <v>3</v>
+      </c>
+      <c r="F76" s="12" t="n">
         <f aca="false">AVERAGE(F61,F66,F71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G76" s="12" t="e">
+        <v>107</v>
+      </c>
+      <c r="G76" s="12" t="n">
         <f aca="false">F76+E76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H76" s="12" t="e">
+        <v>110</v>
+      </c>
+      <c r="H76" s="12" t="n">
         <f aca="false">G76/B76</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I76" s="12" t="e">
+        <v>1.1</v>
+      </c>
+      <c r="I76" s="12" t="n">
         <f aca="false">1-(C76+E76)/B76</f>
-        <v>#DIV/0!</v>
+        <v>0.97</v>
       </c>
       <c r="J76" s="9" t="e">
         <f aca="false">AVERAGE(J61,J66,J71)</f>
@@ -3024,33 +3042,33 @@
         <f aca="false">AVERAGE(B57,B62,B72)</f>
         <v>100</v>
       </c>
-      <c r="C77" s="9" t="e">
+      <c r="C77" s="9" t="n">
         <f aca="false">AVERAGE(C62,C67,C72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D77" s="12" t="e">
+        <v>0</v>
+      </c>
+      <c r="D77" s="12" t="n">
         <f aca="false">1-C77/B77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E77" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="E77" s="12" t="n">
         <f aca="false">AVERAGE(E62,E67,E72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F77" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="n">
         <f aca="false">AVERAGE(F62,F67,F72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G77" s="12" t="e">
+        <v>114</v>
+      </c>
+      <c r="G77" s="12" t="n">
         <f aca="false">F77+E77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H77" s="12" t="e">
+        <v>115</v>
+      </c>
+      <c r="H77" s="12" t="n">
         <f aca="false">G77/B77</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I77" s="12" t="e">
+        <v>1.15</v>
+      </c>
+      <c r="I77" s="12" t="n">
         <f aca="false">1-(C77+E77)/B77</f>
-        <v>#DIV/0!</v>
+        <v>0.99</v>
       </c>
       <c r="J77" s="9" t="e">
         <f aca="false">AVERAGE(J62,J67,J72)</f>
@@ -7127,7 +7145,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J67" activeCellId="0" sqref="J67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -1396,10 +1396,12 @@
       <c r="B34" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="9" t="n">
+        <v>32</v>
+      </c>
       <c r="D34" s="10" t="n">
         <f aca="false">1-C34/B34</f>
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>0</v>
@@ -1417,9 +1419,11 @@
       </c>
       <c r="I34" s="9" t="n">
         <f aca="false">1-(C34+E34)/B34</f>
-        <v>1</v>
-      </c>
-      <c r="J34" s="9"/>
+        <v>0.68</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>-101.46</v>
+      </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -1456,10 +1460,12 @@
       <c r="B35" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="9" t="n">
+        <v>51</v>
+      </c>
       <c r="D35" s="10" t="n">
         <f aca="false">1-C35/B35</f>
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>0</v>
@@ -1477,9 +1483,11 @@
       </c>
       <c r="I35" s="9" t="n">
         <f aca="false">1-(C35+E35)/B35</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="9"/>
+        <v>0.49</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>-100.78</v>
+      </c>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -1516,10 +1524,12 @@
       <c r="B36" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C36" s="9"/>
+      <c r="C36" s="9" t="n">
+        <v>37</v>
+      </c>
       <c r="D36" s="10" t="n">
         <f aca="false">1-C36/B36</f>
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>0</v>
@@ -1537,9 +1547,11 @@
       </c>
       <c r="I36" s="9" t="n">
         <f aca="false">1-(C36+E36)/B36</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="9"/>
+        <v>0.63</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>-100.98</v>
+      </c>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -1661,10 +1673,12 @@
       <c r="B39" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="9" t="n">
+        <v>33</v>
+      </c>
       <c r="D39" s="10" t="n">
         <f aca="false">1-C39/B39</f>
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>0</v>
@@ -1682,9 +1696,11 @@
       </c>
       <c r="I39" s="9" t="n">
         <f aca="false">1-(C39+E39)/B39</f>
-        <v>1</v>
-      </c>
-      <c r="J39" s="9"/>
+        <v>0.67</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>-100.34</v>
+      </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -1721,10 +1737,12 @@
       <c r="B40" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="9" t="n">
+        <v>53</v>
+      </c>
       <c r="D40" s="10" t="n">
         <f aca="false">1-C40/B40</f>
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>0</v>
@@ -1742,9 +1760,11 @@
       </c>
       <c r="I40" s="9" t="n">
         <f aca="false">1-(C40+E40)/B40</f>
-        <v>1</v>
-      </c>
-      <c r="J40" s="9"/>
+        <v>0.47</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>-102.15</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -1781,10 +1801,12 @@
       <c r="B41" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="9" t="n">
+        <v>33</v>
+      </c>
       <c r="D41" s="10" t="n">
         <f aca="false">1-C41/B41</f>
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>0</v>
@@ -1802,9 +1824,11 @@
       </c>
       <c r="I41" s="9" t="n">
         <f aca="false">1-(C41+E41)/B41</f>
-        <v>1</v>
-      </c>
-      <c r="J41" s="9"/>
+        <v>0.67</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>-101.88</v>
+      </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -1909,10 +1933,12 @@
       <c r="B44" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="9" t="n">
+        <v>25</v>
+      </c>
       <c r="D44" s="10" t="n">
         <f aca="false">1-C44/B44</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>0</v>
@@ -1930,9 +1956,11 @@
       </c>
       <c r="I44" s="9" t="n">
         <f aca="false">1-(C44+E44)/B44</f>
-        <v>1</v>
-      </c>
-      <c r="J44" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>-103.96</v>
+      </c>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -1969,10 +1997,12 @@
       <c r="B45" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="9" t="n">
+        <v>50</v>
+      </c>
       <c r="D45" s="10" t="n">
         <f aca="false">1-C45/B45</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>0</v>
@@ -1990,9 +2020,11 @@
       </c>
       <c r="I45" s="9" t="n">
         <f aca="false">1-(C45+E45)/B45</f>
-        <v>1</v>
-      </c>
-      <c r="J45" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>-104.88</v>
+      </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -2029,10 +2061,12 @@
       <c r="B46" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C46" s="9"/>
+      <c r="C46" s="9" t="n">
+        <v>27</v>
+      </c>
       <c r="D46" s="10" t="n">
         <f aca="false">1-C46/B46</f>
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>0</v>
@@ -2050,9 +2084,11 @@
       </c>
       <c r="I46" s="9" t="n">
         <f aca="false">1-(C46+E46)/B46</f>
-        <v>1</v>
-      </c>
-      <c r="J46" s="9"/>
+        <v>0.73</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>-101.94</v>
+      </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -2175,13 +2211,13 @@
         <f aca="false">AVERAGE(B29,B34,B44)</f>
         <v>100</v>
       </c>
-      <c r="C49" s="9" t="e">
+      <c r="C49" s="9" t="n">
         <f aca="false">AVERAGE(C34,C39,C44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="12" t="e">
+        <v>30</v>
+      </c>
+      <c r="D49" s="12" t="n">
         <f aca="false">1-C49/B49</f>
-        <v>#DIV/0!</v>
+        <v>0.7</v>
       </c>
       <c r="E49" s="12" t="n">
         <f aca="false">AVERAGE(E34,E39,E44)</f>
@@ -2199,13 +2235,13 @@
         <f aca="false">G49/B49</f>
         <v>0</v>
       </c>
-      <c r="I49" s="12" t="e">
+      <c r="I49" s="12" t="n">
         <f aca="false">1-(C49+E49)/B49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="9" t="e">
+        <v>0.7</v>
+      </c>
+      <c r="J49" s="9" t="n">
         <f aca="false">AVERAGE(J34,J39,J44)</f>
-        <v>#DIV/0!</v>
+        <v>-101.92</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
@@ -2249,13 +2285,13 @@
         <f aca="false">AVERAGE(B30,B35,B45)</f>
         <v>100</v>
       </c>
-      <c r="C50" s="9" t="e">
+      <c r="C50" s="9" t="n">
         <f aca="false">AVERAGE(C35,C40,C45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="12" t="e">
+        <v>51.3333333333333</v>
+      </c>
+      <c r="D50" s="12" t="n">
         <f aca="false">1-C50/B50</f>
-        <v>#DIV/0!</v>
+        <v>0.486666666666667</v>
       </c>
       <c r="E50" s="12" t="n">
         <f aca="false">AVERAGE(E35,E40,E45)</f>
@@ -2273,13 +2309,13 @@
         <f aca="false">G50/B50</f>
         <v>0</v>
       </c>
-      <c r="I50" s="12" t="e">
+      <c r="I50" s="12" t="n">
         <f aca="false">1-(C50+E50)/B50</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J50" s="9" t="e">
+        <v>0.486666666666667</v>
+      </c>
+      <c r="J50" s="9" t="n">
         <f aca="false">AVERAGE(J35,J40,J45)</f>
-        <v>#DIV/0!</v>
+        <v>-102.603333333333</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -2323,13 +2359,13 @@
         <f aca="false">AVERAGE(B31,B36,B46)</f>
         <v>100</v>
       </c>
-      <c r="C51" s="9" t="e">
+      <c r="C51" s="9" t="n">
         <f aca="false">AVERAGE(C36,C41,C46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D51" s="12" t="e">
+        <v>32.3333333333333</v>
+      </c>
+      <c r="D51" s="12" t="n">
         <f aca="false">1-C51/B51</f>
-        <v>#DIV/0!</v>
+        <v>0.676666666666667</v>
       </c>
       <c r="E51" s="12" t="n">
         <f aca="false">AVERAGE(E36,E41,E46)</f>
@@ -2347,13 +2383,13 @@
         <f aca="false">G51/B51</f>
         <v>0</v>
       </c>
-      <c r="I51" s="12" t="e">
+      <c r="I51" s="12" t="n">
         <f aca="false">1-(C51+E51)/B51</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J51" s="9" t="e">
+        <v>0.676666666666667</v>
+      </c>
+      <c r="J51" s="9" t="n">
         <f aca="false">AVERAGE(J36,J41,J46)</f>
-        <v>#DIV/0!</v>
+        <v>-101.6</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -2542,7 +2578,9 @@
         <f aca="false">1-(C60+E60)/B60</f>
         <v>0.96</v>
       </c>
-      <c r="J60" s="9"/>
+      <c r="J60" s="9" t="n">
+        <v>-98.51</v>
+      </c>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -2579,7 +2617,9 @@
         <f aca="false">1-(C61+E61)/B61</f>
         <v>0.97</v>
       </c>
-      <c r="J61" s="9"/>
+      <c r="J61" s="9" t="n">
+        <v>-99.91</v>
+      </c>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -2616,7 +2656,9 @@
         <f aca="false">1-(C62+E62)/B62</f>
         <v>0.99</v>
       </c>
-      <c r="J62" s="9"/>
+      <c r="J62" s="9" t="n">
+        <v>-100.48</v>
+      </c>
       <c r="K62" s="7"/>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -2677,26 +2719,34 @@
       <c r="B65" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D65" s="10" t="n">
         <f aca="false">1-C65/B65</f>
         <v>1</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="E65" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>110</v>
+      </c>
       <c r="G65" s="9" t="n">
         <f aca="false">F65+E65</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H65" s="9" t="n">
         <f aca="false">G65/B65</f>
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="I65" s="9" t="n">
         <f aca="false">1-(C65+E65)/B65</f>
-        <v>1</v>
-      </c>
-      <c r="J65" s="9"/>
+        <v>0.96</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>-99.23</v>
+      </c>
       <c r="K65" s="7"/>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -2708,26 +2758,34 @@
       <c r="B66" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D66" s="10" t="n">
         <f aca="false">1-C66/B66</f>
         <v>1</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="E66" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>109</v>
+      </c>
       <c r="G66" s="9" t="n">
         <f aca="false">F66+E66</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="H66" s="9" t="n">
         <f aca="false">G66/B66</f>
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="I66" s="9" t="n">
         <f aca="false">1-(C66+E66)/B66</f>
-        <v>1</v>
-      </c>
-      <c r="J66" s="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>-102.31</v>
+      </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -2739,26 +2797,34 @@
       <c r="B67" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D67" s="10" t="n">
         <f aca="false">1-C67/B67</f>
         <v>1</v>
       </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="E67" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>114</v>
+      </c>
       <c r="G67" s="9" t="n">
         <f aca="false">F67+E67</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H67" s="9" t="n">
         <f aca="false">G67/B67</f>
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="I67" s="9" t="n">
         <f aca="false">1-(C67+E67)/B67</f>
-        <v>1</v>
-      </c>
-      <c r="J67" s="9"/>
+        <v>0.93</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>-102.74</v>
+      </c>
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -2811,26 +2877,34 @@
       <c r="B70" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D70" s="10" t="n">
         <f aca="false">1-C70/B70</f>
         <v>1</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
+      <c r="E70" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9" t="n">
+        <v>108</v>
+      </c>
       <c r="G70" s="9" t="n">
         <f aca="false">F70+E70</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H70" s="9" t="n">
         <f aca="false">G70/B70</f>
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I70" s="9" t="n">
         <f aca="false">1-(C70+E70)/B70</f>
-        <v>1</v>
-      </c>
-      <c r="J70" s="9"/>
+        <v>0.99</v>
+      </c>
+      <c r="J70" s="9" t="n">
+        <v>-101.3</v>
+      </c>
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -2842,26 +2916,34 @@
       <c r="B71" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C71" s="9"/>
+      <c r="C71" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D71" s="10" t="n">
         <f aca="false">1-C71/B71</f>
         <v>1</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+      <c r="E71" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="9" t="n">
+        <v>120</v>
+      </c>
       <c r="G71" s="9" t="n">
         <f aca="false">F71+E71</f>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H71" s="9" t="n">
         <f aca="false">G71/B71</f>
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="I71" s="9" t="n">
         <f aca="false">1-(C71+E71)/B71</f>
-        <v>1</v>
-      </c>
-      <c r="J71" s="9"/>
+        <v>0.99</v>
+      </c>
+      <c r="J71" s="9" t="n">
+        <v>-99.39</v>
+      </c>
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -2873,26 +2955,34 @@
       <c r="B72" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C72" s="9"/>
+      <c r="C72" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="D72" s="10" t="n">
         <f aca="false">1-C72/B72</f>
         <v>1</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="E72" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F72" s="9" t="n">
+        <v>104</v>
+      </c>
       <c r="G72" s="9" t="n">
         <f aca="false">F72+E72</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="H72" s="9" t="n">
         <f aca="false">G72/B72</f>
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="I72" s="9" t="n">
         <f aca="false">1-(C72+E72)/B72</f>
-        <v>1</v>
-      </c>
-      <c r="J72" s="9"/>
+        <v>0.92</v>
+      </c>
+      <c r="J72" s="9" t="n">
+        <v>-103.48</v>
+      </c>
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -2964,27 +3054,27 @@
       </c>
       <c r="E75" s="12" t="n">
         <f aca="false">AVERAGE(E60,E65,E70)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" s="12" t="n">
         <f aca="false">AVERAGE(F60,F65,F70)</f>
-        <v>111</v>
+        <v>109.666666666667</v>
       </c>
       <c r="G75" s="12" t="n">
         <f aca="false">F75+E75</f>
-        <v>115</v>
+        <v>112.666666666667</v>
       </c>
       <c r="H75" s="12" t="n">
         <f aca="false">G75/B75</f>
-        <v>1.15</v>
+        <v>1.12666666666667</v>
       </c>
       <c r="I75" s="12" t="n">
         <f aca="false">1-(C75+E75)/B75</f>
-        <v>0.96</v>
-      </c>
-      <c r="J75" s="9" t="e">
+        <v>0.97</v>
+      </c>
+      <c r="J75" s="9" t="n">
         <f aca="false">AVERAGE(J60,J65,J70)</f>
-        <v>#DIV/0!</v>
+        <v>-99.68</v>
       </c>
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
@@ -3012,23 +3102,23 @@
       </c>
       <c r="F76" s="12" t="n">
         <f aca="false">AVERAGE(F61,F66,F71)</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G76" s="12" t="n">
         <f aca="false">F76+E76</f>
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H76" s="12" t="n">
         <f aca="false">G76/B76</f>
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="I76" s="12" t="n">
         <f aca="false">1-(C76+E76)/B76</f>
         <v>0.97</v>
       </c>
-      <c r="J76" s="9" t="e">
+      <c r="J76" s="9" t="n">
         <f aca="false">AVERAGE(J61,J66,J71)</f>
-        <v>#DIV/0!</v>
+        <v>-100.536666666667</v>
       </c>
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
@@ -3052,27 +3142,27 @@
       </c>
       <c r="E77" s="12" t="n">
         <f aca="false">AVERAGE(E62,E67,E72)</f>
-        <v>1</v>
+        <v>5.33333333333333</v>
       </c>
       <c r="F77" s="12" t="n">
         <f aca="false">AVERAGE(F62,F67,F72)</f>
-        <v>114</v>
+        <v>110.666666666667</v>
       </c>
       <c r="G77" s="12" t="n">
         <f aca="false">F77+E77</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H77" s="12" t="n">
         <f aca="false">G77/B77</f>
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="I77" s="12" t="n">
         <f aca="false">1-(C77+E77)/B77</f>
-        <v>0.99</v>
-      </c>
-      <c r="J77" s="9" t="e">
+        <v>0.946666666666667</v>
+      </c>
+      <c r="J77" s="9" t="n">
         <f aca="false">AVERAGE(J62,J67,J72)</f>
-        <v>#DIV/0!</v>
+        <v>-102.233333333333</v>
       </c>
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
@@ -7145,7 +7235,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J99" activeCellId="0" sqref="J99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -3621,11 +3621,11 @@
         <v>100</v>
       </c>
       <c r="C96" s="9" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D96" s="10" t="n">
         <f aca="false">1-C96/B96</f>
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="E96" s="9" t="n">
         <v>0</v>
@@ -3643,10 +3643,10 @@
       </c>
       <c r="I96" s="9" t="n">
         <f aca="false">1-(C96+E96)/B96</f>
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="J96" s="9" t="n">
-        <v>-95.77</v>
+        <v>-102.6</v>
       </c>
       <c r="K96" s="7"/>
       <c r="L96" s="7"/>
@@ -3660,11 +3660,11 @@
         <v>100</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D97" s="10" t="n">
         <f aca="false">1-C97/B97</f>
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="E97" s="9" t="n">
         <v>0</v>
@@ -3682,10 +3682,10 @@
       </c>
       <c r="I97" s="9" t="n">
         <f aca="false">1-(C97+E97)/B97</f>
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="J97" s="9" t="n">
-        <v>-99.02</v>
+        <v>-103.2</v>
       </c>
       <c r="K97" s="7"/>
       <c r="L97" s="7"/>
@@ -3699,11 +3699,11 @@
         <v>100</v>
       </c>
       <c r="C98" s="9" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D98" s="10" t="n">
         <f aca="false">1-C98/B98</f>
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="E98" s="9" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
       </c>
       <c r="I98" s="9" t="n">
         <f aca="false">1-(C98+E98)/B98</f>
-        <v>0.82</v>
+        <v>0.66</v>
       </c>
       <c r="J98" s="9" t="n">
-        <v>-90.81</v>
+        <v>-106.86</v>
       </c>
       <c r="K98" s="7"/>
       <c r="L98" s="7"/>
@@ -3789,11 +3789,11 @@
       </c>
       <c r="C101" s="9" t="n">
         <f aca="false">AVERAGE(C86,C91,C96)</f>
-        <v>17.6666666666667</v>
+        <v>13.6666666666667</v>
       </c>
       <c r="D101" s="12" t="n">
         <f aca="false">1-C101/B101</f>
-        <v>0.823333333333333</v>
+        <v>0.863333333333333</v>
       </c>
       <c r="E101" s="12" t="n">
         <f aca="false">AVERAGE(E86,E91,E96)</f>
@@ -3813,11 +3813,11 @@
       </c>
       <c r="I101" s="12" t="n">
         <f aca="false">1-(C101+E101)/B101</f>
-        <v>0.823333333333333</v>
+        <v>0.863333333333333</v>
       </c>
       <c r="J101" s="9" t="n">
         <f aca="false">AVERAGE(J86,J91,J96)</f>
-        <v>-96.21</v>
+        <v>-98.4866666666667</v>
       </c>
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
@@ -3833,11 +3833,11 @@
       </c>
       <c r="C102" s="9" t="n">
         <f aca="false">AVERAGE(C87,C92,C97)</f>
-        <v>42.6666666666667</v>
+        <v>38.3333333333333</v>
       </c>
       <c r="D102" s="12" t="n">
         <f aca="false">1-C102/B102</f>
-        <v>0.573333333333333</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="E102" s="12" t="n">
         <f aca="false">AVERAGE(E87,E92,E97)</f>
@@ -3857,11 +3857,11 @@
       </c>
       <c r="I102" s="12" t="n">
         <f aca="false">1-(C102+E102)/B102</f>
-        <v>0.573333333333333</v>
+        <v>0.616666666666667</v>
       </c>
       <c r="J102" s="9" t="n">
         <f aca="false">AVERAGE(J87,J92,J97)</f>
-        <v>-100.703333333333</v>
+        <v>-102.096666666667</v>
       </c>
       <c r="K102" s="11"/>
       <c r="L102" s="11"/>
@@ -3877,11 +3877,11 @@
       </c>
       <c r="C103" s="9" t="n">
         <f aca="false">AVERAGE(C88,C93,C98)</f>
-        <v>28</v>
+        <v>33.3333333333333</v>
       </c>
       <c r="D103" s="12" t="n">
         <f aca="false">1-C103/B103</f>
-        <v>0.72</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E103" s="12" t="n">
         <f aca="false">AVERAGE(E88,E93,E98)</f>
@@ -3901,11 +3901,11 @@
       </c>
       <c r="I103" s="12" t="n">
         <f aca="false">1-(C103+E103)/B103</f>
-        <v>0.72</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="J103" s="9" t="n">
         <f aca="false">AVERAGE(J88,J93,J98)</f>
-        <v>-98.6666666666667</v>
+        <v>-104.016666666667</v>
       </c>
       <c r="K103" s="11"/>
       <c r="L103" s="11"/>
@@ -7235,7 +7235,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.40234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -399,11 +399,11 @@
   </sheetPr>
   <dimension ref="A1:X182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J99" activeCellId="0" sqref="J99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P176" activeCellId="0" sqref="P176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
@@ -4364,32 +4364,32 @@
         <v>100</v>
       </c>
       <c r="C122" s="9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D122" s="10" t="n">
         <f aca="false">1-C122/B122</f>
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="E122" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F122" s="9" t="n">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="G122" s="9" t="n">
         <f aca="false">F122+E122</f>
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="H122" s="9" t="n">
         <f aca="false">G122/B122</f>
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="I122" s="9" t="n">
         <f aca="false">1-(C122+E122)/B122</f>
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="J122" s="9" t="n">
-        <v>-100.63</v>
+        <v>-96.7</v>
       </c>
       <c r="K122" s="7"/>
       <c r="L122" s="7"/>
@@ -4403,32 +4403,32 @@
         <v>100</v>
       </c>
       <c r="C123" s="9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D123" s="10" t="n">
         <f aca="false">1-C123/B123</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E123" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F123" s="9" t="n">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="G123" s="9" t="n">
         <f aca="false">F123+E123</f>
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="H123" s="9" t="n">
         <f aca="false">G123/B123</f>
-        <v>1.18</v>
+        <v>0.75</v>
       </c>
       <c r="I123" s="9" t="n">
         <f aca="false">1-(C123+E123)/B123</f>
-        <v>0.98</v>
+        <v>0.75</v>
       </c>
       <c r="J123" s="9" t="n">
-        <v>-97.56</v>
+        <v>-96.87</v>
       </c>
       <c r="K123" s="7"/>
       <c r="L123" s="7"/>
@@ -4442,32 +4442,32 @@
         <v>100</v>
       </c>
       <c r="C124" s="9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D124" s="10" t="n">
         <f aca="false">1-C124/B124</f>
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="E124" s="9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F124" s="9" t="n">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="G124" s="9" t="n">
         <f aca="false">F124+E124</f>
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="H124" s="9" t="n">
         <f aca="false">G124/B124</f>
-        <v>1.15</v>
+        <v>0.54</v>
       </c>
       <c r="I124" s="9" t="n">
         <f aca="false">1-(C124+E124)/B124</f>
-        <v>0.98</v>
+        <v>0.54</v>
       </c>
       <c r="J124" s="9" t="n">
-        <v>-98.75</v>
+        <v>-101.54</v>
       </c>
       <c r="K124" s="7"/>
       <c r="L124" s="7"/>
@@ -4532,35 +4532,35 @@
       </c>
       <c r="C127" s="9" t="n">
         <f aca="false">AVERAGE(C112,C117,C122)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D127" s="12" t="n">
         <f aca="false">1-C127/B127</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E127" s="12" t="n">
         <f aca="false">AVERAGE(E112,E117,E122)</f>
-        <v>8.33333333333333</v>
+        <v>7.66666666666667</v>
       </c>
       <c r="F127" s="12" t="n">
         <f aca="false">AVERAGE(F112,F117,F122)</f>
-        <v>109</v>
+        <v>98.6666666666667</v>
       </c>
       <c r="G127" s="12" t="n">
         <f aca="false">F127+E127</f>
-        <v>117.333333333333</v>
+        <v>106.333333333333</v>
       </c>
       <c r="H127" s="12" t="n">
         <f aca="false">G127/B127</f>
-        <v>1.17333333333333</v>
+        <v>1.06333333333333</v>
       </c>
       <c r="I127" s="12" t="n">
         <f aca="false">1-(C127+E127)/B127</f>
-        <v>0.916666666666667</v>
+        <v>0.873333333333333</v>
       </c>
       <c r="J127" s="9" t="n">
         <f aca="false">AVERAGE(J112,J117,J122)</f>
-        <v>-102.736666666667</v>
+        <v>-101.426666666667</v>
       </c>
       <c r="K127" s="11"/>
       <c r="L127" s="11"/>
@@ -4576,35 +4576,35 @@
       </c>
       <c r="C128" s="9" t="n">
         <f aca="false">AVERAGE(C113,C118,C123)</f>
-        <v>0</v>
+        <v>8.33333333333333</v>
       </c>
       <c r="D128" s="12" t="n">
         <f aca="false">1-C128/B128</f>
-        <v>1</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E128" s="12" t="n">
         <f aca="false">AVERAGE(E113,E118,E123)</f>
-        <v>3.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="F128" s="12" t="n">
         <f aca="false">AVERAGE(F113,F118,F123)</f>
-        <v>112.666666666667</v>
+        <v>99</v>
       </c>
       <c r="G128" s="12" t="n">
         <f aca="false">F128+E128</f>
-        <v>116</v>
+        <v>101.666666666667</v>
       </c>
       <c r="H128" s="12" t="n">
         <f aca="false">G128/B128</f>
-        <v>1.16</v>
+        <v>1.01666666666667</v>
       </c>
       <c r="I128" s="12" t="n">
         <f aca="false">1-(C128+E128)/B128</f>
-        <v>0.966666666666667</v>
+        <v>0.89</v>
       </c>
       <c r="J128" s="9" t="n">
         <f aca="false">AVERAGE(J113,J118,J123)</f>
-        <v>-102.32</v>
+        <v>-102.09</v>
       </c>
       <c r="K128" s="11"/>
       <c r="L128" s="11"/>
@@ -4620,35 +4620,35 @@
       </c>
       <c r="C129" s="9" t="n">
         <f aca="false">AVERAGE(C114,C119,C124)</f>
-        <v>0</v>
+        <v>15.3333333333333</v>
       </c>
       <c r="D129" s="12" t="n">
         <f aca="false">1-C129/B129</f>
-        <v>1</v>
+        <v>0.846666666666667</v>
       </c>
       <c r="E129" s="12" t="n">
         <f aca="false">AVERAGE(E114,E119,E124)</f>
-        <v>3.33333333333333</v>
+        <v>2.66666666666667</v>
       </c>
       <c r="F129" s="12" t="n">
         <f aca="false">AVERAGE(F114,F119,F124)</f>
-        <v>116</v>
+        <v>96.3333333333333</v>
       </c>
       <c r="G129" s="12" t="n">
         <f aca="false">F129+E129</f>
-        <v>119.333333333333</v>
+        <v>99</v>
       </c>
       <c r="H129" s="12" t="n">
         <f aca="false">G129/B129</f>
-        <v>1.19333333333333</v>
+        <v>0.99</v>
       </c>
       <c r="I129" s="12" t="n">
         <f aca="false">1-(C129+E129)/B129</f>
-        <v>0.966666666666667</v>
+        <v>0.82</v>
       </c>
       <c r="J129" s="9" t="n">
         <f aca="false">AVERAGE(J114,J119,J124)</f>
-        <v>-101.866666666667</v>
+        <v>-102.796666666667</v>
       </c>
       <c r="K129" s="11"/>
       <c r="L129" s="11"/>
@@ -7235,7 +7235,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.39453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -235,7 +235,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -301,11 +301,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -381,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,11 +453,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -538,7 +541,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -550,10 +553,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501125952432366"/>
-          <c:y val="0.101047493693101"/>
-          <c:w val="0.90066940185705"/>
-          <c:h val="0.746791707798618"/>
+          <c:x val="0.0501227133567796"/>
+          <c:y val="0.101034637876743"/>
+          <c:w val="0.90061483187005"/>
+          <c:h val="0.746693657219973"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -564,7 +567,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$O$102:$O$102</c:f>
+              <c:f>Baseline_100pkt!$O$69:$O$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -574,7 +577,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -600,6 +605,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -610,10 +616,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12600">
                 <a:solidFill>
                   <a:srgbClr val="f10d0c"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -629,7 +636,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Baseline_100pkt!$R$102:$R$104</c:f>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -647,7 +654,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Baseline_100pkt!$R$102:$R$104</c:f>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -673,7 +680,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Baseline_100pkt!$Q$102:$Q$104</c:f>
+              <c:f>Baseline_100pkt!$Q$69:$Q$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -691,7 +698,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Baseline_100pkt!$P$102:$P$104</c:f>
+              <c:f>Baseline_100pkt!$P$69:$P$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -714,7 +721,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$O$106:$O$106</c:f>
+              <c:f>Baseline_100pkt!$O$73:$O$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,7 +731,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -750,6 +759,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -760,10 +770,11 @@
           </c:dLbls>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12600">
                 <a:solidFill>
                   <a:srgbClr val="069a2e"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
@@ -779,7 +790,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Baseline_100pkt!$R$106:$R$108</c:f>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -797,7 +808,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Baseline_100pkt!$R$106:$R$108</c:f>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -823,7 +834,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Baseline_100pkt!$Q$106:$Q$108</c:f>
+              <c:f>Baseline_100pkt!$Q$73:$Q$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -841,7 +852,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Baseline_100pkt!$P$106:$P$108</c:f>
+              <c:f>Baseline_100pkt!$P$73:$P$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -859,14 +870,14 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44127482"/>
-        <c:axId val="36877102"/>
+        <c:axId val="51573984"/>
+        <c:axId val="13816737"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44127482"/>
+        <c:axId val="51573984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="31"/>
+          <c:max val="35"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -908,7 +919,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -925,20 +936,20 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36877102"/>
+        <c:crossAx val="13816737"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36877102"/>
+        <c:axId val="13816737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -992,7 +1003,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1008,13 +1019,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44127482"/>
+        <c:crossAx val="51573984"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1057,7 +1068,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -1068,16 +1079,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>54000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1641600</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1820160</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1085,8 +1096,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18402840" y="16101720"/>
-        <a:ext cx="11670120" cy="6564240"/>
+        <a:off x="18637200" y="18231480"/>
+        <a:ext cx="14227920" cy="8002440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1106,15 +1117,15 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L67" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U88" activeCellId="0" sqref="U88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R121" activeCellId="0" sqref="R121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.41"/>
@@ -1129,7 +1140,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="32.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="44.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.68"/>
@@ -1137,7 +1148,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="25.68"/>
@@ -6081,9 +6092,21 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
+      <c r="O68" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P68" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="18" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
@@ -6121,6 +6144,21 @@
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
+      <c r="O69" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="P69" s="21" t="n">
+        <f aca="false">R58</f>
+        <v>0.62</v>
+      </c>
+      <c r="Q69" s="18" t="n">
+        <f aca="false">T58</f>
+        <v>30</v>
+      </c>
+      <c r="R69" s="21" t="n">
+        <f aca="false">S58</f>
+        <v>0.117015351952607</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
@@ -6160,6 +6198,19 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="21" t="n">
+        <f aca="false">R61</f>
+        <v>0.72</v>
+      </c>
+      <c r="Q70" s="18" t="n">
+        <f aca="false">T61</f>
+        <v>15</v>
+      </c>
+      <c r="R70" s="21" t="n">
+        <f aca="false">S61</f>
+        <v>0.130398250385899</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
@@ -6199,6 +6250,19 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="21" t="n">
+        <f aca="false">R64</f>
+        <v>0.54</v>
+      </c>
+      <c r="Q71" s="18" t="n">
+        <f aca="false">T64</f>
+        <v>5</v>
+      </c>
+      <c r="R71" s="21" t="n">
+        <f aca="false">S64</f>
+        <v>0.0945946517946345</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
@@ -6238,8 +6302,12 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+    </row>
+    <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6250,6 +6318,21 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
+      <c r="O73" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" s="21" t="n">
+        <f aca="false">X58</f>
+        <v>0.962222222222222</v>
+      </c>
+      <c r="Q73" s="18" t="n">
+        <f aca="false">T58</f>
+        <v>30</v>
+      </c>
+      <c r="R73" s="21" t="n">
+        <f aca="false">Y58</f>
+        <v>0.013471506281091</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
@@ -6287,6 +6370,19 @@
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="21" t="n">
+        <f aca="false">X61</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q74" s="18" t="n">
+        <f aca="false">T61</f>
+        <v>15</v>
+      </c>
+      <c r="R74" s="21" t="n">
+        <f aca="false">Y61</f>
+        <v>0.0288675134594813</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
@@ -6331,6 +6427,19 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="21" t="n">
+        <f aca="false">X64</f>
+        <v>0.61</v>
+      </c>
+      <c r="Q75" s="18" t="n">
+        <f aca="false">T64</f>
+        <v>5</v>
+      </c>
+      <c r="R75" s="21" t="n">
+        <f aca="false">Y64</f>
+        <v>0.0835330939076111</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
@@ -6443,120 +6552,14 @@
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O101" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="P101" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q101" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R101" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O102" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P102" s="20" t="n">
-        <f aca="false">R58</f>
-        <v>0.62</v>
-      </c>
-      <c r="Q102" s="18" t="n">
-        <f aca="false">T58</f>
-        <v>30</v>
-      </c>
-      <c r="R102" s="20" t="n">
-        <f aca="false">S58</f>
-        <v>0.117015351952607</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O103" s="18"/>
-      <c r="P103" s="20" t="n">
-        <f aca="false">R61</f>
-        <v>0.72</v>
-      </c>
-      <c r="Q103" s="18" t="n">
-        <f aca="false">T61</f>
-        <v>15</v>
-      </c>
-      <c r="R103" s="20" t="n">
-        <f aca="false">S61</f>
-        <v>0.130398250385899</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O104" s="18"/>
-      <c r="P104" s="20" t="n">
-        <f aca="false">R64</f>
-        <v>0.54</v>
-      </c>
-      <c r="Q104" s="18" t="n">
-        <f aca="false">T64</f>
-        <v>5</v>
-      </c>
-      <c r="R104" s="20" t="n">
-        <f aca="false">S64</f>
-        <v>0.0945946517946345</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-    </row>
-    <row r="106" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O106" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P106" s="20" t="n">
-        <f aca="false">X58</f>
-        <v>0.962222222222222</v>
-      </c>
-      <c r="Q106" s="18" t="n">
-        <f aca="false">T58</f>
-        <v>30</v>
-      </c>
-      <c r="R106" s="20" t="n">
-        <f aca="false">Y58</f>
-        <v>0.013471506281091</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O107" s="18"/>
-      <c r="P107" s="20" t="n">
-        <f aca="false">X61</f>
-        <v>0.95</v>
-      </c>
-      <c r="Q107" s="18" t="n">
-        <f aca="false">T61</f>
-        <v>15</v>
-      </c>
-      <c r="R107" s="20" t="n">
-        <f aca="false">Y61</f>
-        <v>0.0288675134594813</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O108" s="18"/>
-      <c r="P108" s="20" t="n">
-        <f aca="false">X64</f>
-        <v>0.61</v>
-      </c>
-      <c r="Q108" s="18" t="n">
-        <f aca="false">T64</f>
-        <v>5</v>
-      </c>
-      <c r="R108" s="20" t="n">
-        <f aca="false">Y64</f>
-        <v>0.0835330939076111</v>
-      </c>
-    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7741,7 +7744,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.38671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="71">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -201,7 +201,7 @@
     <t xml:space="preserve">Exp 5 Backoff + Retransmission #3</t>
   </si>
   <si>
-    <t xml:space="preserve">Hilfsdatenreihen</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">PDR</t>
@@ -210,7 +210,19 @@
     <t xml:space="preserve">sigma</t>
   </si>
   <si>
-    <t xml:space="preserve">Backoff and Retransmission</t>
+    <t xml:space="preserve">perfomance increase PDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfomance increase sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAC Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median perf. Incr. PDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median perf. Incr. Sigma</t>
   </si>
   <si>
     <t xml:space="preserve">(3 boards, 15 min)</t>
@@ -235,7 +247,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -291,13 +303,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -376,7 +381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -449,23 +454,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +538,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -553,10 +550,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501227133567796"/>
-          <c:y val="0.101034637876743"/>
-          <c:w val="0.90061483187005"/>
-          <c:h val="0.746693657219973"/>
+          <c:x val="0.0501239815798796"/>
+          <c:y val="0.10103918304917"/>
+          <c:w val="0.900587014827185"/>
+          <c:h val="0.746682261910117"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -725,7 +722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Backoff and Retransmission</c:v>
+                  <c:v>MAC Layer</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -870,11 +867,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51573984"/>
-        <c:axId val="13816737"/>
+        <c:axId val="35286637"/>
+        <c:axId val="97390717"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51573984"/>
+        <c:axId val="35286637"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -906,7 +903,7 @@
                   <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Sendinginterval in seconds</a:t>
+                  <a:t>sending interval in seconds</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -942,14 +939,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13816737"/>
+        <c:crossAx val="97390717"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13816737"/>
+        <c:axId val="97390717"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -990,7 +987,7 @@
                   <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Package delivery ratio (PDR)</a:t>
+                  <a:t>package delivery ratio (PDR)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1025,7 +1022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51573984"/>
+        <c:crossAx val="35286637"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1080,15 +1077,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:colOff>158760</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>1820160</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>1953720</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1096,8 +1093,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18637200" y="18231480"/>
-        <a:ext cx="14227920" cy="8002440"/>
+        <a:off x="18741960" y="19376280"/>
+        <a:ext cx="14227560" cy="8002080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1117,11 +1114,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L77" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R121" activeCellId="0" sqref="R121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R140" activeCellId="0" sqref="R140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -1134,11 +1131,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="33.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="17.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="32.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="33.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="44.11"/>
@@ -6092,20 +6089,26 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="O68" s="18" t="s">
+      <c r="O68" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="P68" s="19" t="s">
+      <c r="P68" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="Q68" s="18" t="s">
+      <c r="Q68" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R68" s="18" t="s">
+      <c r="R68" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="S68" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="T68" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6144,21 +6147,23 @@
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
-      <c r="O69" s="20" t="s">
+      <c r="O69" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="P69" s="21" t="n">
+      <c r="P69" s="17" t="n">
         <f aca="false">R58</f>
         <v>0.62</v>
       </c>
-      <c r="Q69" s="18" t="n">
+      <c r="Q69" s="16" t="n">
         <f aca="false">T58</f>
         <v>30</v>
       </c>
-      <c r="R69" s="21" t="n">
+      <c r="R69" s="17" t="n">
         <f aca="false">S58</f>
         <v>0.117015351952607</v>
       </c>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
@@ -6198,19 +6203,21 @@
       <c r="K70" s="7"/>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="21" t="n">
+      <c r="O70" s="16"/>
+      <c r="P70" s="17" t="n">
         <f aca="false">R61</f>
         <v>0.72</v>
       </c>
-      <c r="Q70" s="18" t="n">
+      <c r="Q70" s="16" t="n">
         <f aca="false">T61</f>
         <v>15</v>
       </c>
-      <c r="R70" s="21" t="n">
+      <c r="R70" s="17" t="n">
         <f aca="false">S61</f>
         <v>0.130398250385899</v>
       </c>
+      <c r="S70" s="19"/>
+      <c r="T70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
@@ -6250,19 +6257,21 @@
       <c r="K71" s="7"/>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="21" t="n">
+      <c r="O71" s="16"/>
+      <c r="P71" s="17" t="n">
         <f aca="false">R64</f>
         <v>0.54</v>
       </c>
-      <c r="Q71" s="18" t="n">
+      <c r="Q71" s="16" t="n">
         <f aca="false">T64</f>
         <v>5</v>
       </c>
-      <c r="R71" s="21" t="n">
+      <c r="R71" s="17" t="n">
         <f aca="false">S64</f>
         <v>0.0945946517946345</v>
       </c>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
@@ -6302,12 +6311,14 @@
       <c r="K72" s="7"/>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-    </row>
-    <row r="73" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+    </row>
+    <row r="73" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6318,20 +6329,28 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="O73" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="P73" s="21" t="n">
+      <c r="O73" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" s="17" t="n">
         <f aca="false">X58</f>
         <v>0.962222222222222</v>
       </c>
-      <c r="Q73" s="18" t="n">
+      <c r="Q73" s="16" t="n">
         <f aca="false">T58</f>
         <v>30</v>
       </c>
-      <c r="R73" s="21" t="n">
+      <c r="R73" s="17" t="n">
         <f aca="false">Y58</f>
         <v>0.013471506281091</v>
+      </c>
+      <c r="S73" s="16" t="n">
+        <f aca="false">P73/P69-1</f>
+        <v>0.551971326164874</v>
+      </c>
+      <c r="T73" s="16" t="n">
+        <f aca="false">R73/R69</f>
+        <v>0.115125973270133</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,18 +6389,26 @@
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="21" t="n">
+      <c r="O74" s="16"/>
+      <c r="P74" s="17" t="n">
         <f aca="false">X61</f>
         <v>0.95</v>
       </c>
-      <c r="Q74" s="18" t="n">
+      <c r="Q74" s="16" t="n">
         <f aca="false">T61</f>
         <v>15</v>
       </c>
-      <c r="R74" s="21" t="n">
+      <c r="R74" s="17" t="n">
         <f aca="false">Y61</f>
         <v>0.0288675134594813</v>
+      </c>
+      <c r="S74" s="16" t="n">
+        <f aca="false">P74/P70-1</f>
+        <v>0.319444444444445</v>
+      </c>
+      <c r="T74" s="16" t="n">
+        <f aca="false">R74/R70</f>
+        <v>0.221379607272729</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,18 +6454,26 @@
       <c r="K75" s="11"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="21" t="n">
+      <c r="O75" s="16"/>
+      <c r="P75" s="17" t="n">
         <f aca="false">X64</f>
         <v>0.61</v>
       </c>
-      <c r="Q75" s="18" t="n">
+      <c r="Q75" s="16" t="n">
         <f aca="false">T64</f>
         <v>5</v>
       </c>
-      <c r="R75" s="21" t="n">
+      <c r="R75" s="17" t="n">
         <f aca="false">Y64</f>
         <v>0.0835330939076111</v>
+      </c>
+      <c r="S75" s="16" t="n">
+        <f aca="false">P75/P71-1</f>
+        <v>0.12962962962963</v>
+      </c>
+      <c r="T75" s="16" t="n">
+        <f aca="false">R75/R71</f>
+        <v>0.883063601618429</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6484,6 +6519,12 @@
       <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
@@ -6528,9 +6569,39 @@
       <c r="K77" s="11"/>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O77" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="16" t="n">
+        <f aca="false">AVERAGE(S73:S75)</f>
+        <v>0.33368180007965</v>
+      </c>
+      <c r="T77" s="19"/>
+    </row>
+    <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O78" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="16" t="n">
+        <f aca="false">AVERAGE(T73:T75)</f>
+        <v>0.40652306072043</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O79" s="19"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+    </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6741,7 +6812,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6815,10 +6886,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -6841,10 +6912,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -6867,10 +6938,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -6921,10 +6992,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -6947,10 +7018,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -6973,10 +7044,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -7027,10 +7098,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -7053,10 +7124,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -7079,10 +7150,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -7217,12 +7288,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -7296,10 +7367,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -7322,10 +7393,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -7348,10 +7419,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -7402,10 +7473,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -7428,10 +7499,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -7454,10 +7525,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -7520,10 +7591,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -7546,10 +7617,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -7572,10 +7643,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -7740,11 +7811,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -7762,7 +7833,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8362,12 +8433,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="76">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -225,6 +225,21 @@
     <t xml:space="preserve">Median perf. Incr. Sigma</t>
   </si>
   <si>
+    <t xml:space="preserve">Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 MAC</t>
+  </si>
+  <si>
     <t xml:space="preserve">(3 boards, 15 min)</t>
   </si>
   <si>
@@ -247,7 +262,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -312,8 +327,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,6 +350,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -381,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -466,6 +492,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,19 +524,19 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6D6D"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
@@ -519,26 +557,26 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF355269"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -550,10 +588,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501239815798796"/>
-          <c:y val="0.10103918304917"/>
-          <c:w val="0.900587014827185"/>
-          <c:h val="0.746682261910117"/>
+          <c:x val="0.0501277866342772"/>
+          <c:y val="0.101043728630556"/>
+          <c:w val="0.900554163819935"/>
+          <c:h val="0.746670865574951"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -867,11 +905,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35286637"/>
-        <c:axId val="97390717"/>
+        <c:axId val="48607275"/>
+        <c:axId val="77110964"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35286637"/>
+        <c:axId val="48607275"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -939,14 +977,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97390717"/>
+        <c:crossAx val="77110964"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97390717"/>
+        <c:axId val="77110964"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1022,7 +1060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35286637"/>
+        <c:crossAx val="48607275"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1072,20 +1110,1240 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="355269"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="355269"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="355269"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="355269"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$82:$Q$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0435889894354067</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.155670592384475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$82:$Q$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0435889894354067</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.155670592384475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="355269"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$82:$R$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$82:$P$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.623333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="c9211e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$86:$Q$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.161658075373095</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.225018517756502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$86:$Q$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.161658075373095</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.225018517756502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="c9211e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$86:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$86:$P$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.486666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="127622"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="127622"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="127622"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="127622"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$90:$Q$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0503322295684717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.030550504633039</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0585946527708232</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$90:$Q$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0503322295684717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.030550504633039</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0585946527708232</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="127622"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$90:$R$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$90:$P$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.676666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.556666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="729fcf"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="729fcf"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="729fcf"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$95:$Q$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0173205080756888</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0568624070307733</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.300887575903913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$95:$Q$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0173205080756888</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0568624070307733</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.300887575903913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff6d6d"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$95:$R$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$95:$P$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff6d6d"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff6d6d"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff6d6d"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$99:$Q$101</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.023094010767585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.221434715736565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$99:$Q$101</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.023094010767585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.221434715736565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$99:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$99:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="77bc65"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="77bc65"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="77bc65"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="77bc65"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$103:$Q$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0378593889720018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165194</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$103:$Q$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0378593889720018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165194</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="77bc65"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$103:$R$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$103:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="12847412"/>
+        <c:axId val="89591949"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="12847412"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sending interval in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89591949"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="89591949"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>package delivery ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12847412"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>486720</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1953720</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>288000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>214560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1093,12 +2351,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18741960" y="19376280"/>
-        <a:ext cx="14227560" cy="8002080"/>
+        <a:off x="33293880" y="16205400"/>
+        <a:ext cx="14226480" cy="8001720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>165600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1874160</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17734680" y="25659360"/>
+        <a:ext cx="14334840" cy="8062920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1114,11 +2402,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M83" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R140" activeCellId="0" sqref="R140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N102" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T103" activeCellId="0" sqref="T103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -1131,10 +2419,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="41.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="33.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36.6"/>
@@ -6594,40 +7882,385 @@
         <v>0.40652306072043</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O79" s="19"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N81" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O81" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="P81" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q81" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R81" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N82" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="17" t="n">
+        <f aca="false">Q58</f>
+        <v>0.7</v>
+      </c>
+      <c r="Q82" s="16" t="n">
+        <f aca="false">STDEV(I34,I39,I44)</f>
+        <v>0.0435889894354067</v>
+      </c>
+      <c r="R82" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P83" s="17" t="n">
+        <f aca="false">Q61</f>
+        <v>0.863333333333333</v>
+      </c>
+      <c r="Q83" s="21" t="n">
+        <f aca="false">STDEV(X8,X13,X18)</f>
+        <v>0.0152752523165195</v>
+      </c>
+      <c r="R83" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" s="17" t="n">
+        <f aca="false">Q64</f>
+        <v>0.623333333333333</v>
+      </c>
+      <c r="Q84" s="21" t="n">
+        <f aca="false">STDEV(AL8,AL13,AL18)</f>
+        <v>0.155670592384475</v>
+      </c>
+      <c r="R84" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="22"/>
+    </row>
+    <row r="86" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N86" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O86" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="P86" s="17" t="n">
+        <f aca="false">Q59</f>
+        <v>0.486666666666667</v>
+      </c>
+      <c r="Q86" s="16" t="n">
+        <f aca="false">STDEV(I35,I40,I45)</f>
+        <v>0.0152752523165195</v>
+      </c>
+      <c r="R86" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P87" s="17" t="n">
+        <f aca="false">Q62</f>
+        <v>0.616666666666667</v>
+      </c>
+      <c r="Q87" s="16" t="n">
+        <f aca="false">STDEV(X9,X14,X19)</f>
+        <v>0.161658075373095</v>
+      </c>
+      <c r="R87" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P88" s="17" t="n">
+        <f aca="false">Q65</f>
+        <v>0.436666666666667</v>
+      </c>
+      <c r="Q88" s="16" t="n">
+        <f aca="false">STDEV(AL9,AL14,AL19)</f>
+        <v>0.225018517756502</v>
+      </c>
+      <c r="R88" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="22"/>
+    </row>
+    <row r="90" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N90" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P90" s="17" t="n">
+        <f aca="false">Q60</f>
+        <v>0.676666666666667</v>
+      </c>
+      <c r="Q90" s="16" t="n">
+        <f aca="false">STDEV(I36,I41,I46)</f>
+        <v>0.0503322295684717</v>
+      </c>
+      <c r="R90" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N91" s="16"/>
+      <c r="O91" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P91" s="17" t="n">
+        <f aca="false">Q63</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="Q91" s="16" t="n">
+        <f aca="false">STDEV(X10,X15,X20)</f>
+        <v>0.030550504633039</v>
+      </c>
+      <c r="R91" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N92" s="16"/>
+      <c r="O92" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P92" s="17" t="n">
+        <f aca="false">Q66</f>
+        <v>0.556666666666667</v>
+      </c>
+      <c r="Q92" s="16" t="n">
+        <f aca="false">STDEV(AL10,AL15,AL20)</f>
+        <v>0.0585946527708232</v>
+      </c>
+      <c r="R92" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="22"/>
+    </row>
+    <row r="94" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N94" s="22"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="22"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="22"/>
+    </row>
+    <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N95" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="O95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="P95" s="17" t="n">
+        <f aca="false">W58</f>
+        <v>0.97</v>
+      </c>
+      <c r="Q95" s="16" t="n">
+        <f aca="false">STDEV(I60,I65,I70)</f>
+        <v>0.0173205080756888</v>
+      </c>
+      <c r="R95" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N96" s="16"/>
+      <c r="O96" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P96" s="17" t="n">
+        <f aca="false">W61</f>
+        <v>0.916666666666667</v>
+      </c>
+      <c r="Q96" s="16" t="n">
+        <f aca="false">STDEV(X34,X39,X44)</f>
+        <v>0.0568624070307733</v>
+      </c>
+      <c r="R96" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N97" s="16"/>
+      <c r="O97" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P97" s="17" t="n">
+        <f aca="false">W64</f>
+        <v>0.616666666666667</v>
+      </c>
+      <c r="Q97" s="16" t="n">
+        <f aca="false">STDEV(AL34,AL39,AL44)</f>
+        <v>0.300887575903913</v>
+      </c>
+      <c r="R97" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="22"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="22"/>
+    </row>
+    <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N99" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O99" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" s="17" t="n">
+        <f aca="false">W59</f>
+        <v>0.97</v>
+      </c>
+      <c r="Q99" s="16" t="n">
+        <f aca="false">STDEV(I61,I66,I71)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R99" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N100" s="16"/>
+      <c r="O100" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P100" s="17" t="n">
+        <f aca="false">W62</f>
+        <v>0.966666666666667</v>
+      </c>
+      <c r="Q100" s="16" t="n">
+        <f aca="false">STDEV(X35,X40,X45)</f>
+        <v>0.023094010767585</v>
+      </c>
+      <c r="R100" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N101" s="16"/>
+      <c r="O101" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P101" s="17" t="n">
+        <f aca="false">W65</f>
+        <v>0.523333333333333</v>
+      </c>
+      <c r="Q101" s="16" t="n">
+        <f aca="false">STDEV(AL35,AL40,AL45)</f>
+        <v>0.221434715736565</v>
+      </c>
+      <c r="R101" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="22"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="22"/>
+    </row>
+    <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N103" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O103" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P103" s="17" t="n">
+        <f aca="false">W60</f>
+        <v>0.946666666666667</v>
+      </c>
+      <c r="Q103" s="16" t="n">
+        <f aca="false">STDEV(I62,I67,I72)</f>
+        <v>0.0378593889720018</v>
+      </c>
+      <c r="R103" s="16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N104" s="16"/>
+      <c r="O104" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="P104" s="17" t="n">
+        <f aca="false">W63</f>
+        <v>0.966666666666667</v>
+      </c>
+      <c r="Q104" s="16" t="n">
+        <f aca="false">STDEV(X36,X41,X46)</f>
+        <v>0.0152752523165194</v>
+      </c>
+      <c r="R104" s="16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N105" s="16"/>
+      <c r="O105" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P105" s="17" t="n">
+        <f aca="false">W66</f>
+        <v>0.69</v>
+      </c>
+      <c r="Q105" s="16" t="n">
+        <f aca="false">STDEV(AL36,AL41,AL46)</f>
+        <v>0.02</v>
+      </c>
+      <c r="R105" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6706,7 +8339,7 @@
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="69">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="P1:Q1"/>
@@ -6770,6 +8403,12 @@
     <mergeCell ref="Y64:Y66"/>
     <mergeCell ref="K69:M72"/>
     <mergeCell ref="K74:M77"/>
+    <mergeCell ref="N82:N84"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="N90:N92"/>
+    <mergeCell ref="N95:N97"/>
+    <mergeCell ref="N99:N101"/>
+    <mergeCell ref="N103:N105"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6789,7 +8428,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -6812,7 +8451,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -6886,10 +8525,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -6912,10 +8551,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -6938,10 +8577,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -6992,10 +8631,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -7018,10 +8657,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -7044,10 +8683,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -7098,10 +8737,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -7124,10 +8763,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -7150,10 +8789,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -7288,12 +8927,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -7367,10 +9006,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -7393,10 +9032,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -7419,10 +9058,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -7473,10 +9112,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -7499,10 +9138,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -7525,10 +9164,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -7591,10 +9230,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -7617,10 +9256,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -7643,10 +9282,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -7811,11 +9450,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -7833,7 +9472,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8433,12 +10072,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -528,7 +528,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
@@ -560,11 +560,11 @@
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF3838"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -576,7 +576,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -588,10 +588,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501277866342772"/>
-          <c:y val="0.101043728630556"/>
-          <c:w val="0.900554163819935"/>
-          <c:h val="0.746670865574951"/>
+          <c:x val="0.0501290551141252"/>
+          <c:y val="0.101048274620957"/>
+          <c:w val="0.900526342426236"/>
+          <c:h val="0.746659468214334"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -905,11 +905,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48607275"/>
-        <c:axId val="77110964"/>
+        <c:axId val="63716207"/>
+        <c:axId val="16977"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48607275"/>
+        <c:axId val="63716207"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -977,14 +977,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77110964"/>
+        <c:crossAx val="16977"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77110964"/>
+        <c:axId val="16977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1060,7 +1060,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48607275"/>
+        <c:crossAx val="63716207"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1110,7 +1110,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1177,6 +1177,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1195,6 +1196,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1347,6 +1349,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1513,6 +1516,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1531,6 +1535,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1683,6 +1688,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1835,6 +1841,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2001,6 +2008,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2019,6 +2027,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2128,11 +2137,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12847412"/>
-        <c:axId val="89591949"/>
+        <c:axId val="49806575"/>
+        <c:axId val="55424121"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12847412"/>
+        <c:axId val="49806575"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -2177,7 +2186,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2199,13 +2208,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89591949"/>
+        <c:crossAx val="55424121"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89591949"/>
+        <c:axId val="55424121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2259,7 +2268,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2281,10 +2290,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12847412"/>
+        <c:crossAx val="49806575"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.1"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2323,7 +2332,1680 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff6d6d"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff6d6d"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff6d6d"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ff6d6d"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$82:$Q$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0435889894354067</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.155670592384475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$82:$Q$84</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0435889894354067</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.155670592384475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff6d6d"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$82:$R$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$82:$P$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.623333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$86:$Q$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.161658075373095</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.225018517756502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$86:$Q$88</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0152752523165195</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.161658075373095</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.225018517756502</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="f10d0c"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$86:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$86:$P$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.486666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff3838"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff3838"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff3838"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="ff3838"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$90:$Q$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0503322295684717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.030550504633039</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0585946527708232</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$90:$Q$92</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0503322295684717</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.030550504633039</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0585946527708232</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="ff3838"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$90:$R$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$90:$P$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.676666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.556666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$95</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$95:$Q$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0173205080756888</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0568624070307733</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.300887575903913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$95:$Q$97</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0173205080756888</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0568624070307733</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.300887575903913</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="069a2e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$95:$R$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$95:$P$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$99</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3faf46"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="3faf46"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3faf46"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$99:$Q$101</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.023094010767585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.221434715736565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$99:$Q$101</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.023094010767585</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.221434715736565</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="3faf46"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$99:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$99:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$N$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="77bc65"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="77bc65"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="77bc65"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="77bc65"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$103:$Q$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0378593889720018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165194</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$Q$103:$Q$105</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0378593889720018</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0152752523165194</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="77bc65"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$103:$R$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$103:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="15831808"/>
+        <c:axId val="90436232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15831808"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sending interval in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90436232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="90436232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>package delivery ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15831808"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0501290551141252"/>
+          <c:y val="0.101048274620957"/>
+          <c:w val="0.900526342426236"/>
+          <c:h val="0.746659468214334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$O$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Raw LoRa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.117015351952607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130398250385899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0945946517946345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.117015351952607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130398250385899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0945946517946345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="f10d0c"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$Q$69:$Q$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$69:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$O$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAC Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.013471506281091</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0288675134594813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0835330939076111</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.013471506281091</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0288675134594813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0835330939076111</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="069a2e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$Q$73:$Q$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$73:$P$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.962222222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="47505677"/>
+        <c:axId val="31888316"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47505677"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>sending interval in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12600">
+            <a:solidFill>
+              <a:srgbClr val="cccccc"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31888316"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="31888316"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>package delivery ratio (PDR)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47505677"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.05"/>
+        <c:minorUnit val="0.025"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2341,9 +4023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>214560</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2351,8 +4033,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33293880" y="16205400"/>
-        <a:ext cx="14226480" cy="8001720"/>
+        <a:off x="33294600" y="16205400"/>
+        <a:ext cx="14226120" cy="8001360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2371,9 +4053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1874160</xdr:colOff>
+      <xdr:colOff>1873800</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2382,11 +4064,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17734680" y="25659360"/>
-        <a:ext cx="14334840" cy="8062920"/>
+        <a:ext cx="14335200" cy="8062560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>794160</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>169560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1890720</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="17751600" y="34045200"/>
+        <a:ext cx="14335200" cy="8021880"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2609280</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>611280</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>147600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="32805360" y="24498000"/>
+        <a:ext cx="14226120" cy="8001360"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2402,11 +4144,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N102" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T103" activeCellId="0" sqref="T103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P96" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U170" activeCellId="0" sqref="U170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -2419,7 +4161,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="11" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="41.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="41.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="26.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.63"/>
@@ -8428,7 +10170,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -9450,11 +11192,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="86">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -129,6 +129,12 @@
     <t xml:space="preserve">Backoff + Retransmission </t>
   </si>
   <si>
+    <t xml:space="preserve">Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundancy experiment PDRs</t>
+  </si>
+  <si>
     <t xml:space="preserve">30s Raw LoRa</t>
   </si>
   <si>
@@ -141,16 +147,25 @@
     <t xml:space="preserve">Exp 30 Backoff + Retransmission #1 </t>
   </si>
   <si>
+    <t xml:space="preserve">no fault</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exp 30 Raw Lora #2</t>
   </si>
   <si>
     <t xml:space="preserve">Exp 30 Backoff + Retransmission #2</t>
   </si>
   <si>
+    <t xml:space="preserve">fault</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exp 30 Raw Lora #3</t>
   </si>
   <si>
     <t xml:space="preserve">Exp 30 Backoff + Retransmission #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redundant</t>
   </si>
   <si>
     <t xml:space="preserve">15s Raw LoRa</t>
@@ -225,9 +240,6 @@
     <t xml:space="preserve">Median perf. Incr. Sigma</t>
   </si>
   <si>
-    <t xml:space="preserve">Board</t>
-  </si>
-  <si>
     <t xml:space="preserve">Experiment</t>
   </si>
   <si>
@@ -238,6 +250,24 @@
   </si>
   <si>
     <t xml:space="preserve">3 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 1 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 2 MAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Board 3 MAC</t>
   </si>
   <si>
     <t xml:space="preserve">(3 boards, 15 min)</t>
@@ -262,7 +292,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -329,6 +359,11 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -527,8 +562,8 @@
       <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF069A2E"/>
+      <rgbColor rgb="FFA7074B"/>
+      <rgbColor rgb="FF168253"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
@@ -560,11 +595,11 @@
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF3838"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF3FAF46"/>
+      <rgbColor rgb="FF069A2E"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -588,10 +623,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501290551141252"/>
-          <c:y val="0.101048274620957"/>
-          <c:w val="0.900526342426236"/>
-          <c:h val="0.746659468214334"/>
+          <c:x val="0.0501315922664237"/>
+          <c:y val="0.101061915046796"/>
+          <c:w val="0.900445389209434"/>
+          <c:h val="0.746625269978402"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -905,11 +940,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63716207"/>
-        <c:axId val="16977"/>
+        <c:axId val="48826424"/>
+        <c:axId val="41061981"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63716207"/>
+        <c:axId val="48826424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -977,14 +1012,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16977"/>
+        <c:crossAx val="41061981"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16977"/>
+        <c:axId val="41061981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1060,7 +1095,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63716207"/>
+        <c:crossAx val="48826424"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -2137,11 +2172,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49806575"/>
-        <c:axId val="55424121"/>
+        <c:axId val="90408530"/>
+        <c:axId val="17911798"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49806575"/>
+        <c:axId val="90408530"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -2208,13 +2243,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55424121"/>
+        <c:crossAx val="17911798"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55424121"/>
+        <c:axId val="17911798"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2290,7 +2325,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49806575"/>
+        <c:crossAx val="90408530"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2354,43 +2389,46 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$82</c:f>
+              <c:f>Baseline_100pkt!$L$150</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Board 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff6d6d"/>
+              <a:srgbClr val="f10d0c"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff6d6d"/>
+                <a:srgbClr val="f10d0c"/>
               </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
+            <c:symbol val="triangle"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff6d6d"/>
+                <a:srgbClr val="f10d0c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
             <c:marker>
-              <c:symbol val="square"/>
+              <c:symbol val="triangle"/>
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="ff6d6d"/>
+                  <a:srgbClr val="f10d0c"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -2481,7 +2519,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff6d6d"/>
+                  <a:srgbClr val="f10d0c"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2529,23 +2567,26 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$86</c:f>
+              <c:f>Baseline_100pkt!$L$151</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>Board 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="f10d0c"/>
+              <a:srgbClr val="3465a4"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="f10d0c"/>
+                <a:srgbClr val="3465a4"/>
               </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -2554,7 +2595,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="f10d0c"/>
+                <a:srgbClr val="3465a4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -2623,7 +2664,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="f10d0c"/>
+                  <a:srgbClr val="3465a4"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2671,23 +2712,26 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$90</c:f>
+              <c:f>Baseline_100pkt!$L$152</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>Board 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ff3838"/>
+              <a:srgbClr val="069a2e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff3838"/>
+                <a:srgbClr val="069a2e"/>
               </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
               <a:round/>
             </a:ln>
           </c:spPr>
@@ -2696,44 +2740,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff3838"/>
+                <a:srgbClr val="069a2e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="triangle"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ff3838"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -2798,7 +2809,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="ff3838"/>
+                  <a:srgbClr val="069a2e"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2846,32 +2857,32 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$95</c:f>
+              <c:f>Baseline_100pkt!$L$153</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 MAC</c:v>
+                  <c:v>Board 1 MAC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="069a2e"/>
+              <a:srgbClr val="f10d0c"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="069a2e"/>
+                <a:srgbClr val="f10d0c"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="triangle"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="069a2e"/>
+                <a:srgbClr val="f10d0c"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -2940,7 +2951,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="069a2e"/>
+                  <a:srgbClr val="f10d0c"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -2988,22 +2999,22 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$99</c:f>
+              <c:f>Baseline_100pkt!$L$154</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 MAC</c:v>
+                  <c:v>Board 2 MAC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="3faf46"/>
+              <a:srgbClr val="3465a4"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="3faf46"/>
+                <a:srgbClr val="3465a4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3013,7 +3024,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3faf46"/>
+                <a:srgbClr val="3465a4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -3082,7 +3093,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="3faf46"/>
+                  <a:srgbClr val="3465a4"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -3130,22 +3141,22 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$N$103</c:f>
+              <c:f>Baseline_100pkt!$L$155</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 MAC</c:v>
+                  <c:v>Board 3 MAC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="77bc65"/>
+              <a:srgbClr val="069a2e"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="77bc65"/>
+                <a:srgbClr val="069a2e"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3155,7 +3166,7 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="77bc65"/>
+                <a:srgbClr val="069a2e"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -3166,7 +3177,7 @@
               <c:size val="8"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="77bc65"/>
+                  <a:srgbClr val="069a2e"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -3257,7 +3268,7 @@
             <c:spPr>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="77bc65"/>
+                  <a:srgbClr val="069a2e"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -3300,11 +3311,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15831808"/>
-        <c:axId val="90436232"/>
+        <c:axId val="97316583"/>
+        <c:axId val="87434652"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15831808"/>
+        <c:axId val="97316583"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3371,13 +3382,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90436232"/>
+        <c:crossAx val="87434652"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90436232"/>
+        <c:axId val="87434652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3453,7 +3464,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15831808"/>
+        <c:crossAx val="97316583"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3514,10 +3525,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501290551141252"/>
-          <c:y val="0.101048274620957"/>
-          <c:w val="0.900526342426236"/>
-          <c:h val="0.746659468214334"/>
+          <c:x val="0.0501315922664237"/>
+          <c:y val="0.101061915046796"/>
+          <c:w val="0.900445389209434"/>
+          <c:h val="0.746625269978402"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3807,11 +3818,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47505677"/>
-        <c:axId val="31888316"/>
+        <c:axId val="4743745"/>
+        <c:axId val="48770177"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47505677"/>
+        <c:axId val="4743745"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3879,14 +3890,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31888316"/>
+        <c:crossAx val="48770177"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31888316"/>
+        <c:axId val="48770177"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3962,7 +3973,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47505677"/>
+        <c:crossAx val="4743745"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -4012,20 +4023,354 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$AD$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no fault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="a7074b"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$AE$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$AD$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="168253"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$AE$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$AD$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>redundant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3465a4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$AE$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="72453050"/>
+        <c:axId val="7696785"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72453050"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7696785"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="7696785"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>package delivery ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72453050"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>486720</xdr:colOff>
+      <xdr:colOff>487080</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:rowOff>213120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4033,8 +4378,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="33294600" y="16205400"/>
-        <a:ext cx="14226120" cy="8001360"/>
+        <a:off x="33295320" y="16205400"/>
+        <a:ext cx="14225400" cy="8000280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4047,15 +4392,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
+      <xdr:colOff>777600</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1873800</xdr:colOff>
+      <xdr:colOff>1873080</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4063,8 +4408,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17734680" y="25659360"/>
-        <a:ext cx="14335200" cy="8062560"/>
+        <a:off x="17735040" y="25659720"/>
+        <a:ext cx="14334480" cy="8061480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4077,15 +4422,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>794160</xdr:colOff>
+      <xdr:colOff>794520</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1890720</xdr:colOff>
+      <xdr:colOff>1890000</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4093,8 +4438,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17751600" y="34045200"/>
-        <a:ext cx="14335200" cy="8021880"/>
+        <a:off x="17751960" y="34045560"/>
+        <a:ext cx="14334480" cy="8020800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4107,15 +4452,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>2609280</xdr:colOff>
+      <xdr:colOff>2609640</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>611280</xdr:colOff>
+      <xdr:colOff>610560</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4123,12 +4468,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="32805360" y="24498000"/>
-        <a:ext cx="14226120" cy="8001360"/>
+        <a:off x="32806080" y="24498360"/>
+        <a:ext cx="14225400" cy="8000280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>29160</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>511200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="48075480" y="14722920"/>
+        <a:ext cx="7783560" cy="4377960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4144,11 +4519,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P96" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U170" activeCellId="0" sqref="U170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W35" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH70" activeCellId="0" sqref="AH70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.33984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -4173,8 +4548,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="32.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="33.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="30.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="34.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="33.74"/>
@@ -8546,6 +8921,12 @@
       <c r="Y57" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="AD57" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE57" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
@@ -8559,10 +8940,10 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="O58" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q58" s="17" t="n">
         <f aca="false">I49</f>
@@ -8579,10 +8960,10 @@
         <v>30</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W58" s="17" t="n">
         <f aca="false">I75</f>
@@ -8595,6 +8976,12 @@
       <c r="Y58" s="17" t="n">
         <f aca="false">STDEV(W58:W60)</f>
         <v>0.013471506281091</v>
+      </c>
+      <c r="AD58" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE58" s="16" t="n">
+        <v>0.7434</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8635,7 +9022,7 @@
       <c r="M59" s="7"/>
       <c r="O59" s="14"/>
       <c r="P59" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q59" s="17" t="n">
         <f aca="false">I50</f>
@@ -8646,7 +9033,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="14"/>
       <c r="V59" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W59" s="17" t="n">
         <f aca="false">I76</f>
@@ -8654,6 +9041,12 @@
       </c>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
+      <c r="AD59" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE59" s="16" t="n">
+        <v>0.4157</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
@@ -8695,7 +9088,7 @@
       <c r="M60" s="7"/>
       <c r="O60" s="14"/>
       <c r="P60" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q60" s="17" t="n">
         <f aca="false">I51</f>
@@ -8706,7 +9099,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="14"/>
       <c r="V60" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W60" s="17" t="n">
         <f aca="false">I77</f>
@@ -8714,6 +9107,12 @@
       </c>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
+      <c r="AD60" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE60" s="16" t="n">
+        <v>0.8427</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
@@ -8754,10 +9153,10 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="O61" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q61" s="17" t="n">
         <f aca="false">X23</f>
@@ -8774,10 +9173,10 @@
         <v>15</v>
       </c>
       <c r="U61" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="V61" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W61" s="17" t="n">
         <f aca="false">X49</f>
@@ -8832,7 +9231,7 @@
       <c r="M62" s="7"/>
       <c r="O62" s="14"/>
       <c r="P62" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q62" s="17" t="n">
         <f aca="false">X24</f>
@@ -8843,7 +9242,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="14"/>
       <c r="V62" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W62" s="17" t="n">
         <f aca="false">X50</f>
@@ -8865,7 +9264,7 @@
       <c r="M63" s="4"/>
       <c r="O63" s="14"/>
       <c r="P63" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q63" s="17" t="n">
         <f aca="false">X25</f>
@@ -8876,7 +9275,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="14"/>
       <c r="V63" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="W63" s="17" t="n">
         <f aca="false">X51</f>
@@ -8922,10 +9321,10 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="O64" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="Q64" s="17" t="n">
         <f aca="false">AL23</f>
@@ -8942,10 +9341,10 @@
         <v>5</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="V64" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="W64" s="17" t="n">
         <f aca="false">AL49</f>
@@ -9000,7 +9399,7 @@
       <c r="M65" s="7"/>
       <c r="O65" s="14"/>
       <c r="P65" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q65" s="17" t="n">
         <f aca="false">AL24</f>
@@ -9011,7 +9410,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="14"/>
       <c r="V65" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="W65" s="17" t="n">
         <f aca="false">AL50</f>
@@ -9060,7 +9459,7 @@
       <c r="M66" s="7"/>
       <c r="O66" s="14"/>
       <c r="P66" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q66" s="17" t="n">
         <f aca="false">AL25</f>
@@ -9071,7 +9470,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="14"/>
       <c r="V66" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="W66" s="17" t="n">
         <f aca="false">AL51</f>
@@ -9123,22 +9522,22 @@
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
       <c r="O68" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P68" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R68" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="S68" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="T68" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,7 +9759,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="O73" s="18" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P73" s="17" t="n">
         <f aca="false">X58</f>
@@ -9600,7 +9999,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="O77" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="P77" s="20"/>
       <c r="Q77" s="19"/>
@@ -9613,7 +10012,7 @@
     </row>
     <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O78" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P78" s="20"/>
       <c r="Q78" s="19"/>
@@ -9628,16 +10027,16 @@
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="81" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N81" s="16" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P81" s="16" t="s">
         <v>12</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>33</v>
@@ -9648,7 +10047,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P82" s="17" t="n">
         <f aca="false">Q58</f>
@@ -9665,7 +10064,7 @@
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N83" s="16"/>
       <c r="O83" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P83" s="17" t="n">
         <f aca="false">Q61</f>
@@ -9682,7 +10081,7 @@
     <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N84" s="16"/>
       <c r="O84" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P84" s="17" t="n">
         <f aca="false">Q64</f>
@@ -9708,7 +10107,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P86" s="17" t="n">
         <f aca="false">Q59</f>
@@ -9725,7 +10124,7 @@
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N87" s="16"/>
       <c r="O87" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P87" s="17" t="n">
         <f aca="false">Q62</f>
@@ -9742,7 +10141,7 @@
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N88" s="16"/>
       <c r="O88" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="P88" s="17" t="n">
         <f aca="false">Q65</f>
@@ -9768,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P90" s="17" t="n">
         <f aca="false">Q60</f>
@@ -9785,7 +10184,7 @@
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N91" s="16"/>
       <c r="O91" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P91" s="17" t="n">
         <f aca="false">Q63</f>
@@ -9802,7 +10201,7 @@
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N92" s="16"/>
       <c r="O92" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="P92" s="17" t="n">
         <f aca="false">Q66</f>
@@ -9832,10 +10231,10 @@
     </row>
     <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N95" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P95" s="17" t="n">
         <f aca="false">W58</f>
@@ -9852,7 +10251,7 @@
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N96" s="16"/>
       <c r="O96" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P96" s="17" t="n">
         <f aca="false">W61</f>
@@ -9869,7 +10268,7 @@
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N97" s="16"/>
       <c r="O97" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P97" s="17" t="n">
         <f aca="false">W64</f>
@@ -9892,10 +10291,10 @@
     </row>
     <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N99" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P99" s="17" t="n">
         <f aca="false">W59</f>
@@ -9912,7 +10311,7 @@
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N100" s="16"/>
       <c r="O100" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P100" s="17" t="n">
         <f aca="false">W62</f>
@@ -9929,7 +10328,7 @@
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N101" s="16"/>
       <c r="O101" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P101" s="17" t="n">
         <f aca="false">W65</f>
@@ -9952,10 +10351,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N103" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P103" s="17" t="n">
         <f aca="false">W60</f>
@@ -9972,7 +10371,7 @@
     <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N104" s="16"/>
       <c r="O104" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="P104" s="17" t="n">
         <f aca="false">W63</f>
@@ -9989,7 +10388,7 @@
     <row r="105" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N105" s="16"/>
       <c r="O105" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P105" s="17" t="n">
         <f aca="false">W66</f>
@@ -10047,12 +10446,36 @@
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L150" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L151" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L152" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L153" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L154" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L155" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10170,7 +10593,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -10193,7 +10616,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -10267,10 +10690,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -10293,10 +10716,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -10319,10 +10742,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -10373,10 +10796,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -10399,10 +10822,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -10425,10 +10848,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -10479,10 +10902,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -10505,10 +10928,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -10531,10 +10954,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -10669,12 +11092,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -10748,10 +11171,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -10774,10 +11197,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -10800,10 +11223,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -10854,10 +11277,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -10880,10 +11303,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -10906,10 +11329,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -10972,10 +11395,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -10998,10 +11421,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -11024,10 +11447,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -11192,11 +11615,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.34765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -11214,7 +11637,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -11814,12 +12237,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="88">
   <si>
     <t xml:space="preserve">Baseline 1</t>
   </si>
@@ -135,6 +135,9 @@
     <t xml:space="preserve">Redundancy experiment PDRs</t>
   </si>
   <si>
+    <t xml:space="preserve">pkt tx</t>
+  </si>
+  <si>
     <t xml:space="preserve">30s Raw LoRa</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
     <t xml:space="preserve">perfomance increase sigma</t>
   </si>
   <si>
+    <t xml:space="preserve">Baseline</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAC Layer</t>
   </si>
   <si>
@@ -252,13 +258,13 @@
     <t xml:space="preserve">3 MAC</t>
   </si>
   <si>
-    <t xml:space="preserve">Board 1</t>
+    <t xml:space="preserve">Board 1 Baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Board 2</t>
+    <t xml:space="preserve">Board 2 Baseline</t>
   </si>
   <si>
-    <t xml:space="preserve">Board 3</t>
+    <t xml:space="preserve">Board 3 Baseline</t>
   </si>
   <si>
     <t xml:space="preserve">Board 1 MAC</t>
@@ -562,7 +568,7 @@
       <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FFA7074B"/>
+      <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF168253"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
@@ -593,7 +599,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF77BC65"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF3465A4"/>
@@ -611,7 +617,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -623,10 +629,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501315922664237"/>
-          <c:y val="0.101061915046796"/>
-          <c:w val="0.900445389209434"/>
-          <c:h val="0.746625269978402"/>
+          <c:x val="0.050134129675558"/>
+          <c:y val="0.101071010710107"/>
+          <c:w val="0.900389735283697"/>
+          <c:h val="0.74660246602466"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -641,7 +647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw LoRa</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -940,11 +946,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48826424"/>
-        <c:axId val="41061981"/>
+        <c:axId val="79200103"/>
+        <c:axId val="63089363"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48826424"/>
+        <c:axId val="79200103"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -1012,14 +1018,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41061981"/>
+        <c:crossAx val="63089363"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41061981"/>
+        <c:axId val="63089363"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1095,7 +1101,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48826424"/>
+        <c:crossAx val="79200103"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -1145,7 +1151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2172,11 +2178,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="90408530"/>
-        <c:axId val="17911798"/>
+        <c:axId val="82928897"/>
+        <c:axId val="9932941"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90408530"/>
+        <c:axId val="82928897"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -2243,13 +2249,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17911798"/>
+        <c:crossAx val="9932941"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17911798"/>
+        <c:axId val="9932941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2325,7 +2331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90408530"/>
+        <c:crossAx val="82928897"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -2374,7 +2380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2393,7 +2399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Board 1</c:v>
+                  <c:v>Board 1 Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2571,7 +2577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Board 2</c:v>
+                  <c:v>Board 2 Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2716,7 +2722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Board 3</c:v>
+                  <c:v>Board 3 Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3311,11 +3317,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97316583"/>
-        <c:axId val="87434652"/>
+        <c:axId val="8011207"/>
+        <c:axId val="83109481"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97316583"/>
+        <c:axId val="8011207"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3382,13 +3388,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87434652"/>
+        <c:crossAx val="83109481"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87434652"/>
+        <c:axId val="83109481"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3464,7 +3470,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97316583"/>
+        <c:crossAx val="8011207"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3513,7 +3519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3525,10 +3531,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0501315922664237"/>
-          <c:y val="0.101061915046796"/>
-          <c:w val="0.900445389209434"/>
-          <c:h val="0.746625269978402"/>
+          <c:x val="0.050134129675558"/>
+          <c:y val="0.101071010710107"/>
+          <c:w val="0.900389735283697"/>
+          <c:h val="0.74660246602466"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3543,7 +3549,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Raw LoRa</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3818,11 +3824,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4743745"/>
-        <c:axId val="48770177"/>
+        <c:axId val="11905682"/>
+        <c:axId val="98694400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4743745"/>
+        <c:axId val="11905682"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3890,14 +3896,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48770177"/>
+        <c:crossAx val="98694400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48770177"/>
+        <c:axId val="98694400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3973,7 +3979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4743745"/>
+        <c:crossAx val="11905682"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -4023,7 +4029,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4039,67 +4045,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$AD$58</c:f>
+              <c:f>Baseline_100pkt!$AD$58:$AD$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>no fault</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a7074b"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>Baseline_100pkt!$AE$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.7434</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Baseline_100pkt!$AD$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fault</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4125,6 +4075,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4135,12 +4086,69 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Baseline_100pkt!$AE$59</c:f>
+              <c:f>Baseline_100pkt!$AE$58:$AE$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.4157</c:v>
+                  <c:v>0.7434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$AD$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no fault</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$AE$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,11 +4159,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baseline_100pkt!$AD$60</c:f>
+              <c:f>Baseline_100pkt!$AD$59:$AD$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>redundant</c:v>
+                  <c:v>fault</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4181,6 +4189,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4191,12 +4200,12 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Baseline_100pkt!$AE$60</c:f>
+              <c:f>Baseline_100pkt!$AE$59:$AE$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8427</c:v>
+                  <c:v>0.4157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,11 +4213,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="72453050"/>
-        <c:axId val="7696785"/>
+        <c:axId val="83241949"/>
+        <c:axId val="11274034"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72453050"/>
+        <c:axId val="83241949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,7 +4245,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7696785"/>
+        <c:crossAx val="11274034"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4244,7 +4253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7696785"/>
+        <c:axId val="11274034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4296,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4309,7 +4318,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72453050"/>
+        <c:crossAx val="83241949"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4350,7 +4359,1362 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$150</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 1 Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="f10d0c"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$82:$R$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$82:$P$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.863333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.623333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$151</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 2 Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3465a4"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="3465a4"/>
+              </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3465a4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$86:$R$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$86:$P$88</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.486666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.436666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 3 Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+              <a:custDash>
+                <a:ds d="197000" sp="127000"/>
+              </a:custDash>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$90:$R$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$90:$P$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.676666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.556666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$153</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 1 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$95:$R$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$95:$P$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 2 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="3465a4"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="3465a4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3465a4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$99:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$99:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.523333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$L$155</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Board 3 MAC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="069a2e"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$R$103:$R$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$103:$P$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.946666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="66796444"/>
+        <c:axId val="42642176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66796444"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Transmission interval (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42642176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42642176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Packet delivery ratio (PDR)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66796444"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.050134129675558"/>
+          <c:y val="0.101071010710107"/>
+          <c:w val="0.900389735283697"/>
+          <c:h val="0.74660246602466"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$O$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="f10d0c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="f10d0c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.117015351952607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130398250385899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0945946517946345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$69:$R$71</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.117015351952607</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.130398250385899</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0945946517946345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="f10d0c"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$Q$69:$Q$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$69:$P$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baseline_100pkt!$O$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAC Layer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="069a2e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="069a2e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.013471506281091</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0288675134594813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0835330939076111</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Baseline_100pkt!$R$73:$R$75</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.013471506281091</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0288675134594813</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0835330939076111</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="069a2e"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$Q$73:$Q$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Baseline_100pkt!$P$73:$P$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.962222222222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="15847496"/>
+        <c:axId val="3323568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="15847496"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Transmission interval (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12600">
+            <a:solidFill>
+              <a:srgbClr val="cccccc"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3323568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3323568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="dddddd"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Packet delivery ratio (PDR)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15847496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.05"/>
+        <c:minorUnit val="0.025"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -4368,9 +5732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>286920</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>213120</xdr:rowOff>
+      <xdr:rowOff>212400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4379,7 +5743,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33295320" y="16205400"/>
-        <a:ext cx="14225400" cy="8000280"/>
+        <a:ext cx="14224680" cy="7999560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4398,9 +5762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1873080</xdr:colOff>
+      <xdr:colOff>1872360</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4409,7 +5773,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17735040" y="25659720"/>
-        <a:ext cx="14334480" cy="8061480"/>
+        <a:ext cx="14333760" cy="8060760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4428,9 +5792,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1890000</xdr:colOff>
+      <xdr:colOff>1889280</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4439,7 +5803,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17751960" y="34045560"/>
-        <a:ext cx="14334480" cy="8020800"/>
+        <a:ext cx="14333760" cy="8020080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4458,9 +5822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>610560</xdr:colOff>
+      <xdr:colOff>609840</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4469,7 +5833,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="32806080" y="24498360"/>
-        <a:ext cx="14225400" cy="8000280"/>
+        <a:ext cx="14224680" cy="7999560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4488,9 +5852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>511200</xdr:colOff>
+      <xdr:colOff>510480</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4499,11 +5863,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="48075480" y="14722920"/>
-        <a:ext cx="7783560" cy="4377960"/>
+        <a:ext cx="7781400" cy="4377240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>2592000</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>177840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>701280</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="32788440" y="34244280"/>
+        <a:ext cx="14333760" cy="8020080"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>33120</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>126720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>141480</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="48079440" y="24369480"/>
+        <a:ext cx="16838280" cy="9131400"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4519,11 +5943,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W35" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH70" activeCellId="0" sqref="AH70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V116" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T164" activeCellId="0" sqref="T164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -4548,7 +5972,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="25.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="32.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="30.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="30.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="34.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="15.89"/>
@@ -8927,6 +10351,9 @@
       <c r="AE57" s="16" t="s">
         <v>36</v>
       </c>
+      <c r="AF57" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
@@ -8940,10 +10367,10 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="O58" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q58" s="17" t="n">
         <f aca="false">I49</f>
@@ -8960,10 +10387,10 @@
         <v>30</v>
       </c>
       <c r="U58" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V58" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W58" s="17" t="n">
         <f aca="false">I75</f>
@@ -8978,11 +10405,12 @@
         <v>0.013471506281091</v>
       </c>
       <c r="AD58" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE58" s="16" t="n">
         <v>0.7434</v>
       </c>
+      <c r="AF58" s="16"/>
     </row>
     <row r="59" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
@@ -9022,7 +10450,7 @@
       <c r="M59" s="7"/>
       <c r="O59" s="14"/>
       <c r="P59" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q59" s="17" t="n">
         <f aca="false">I50</f>
@@ -9033,7 +10461,7 @@
       <c r="T59" s="16"/>
       <c r="U59" s="14"/>
       <c r="V59" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W59" s="17" t="n">
         <f aca="false">I76</f>
@@ -9042,10 +10470,13 @@
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
       <c r="AD59" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE59" s="16" t="n">
         <v>0.4157</v>
+      </c>
+      <c r="AF59" s="16" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9088,7 +10519,7 @@
       <c r="M60" s="7"/>
       <c r="O60" s="14"/>
       <c r="P60" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q60" s="17" t="n">
         <f aca="false">I51</f>
@@ -9099,7 +10530,7 @@
       <c r="T60" s="16"/>
       <c r="U60" s="14"/>
       <c r="V60" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W60" s="17" t="n">
         <f aca="false">I77</f>
@@ -9108,10 +10539,13 @@
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
       <c r="AD60" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AE60" s="16" t="n">
         <v>0.8427</v>
+      </c>
+      <c r="AF60" s="16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9153,10 +10587,10 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
       <c r="O61" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P61" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q61" s="17" t="n">
         <f aca="false">X23</f>
@@ -9173,10 +10607,10 @@
         <v>15</v>
       </c>
       <c r="U61" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V61" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W61" s="17" t="n">
         <f aca="false">X49</f>
@@ -9231,7 +10665,7 @@
       <c r="M62" s="7"/>
       <c r="O62" s="14"/>
       <c r="P62" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q62" s="17" t="n">
         <f aca="false">X24</f>
@@ -9242,7 +10676,7 @@
       <c r="T62" s="16"/>
       <c r="U62" s="14"/>
       <c r="V62" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W62" s="17" t="n">
         <f aca="false">X50</f>
@@ -9264,7 +10698,7 @@
       <c r="M63" s="4"/>
       <c r="O63" s="14"/>
       <c r="P63" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q63" s="17" t="n">
         <f aca="false">X25</f>
@@ -9275,7 +10709,7 @@
       <c r="T63" s="16"/>
       <c r="U63" s="14"/>
       <c r="V63" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W63" s="17" t="n">
         <f aca="false">X51</f>
@@ -9321,10 +10755,10 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="O64" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P64" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q64" s="17" t="n">
         <f aca="false">AL23</f>
@@ -9341,10 +10775,10 @@
         <v>5</v>
       </c>
       <c r="U64" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W64" s="17" t="n">
         <f aca="false">AL49</f>
@@ -9399,7 +10833,7 @@
       <c r="M65" s="7"/>
       <c r="O65" s="14"/>
       <c r="P65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q65" s="17" t="n">
         <f aca="false">AL24</f>
@@ -9410,7 +10844,7 @@
       <c r="T65" s="16"/>
       <c r="U65" s="14"/>
       <c r="V65" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W65" s="17" t="n">
         <f aca="false">AL50</f>
@@ -9459,7 +10893,7 @@
       <c r="M66" s="7"/>
       <c r="O66" s="14"/>
       <c r="P66" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q66" s="17" t="n">
         <f aca="false">AL25</f>
@@ -9470,7 +10904,7 @@
       <c r="T66" s="16"/>
       <c r="U66" s="14"/>
       <c r="V66" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W66" s="17" t="n">
         <f aca="false">AL51</f>
@@ -9522,22 +10956,22 @@
       <c r="A68" s="4"/>
       <c r="D68" s="4"/>
       <c r="O68" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P68" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q68" s="16" t="s">
         <v>33</v>
       </c>
       <c r="R68" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S68" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T68" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9577,7 +11011,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
       <c r="O69" s="18" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="P69" s="17" t="n">
         <f aca="false">R58</f>
@@ -9759,7 +11193,7 @@
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="O73" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P73" s="17" t="n">
         <f aca="false">X58</f>
@@ -9999,7 +11433,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="O77" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P77" s="20"/>
       <c r="Q77" s="19"/>
@@ -10012,7 +11446,7 @@
     </row>
     <row r="78" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="O78" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P78" s="20"/>
       <c r="Q78" s="19"/>
@@ -10030,13 +11464,13 @@
         <v>35</v>
       </c>
       <c r="O81" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P81" s="16" t="s">
         <v>12</v>
       </c>
       <c r="Q81" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R81" s="16" t="s">
         <v>33</v>
@@ -10047,7 +11481,7 @@
         <v>1</v>
       </c>
       <c r="O82" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P82" s="17" t="n">
         <f aca="false">Q58</f>
@@ -10064,7 +11498,7 @@
     <row r="83" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N83" s="16"/>
       <c r="O83" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P83" s="17" t="n">
         <f aca="false">Q61</f>
@@ -10081,7 +11515,7 @@
     <row r="84" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N84" s="16"/>
       <c r="O84" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P84" s="17" t="n">
         <f aca="false">Q64</f>
@@ -10107,7 +11541,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P86" s="17" t="n">
         <f aca="false">Q59</f>
@@ -10124,7 +11558,7 @@
     <row r="87" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N87" s="16"/>
       <c r="O87" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P87" s="17" t="n">
         <f aca="false">Q62</f>
@@ -10141,7 +11575,7 @@
     <row r="88" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N88" s="16"/>
       <c r="O88" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P88" s="17" t="n">
         <f aca="false">Q65</f>
@@ -10167,7 +11601,7 @@
         <v>3</v>
       </c>
       <c r="O90" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P90" s="17" t="n">
         <f aca="false">Q60</f>
@@ -10184,7 +11618,7 @@
     <row r="91" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N91" s="16"/>
       <c r="O91" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P91" s="17" t="n">
         <f aca="false">Q63</f>
@@ -10201,7 +11635,7 @@
     <row r="92" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N92" s="16"/>
       <c r="O92" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P92" s="17" t="n">
         <f aca="false">Q66</f>
@@ -10231,10 +11665,10 @@
     </row>
     <row r="95" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N95" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O95" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P95" s="17" t="n">
         <f aca="false">W58</f>
@@ -10251,7 +11685,7 @@
     <row r="96" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N96" s="16"/>
       <c r="O96" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P96" s="17" t="n">
         <f aca="false">W61</f>
@@ -10268,7 +11702,7 @@
     <row r="97" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N97" s="16"/>
       <c r="O97" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P97" s="17" t="n">
         <f aca="false">W64</f>
@@ -10291,10 +11725,10 @@
     </row>
     <row r="99" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N99" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O99" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P99" s="17" t="n">
         <f aca="false">W59</f>
@@ -10311,7 +11745,7 @@
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N100" s="16"/>
       <c r="O100" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" s="17" t="n">
         <f aca="false">W62</f>
@@ -10328,7 +11762,7 @@
     <row r="101" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N101" s="16"/>
       <c r="O101" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P101" s="17" t="n">
         <f aca="false">W65</f>
@@ -10351,10 +11785,10 @@
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N103" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O103" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P103" s="17" t="n">
         <f aca="false">W60</f>
@@ -10371,7 +11805,7 @@
     <row r="104" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N104" s="16"/>
       <c r="O104" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P104" s="17" t="n">
         <f aca="false">W63</f>
@@ -10388,7 +11822,7 @@
     <row r="105" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="N105" s="16"/>
       <c r="O105" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P105" s="17" t="n">
         <f aca="false">W66</f>
@@ -10448,32 +11882,32 @@
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L150" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L151" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L152" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L153" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L154" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L155" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10593,7 +12027,7 @@
   </sheetPr>
   <dimension ref="A2:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -10616,7 +12050,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -10690,10 +12124,10 @@
         <v>0.96</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G10" s="9" t="n">
         <v>-101.07</v>
@@ -10716,10 +12150,10 @@
         <v>0.96</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="9" t="n">
         <v>-101.22</v>
@@ -10742,10 +12176,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" s="9" t="n">
         <v>-101.29</v>
@@ -10796,10 +12230,10 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="9" t="n">
         <v>-101.17</v>
@@ -10822,10 +12256,10 @@
         <v>0.96</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G16" s="9" t="n">
         <v>-101.96</v>
@@ -10848,10 +12282,10 @@
         <v>0.96</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="9" t="n">
         <v>-100.88</v>
@@ -10902,10 +12336,10 @@
         <v>0.93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G20" s="9" t="n">
         <v>-102.88</v>
@@ -10928,10 +12362,10 @@
         <v>0.96</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G21" s="9" t="n">
         <v>-103.92</v>
@@ -10954,10 +12388,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" s="9" t="n">
         <v>-102.07</v>
@@ -11092,12 +12526,12 @@
     </row>
     <row r="30" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -11171,10 +12605,10 @@
         <v>0.81</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G38" s="9" t="n">
         <v>-103.42</v>
@@ -11197,10 +12631,10 @@
         <v>0.81</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" s="9" t="n">
         <v>-102.75</v>
@@ -11223,10 +12657,10 @@
         <v>0.8</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G40" s="9" t="n">
         <v>-99.47</v>
@@ -11277,10 +12711,10 @@
         <v>0.81</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G43" s="9" t="n">
         <v>-98.86</v>
@@ -11303,10 +12737,10 @@
         <v>0.77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G44" s="9" t="n">
         <v>-99.63</v>
@@ -11329,10 +12763,10 @@
         <v>0.88</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G45" s="9" t="n">
         <v>-101.64</v>
@@ -11395,10 +12829,10 @@
         <v>0.92</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G48" s="9" t="n">
         <v>-89.75</v>
@@ -11421,10 +12855,10 @@
         <v>0.82</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G49" s="9" t="n">
         <v>-102.47</v>
@@ -11447,10 +12881,10 @@
         <v>0.85</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G50" s="9" t="n">
         <v>-102.7</v>
@@ -11615,11 +13049,11 @@
   </sheetPr>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
@@ -11637,7 +13071,7 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -12237,12 +13671,12 @@
     </row>
     <row r="29" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -298,7 +298,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -371,6 +371,16 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Times new roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Times new roman"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -629,10 +639,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.050134129675558"/>
-          <c:y val="0.101071010710107"/>
-          <c:w val="0.900389735283697"/>
-          <c:h val="0.74660246602466"/>
+          <c:x val="0.0501366673415671"/>
+          <c:y val="0.101080108010801"/>
+          <c:w val="0.900334075723831"/>
+          <c:h val="0.746579657965797"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -946,11 +956,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79200103"/>
-        <c:axId val="63089363"/>
+        <c:axId val="30918577"/>
+        <c:axId val="39019281"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79200103"/>
+        <c:axId val="30918577"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -1018,14 +1028,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63089363"/>
+        <c:crossAx val="39019281"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63089363"/>
+        <c:axId val="39019281"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1101,7 +1111,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79200103"/>
+        <c:crossAx val="30918577"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -2178,11 +2188,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82928897"/>
-        <c:axId val="9932941"/>
+        <c:axId val="96073978"/>
+        <c:axId val="31153323"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82928897"/>
+        <c:axId val="96073978"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -2249,13 +2259,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9932941"/>
+        <c:crossAx val="31153323"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9932941"/>
+        <c:axId val="31153323"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -2331,7 +2341,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82928897"/>
+        <c:crossAx val="96073978"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3317,11 +3327,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8011207"/>
-        <c:axId val="83109481"/>
+        <c:axId val="78503819"/>
+        <c:axId val="263285"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8011207"/>
+        <c:axId val="78503819"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3388,13 +3398,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83109481"/>
+        <c:crossAx val="263285"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83109481"/>
+        <c:axId val="263285"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3470,7 +3480,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8011207"/>
+        <c:crossAx val="78503819"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -3531,10 +3541,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.050134129675558"/>
-          <c:y val="0.101071010710107"/>
-          <c:w val="0.900389735283697"/>
-          <c:h val="0.74660246602466"/>
+          <c:x val="0.0501366673415671"/>
+          <c:y val="0.101080108010801"/>
+          <c:w val="0.900334075723831"/>
+          <c:h val="0.746579657965797"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3824,11 +3834,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11905682"/>
-        <c:axId val="98694400"/>
+        <c:axId val="48411614"/>
+        <c:axId val="16543402"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11905682"/>
+        <c:axId val="48411614"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -3896,14 +3906,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98694400"/>
+        <c:crossAx val="16543402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98694400"/>
+        <c:axId val="16543402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3979,7 +3989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11905682"/>
+        <c:crossAx val="48411614"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -4213,11 +4223,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83241949"/>
-        <c:axId val="11274034"/>
+        <c:axId val="6004993"/>
+        <c:axId val="48447742"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83241949"/>
+        <c:axId val="6004993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4255,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11274034"/>
+        <c:crossAx val="48447742"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4253,7 +4263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11274034"/>
+        <c:axId val="48447742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,7 +4328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83241949"/>
+        <c:crossAx val="6004993"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5009,11 +5019,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66796444"/>
-        <c:axId val="42642176"/>
+        <c:axId val="80259425"/>
+        <c:axId val="27836955"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66796444"/>
+        <c:axId val="80259425"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -5037,13 +5047,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times new roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times new roman"/>
                   </a:rPr>
                   <a:t>Transmission interval (seconds)</a:t>
                 </a:r>
@@ -5074,19 +5084,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="2400" spc="-1" strike="noStrike">
+                <a:latin typeface="Times new roman"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42642176"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="27836955"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42642176"/>
+        <c:axId val="27836955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5119,13 +5129,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:defRPr b="0" sz="2600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times new roman"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1600" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
+                  <a:rPr b="0" sz="2600" spc="-1" strike="noStrike">
+                    <a:latin typeface="Times new roman"/>
                   </a:rPr>
                   <a:t>Packet delivery ratio (PDR)</a:t>
                 </a:r>
@@ -5156,13 +5166,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
+              <a:defRPr b="0" sz="2400" spc="-1" strike="noStrike">
+                <a:latin typeface="Times new roman"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66796444"/>
+        <c:crossAx val="80259425"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -5190,8 +5200,8 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1600" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
+            <a:defRPr b="0" sz="2400" spc="-1" strike="noStrike">
+              <a:latin typeface="Times new roman"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -5223,10 +5233,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.050134129675558"/>
-          <c:y val="0.101071010710107"/>
-          <c:w val="0.900389735283697"/>
-          <c:h val="0.74660246602466"/>
+          <c:x val="0.0501368340032498"/>
+          <c:y val="0.101088156442202"/>
+          <c:w val="0.900346361070726"/>
+          <c:h val="0.746569941649582"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5516,11 +5526,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15847496"/>
-        <c:axId val="3323568"/>
+        <c:axId val="52769986"/>
+        <c:axId val="21310759"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15847496"/>
+        <c:axId val="52769986"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="35"/>
@@ -5588,14 +5598,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3323568"/>
+        <c:crossAx val="21310759"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3323568"/>
+        <c:axId val="21310759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5671,7 +5681,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15847496"/>
+        <c:crossAx val="52769986"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
@@ -5732,9 +5742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>212400</xdr:rowOff>
+      <xdr:rowOff>211680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5743,7 +5753,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="33295320" y="16205400"/>
-        <a:ext cx="14224680" cy="7999560"/>
+        <a:ext cx="14223960" cy="7998840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5762,9 +5772,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1872360</xdr:colOff>
+      <xdr:colOff>1871640</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5773,7 +5783,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17735040" y="25659720"/>
-        <a:ext cx="14333760" cy="8060760"/>
+        <a:ext cx="14333040" cy="8060040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5792,9 +5802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>1889280</xdr:colOff>
+      <xdr:colOff>1888560</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5803,7 +5813,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17751960" y="34045560"/>
-        <a:ext cx="14333760" cy="8020080"/>
+        <a:ext cx="14333040" cy="8019360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5822,9 +5832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5833,7 +5843,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="32806080" y="24498360"/>
-        <a:ext cx="14224680" cy="7999560"/>
+        <a:ext cx="14223960" cy="7998840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5852,9 +5862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>510480</xdr:colOff>
+      <xdr:colOff>509760</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5863,7 +5873,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="48075480" y="14722920"/>
-        <a:ext cx="7781400" cy="4377240"/>
+        <a:ext cx="7780680" cy="4376520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5881,10 +5891,10 @@
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>477000</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5893,7 +5903,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="32788440" y="34244280"/>
-        <a:ext cx="14333760" cy="8020080"/>
+        <a:ext cx="14922360" cy="8349120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5912,9 +5922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5923,7 +5933,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="48079440" y="24369480"/>
-        <a:ext cx="16838280" cy="9131400"/>
+        <a:ext cx="16837560" cy="9130680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5943,11 +5953,11 @@
   </sheetPr>
   <dimension ref="A1:AP182"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V116" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T164" activeCellId="0" sqref="T164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U134" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE159" activeCellId="0" sqref="AE159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.29"/>
@@ -13053,7 +13063,7 @@
       <selection pane="topLeft" activeCell="P37" activeCellId="0" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.66"/>
